--- a/Tesis/Resultados/Escalon/AP/ACOSTADO_Izquierdo_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/AP/ACOSTADO_Izquierdo_layer_1.xlsx
@@ -31,2356 +31,2356 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.0559050589799881]</t>
-  </si>
-  <si>
-    <t>[0.03742394223809242]</t>
-  </si>
-  <si>
-    <t>[0.3830678164958954]</t>
-  </si>
-  <si>
-    <t>[-0.1603040248155594]</t>
-  </si>
-  <si>
-    <t>[0.13059405982494354]</t>
-  </si>
-  <si>
-    <t>[-0.2752736210823059]</t>
-  </si>
-  <si>
-    <t>[-0.13955028355121613]</t>
-  </si>
-  <si>
-    <t>[-0.013953810557723045]</t>
-  </si>
-  <si>
-    <t>[0.005826849956065416]</t>
-  </si>
-  <si>
-    <t>[0.06569361686706543]</t>
-  </si>
-  <si>
-    <t>[-0.10287806391716003]</t>
-  </si>
-  <si>
-    <t>[0.31678488850593567]</t>
-  </si>
-  <si>
-    <t>[0.2187519669532776]</t>
-  </si>
-  <si>
-    <t>[0.1398206651210785]</t>
-  </si>
-  <si>
-    <t>[-0.04644310846924782]</t>
-  </si>
-  <si>
-    <t>[0.24467390775680542]</t>
-  </si>
-  <si>
-    <t>[-0.00650823162868619]</t>
-  </si>
-  <si>
-    <t>[-0.22407668828964233]</t>
-  </si>
-  <si>
-    <t>[-0.09004487097263336]</t>
-  </si>
-  <si>
-    <t>[0.01974959671497345]</t>
-  </si>
-  <si>
-    <t>[0.012193732894957066]</t>
-  </si>
-  <si>
-    <t>[-0.2708398699760437]</t>
-  </si>
-  <si>
-    <t>[-0.24563853442668915]</t>
-  </si>
-  <si>
-    <t>[0.06477117538452148]</t>
-  </si>
-  <si>
-    <t>[-0.4146106541156769]</t>
-  </si>
-  <si>
-    <t>[-0.10341407358646393]</t>
-  </si>
-  <si>
-    <t>[-0.1026744619011879]</t>
-  </si>
-  <si>
-    <t>[-0.2740563154220581]</t>
-  </si>
-  <si>
-    <t>[0.37927713990211487]</t>
-  </si>
-  <si>
-    <t>[0.02320091798901558]</t>
-  </si>
-  <si>
-    <t>[0.25073596835136414]</t>
-  </si>
-  <si>
-    <t>[-0.2286439687013626]</t>
-  </si>
-  <si>
-    <t>[0.08041594922542572]</t>
-  </si>
-  <si>
-    <t>[0.00045362257515080273]</t>
-  </si>
-  <si>
-    <t>[-0.022406039759516716]</t>
-  </si>
-  <si>
-    <t>[-0.01821998693048954]</t>
-  </si>
-  <si>
-    <t>[0.040128547698259354]</t>
-  </si>
-  <si>
-    <t>[0.17859797179698944]</t>
-  </si>
-  <si>
-    <t>[-0.34571605920791626]</t>
-  </si>
-  <si>
-    <t>[0.24495869874954224]</t>
-  </si>
-  <si>
-    <t>[-0.1302783191204071]</t>
-  </si>
-  <si>
-    <t>[0.039549048990011215]</t>
-  </si>
-  <si>
-    <t>[-0.148373082280159]</t>
-  </si>
-  <si>
-    <t>[0.37033557891845703]</t>
-  </si>
-  <si>
-    <t>[-0.13945798575878143]</t>
-  </si>
-  <si>
-    <t>[-0.33548447489738464]</t>
-  </si>
-  <si>
-    <t>[0.3116011321544647]</t>
-  </si>
-  <si>
-    <t>[0.15120337903499603]</t>
-  </si>
-  <si>
-    <t>[0.053153421729803085]</t>
-  </si>
-  <si>
-    <t>[-0.21519288420677185]</t>
-  </si>
-  <si>
-    <t>[0.1061055064201355]</t>
-  </si>
-  <si>
-    <t>[-0.09902050346136093]</t>
-  </si>
-  <si>
-    <t>[-0.2965141832828522]</t>
-  </si>
-  <si>
-    <t>[-0.3321020305156708]</t>
-  </si>
-  <si>
-    <t>[0.3928500711917877]</t>
-  </si>
-  <si>
-    <t>[0.2069530338048935]</t>
-  </si>
-  <si>
-    <t>[-0.12439848482608795]</t>
-  </si>
-  <si>
-    <t>[0.15161915123462677]</t>
-  </si>
-  <si>
-    <t>[0.21631349623203278]</t>
-  </si>
-  <si>
-    <t>[-0.22876858711242676]</t>
-  </si>
-  <si>
-    <t>[0.30718743801116943]</t>
-  </si>
-  <si>
-    <t>[-0.04371105879545212]</t>
-  </si>
-  <si>
-    <t>[0.14485488831996918]</t>
-  </si>
-  <si>
-    <t>[-0.03889304772019386]</t>
-  </si>
-  <si>
-    <t>[-0.073028065264225]</t>
-  </si>
-  <si>
-    <t>[0.11847040802240372]</t>
-  </si>
-  <si>
-    <t>[-0.05248229578137398]</t>
-  </si>
-  <si>
-    <t>[0.25080186128616333]</t>
-  </si>
-  <si>
-    <t>[-0.0925765261054039]</t>
-  </si>
-  <si>
-    <t>[0.16371892392635345]</t>
-  </si>
-  <si>
-    <t>[-0.2547715902328491]</t>
-  </si>
-  <si>
-    <t>[0.3214176595211029]</t>
-  </si>
-  <si>
-    <t>[0.32972386479377747]</t>
-  </si>
-  <si>
-    <t>[0.10345730930566788]</t>
-  </si>
-  <si>
-    <t>[0.3771887421607971]</t>
-  </si>
-  <si>
-    <t>[-0.03143246844410896]</t>
-  </si>
-  <si>
-    <t>[0.19649288058280945]</t>
-  </si>
-  <si>
-    <t>[0.17306742072105408]</t>
-  </si>
-  <si>
-    <t>[0.19082202017307281]</t>
-  </si>
-  <si>
-    <t>[-0.24531377851963043]</t>
-  </si>
-  <si>
-    <t>[-0.13665355741977692]</t>
-  </si>
-  <si>
-    <t>[-0.2695901393890381]</t>
-  </si>
-  <si>
-    <t>[0.06940234452486038]</t>
-  </si>
-  <si>
-    <t>[-0.28571632504463196]</t>
-  </si>
-  <si>
-    <t>[0.18269307911396027]</t>
-  </si>
-  <si>
-    <t>[0.15379096567630768]</t>
-  </si>
-  <si>
-    <t>[0.27966782450675964]</t>
-  </si>
-  <si>
-    <t>[-0.22932420670986176]</t>
-  </si>
-  <si>
-    <t>[-0.327911913394928]</t>
-  </si>
-  <si>
-    <t>[-0.1127142533659935]</t>
-  </si>
-  <si>
-    <t>[-0.06188386678695679]</t>
-  </si>
-  <si>
-    <t>[0.07493895292282104]</t>
-  </si>
-  <si>
-    <t>[-0.04968232288956642]</t>
-  </si>
-  <si>
-    <t>[-0.18360421061515808]</t>
-  </si>
-  <si>
-    <t>[0.14072751998901367]</t>
-  </si>
-  <si>
-    <t>[-0.031384989619255066]</t>
-  </si>
-  <si>
-    <t>[-0.15016502141952515]</t>
-  </si>
-  <si>
-    <t>[-0.10884217172861099]</t>
-  </si>
-  <si>
-    <t>[0.06344383955001831]</t>
-  </si>
-  <si>
-    <t>[-0.21442772448062897]</t>
-  </si>
-  <si>
-    <t>[0.391263872385025]</t>
-  </si>
-  <si>
-    <t>[-0.35790252685546875]</t>
-  </si>
-  <si>
-    <t>[-0.13658711314201355]</t>
-  </si>
-  <si>
-    <t>[-0.08538494259119034]</t>
-  </si>
-  <si>
-    <t>[0.16885906457901]</t>
-  </si>
-  <si>
-    <t>[-0.016717709600925446]</t>
-  </si>
-  <si>
-    <t>[0.1743386685848236]</t>
-  </si>
-  <si>
-    <t>[0.0734279453754425]</t>
-  </si>
-  <si>
-    <t>[-0.2632153034210205]</t>
-  </si>
-  <si>
-    <t>[-0.2367122322320938]</t>
-  </si>
-  <si>
-    <t>[0.20606990158557892]</t>
-  </si>
-  <si>
-    <t>[0.05811190605163574]</t>
-  </si>
-  <si>
-    <t>[-0.009694959037005901]</t>
-  </si>
-  <si>
-    <t>[-0.20686866343021393]</t>
-  </si>
-  <si>
-    <t>[-0.18687988817691803]</t>
-  </si>
-  <si>
-    <t>[0.13074125349521637]</t>
-  </si>
-  <si>
-    <t>[-0.30110517144203186]</t>
-  </si>
-  <si>
-    <t>[-0.24519681930541992]</t>
-  </si>
-  <si>
-    <t>[-0.017296846956014633]</t>
-  </si>
-  <si>
-    <t>[-0.19849638640880585]</t>
-  </si>
-  <si>
-    <t>[0.13361990451812744]</t>
-  </si>
-  <si>
-    <t>[0.14258433878421783]</t>
-  </si>
-  <si>
-    <t>[0.3272409737110138]</t>
-  </si>
-  <si>
-    <t>[0.15565261244773865]</t>
-  </si>
-  <si>
-    <t>[-0.1905439794063568]</t>
-  </si>
-  <si>
-    <t>[0.02393997646868229]</t>
-  </si>
-  <si>
-    <t>[0.03719417005777359]</t>
-  </si>
-  <si>
-    <t>[-0.07782071828842163]</t>
-  </si>
-  <si>
-    <t>[-0.35122454166412354]</t>
-  </si>
-  <si>
-    <t>[-0.08307909965515137]</t>
-  </si>
-  <si>
-    <t>[-0.31525856256484985]</t>
-  </si>
-  <si>
-    <t>[-0.019337568432092667]</t>
-  </si>
-  <si>
-    <t>[-0.0083841010928154]</t>
-  </si>
-  <si>
-    <t>[-0.16870008409023285]</t>
-  </si>
-  <si>
-    <t>[-0.017154913395643234]</t>
-  </si>
-  <si>
-    <t>[-0.28521308302879333]</t>
-  </si>
-  <si>
-    <t>[0.2575424313545227]</t>
-  </si>
-  <si>
-    <t>[-0.10019545257091522]</t>
-  </si>
-  <si>
-    <t>[-0.09808879345655441]</t>
-  </si>
-  <si>
-    <t>[0.302963525056839]</t>
-  </si>
-  <si>
-    <t>[0.0166710764169693]</t>
-  </si>
-  <si>
-    <t>[0.048064637929201126]</t>
-  </si>
-  <si>
-    <t>[-0.24400214850902557]</t>
-  </si>
-  <si>
-    <t>[0.10747209191322327]</t>
-  </si>
-  <si>
-    <t>[-0.041503529995679855]</t>
-  </si>
-  <si>
-    <t>[0.05014266446232796]</t>
-  </si>
-  <si>
-    <t>[0.18682976067066193]</t>
-  </si>
-  <si>
-    <t>[-0.3148309290409088]</t>
-  </si>
-  <si>
-    <t>[-0.04911411553621292]</t>
-  </si>
-  <si>
-    <t>[-0.2480488121509552]</t>
-  </si>
-  <si>
-    <t>[0.05812901630997658]</t>
-  </si>
-  <si>
-    <t>[-0.1234889030456543]</t>
-  </si>
-  <si>
-    <t>[-0.02363777719438076]</t>
-  </si>
-  <si>
-    <t>[-0.001154621015302837]</t>
-  </si>
-  <si>
-    <t>[-0.2969488501548767]</t>
-  </si>
-  <si>
-    <t>[0.12558256089687347]</t>
-  </si>
-  <si>
-    <t>[-0.10366830229759216]</t>
-  </si>
-  <si>
-    <t>[0.042142126709222794]</t>
-  </si>
-  <si>
-    <t>[-0.33037108182907104]</t>
-  </si>
-  <si>
-    <t>[0.12003258615732193]</t>
-  </si>
-  <si>
-    <t>[-0.02717592567205429]</t>
-  </si>
-  <si>
-    <t>[0.44896161556243896]</t>
-  </si>
-  <si>
-    <t>[-0.12165243923664093]</t>
-  </si>
-  <si>
-    <t>[0.3425768315792084]</t>
-  </si>
-  <si>
-    <t>[0.01208803616464138]</t>
-  </si>
-  <si>
-    <t>[-0.1311076432466507]</t>
-  </si>
-  <si>
-    <t>[0.06705161929130554]</t>
-  </si>
-  <si>
-    <t>[-0.10577037930488586]</t>
-  </si>
-  <si>
-    <t>[0.18043895065784454]</t>
-  </si>
-  <si>
-    <t>[-0.16725489497184753]</t>
-  </si>
-  <si>
-    <t>[0.2583414316177368]</t>
-  </si>
-  <si>
-    <t>[-0.2798045873641968]</t>
-  </si>
-  <si>
-    <t>[-0.018595539033412933]</t>
-  </si>
-  <si>
-    <t>[-0.26349934935569763]</t>
-  </si>
-  <si>
-    <t>[0.18395909667015076]</t>
-  </si>
-  <si>
-    <t>[0.08685308694839478]</t>
-  </si>
-  <si>
-    <t>[-0.2991989552974701]</t>
-  </si>
-  <si>
-    <t>[0.10360576957464218]</t>
-  </si>
-  <si>
-    <t>[-0.27943065762519836]</t>
-  </si>
-  <si>
-    <t>[-0.006898381281644106]</t>
-  </si>
-  <si>
-    <t>[0.3325228989124298]</t>
-  </si>
-  <si>
-    <t>[-0.2046632170677185]</t>
-  </si>
-  <si>
-    <t>[0.05093942955136299]</t>
-  </si>
-  <si>
-    <t>[0.33818766474723816]</t>
-  </si>
-  <si>
-    <t>[0.05492164567112923]</t>
-  </si>
-  <si>
-    <t>[-0.14752808213233948]</t>
-  </si>
-  <si>
-    <t>[0.35598787665367126]</t>
-  </si>
-  <si>
-    <t>[-0.1937233954668045]</t>
-  </si>
-  <si>
-    <t>[0.048586416989564896]</t>
-  </si>
-  <si>
-    <t>[-0.21856039762496948]</t>
-  </si>
-  <si>
-    <t>[-0.007578110788017511]</t>
-  </si>
-  <si>
-    <t>[-0.2305155247449875]</t>
-  </si>
-  <si>
-    <t>[-0.2558947801589966]</t>
-  </si>
-  <si>
-    <t>[0.059341661632061005]</t>
-  </si>
-  <si>
-    <t>[0.05627482756972313]</t>
-  </si>
-  <si>
-    <t>[-0.22940769791603088]</t>
-  </si>
-  <si>
-    <t>[0.4026232063770294]</t>
-  </si>
-  <si>
-    <t>[0.05093396455049515]</t>
-  </si>
-  <si>
-    <t>[0.39822545647621155]</t>
-  </si>
-  <si>
-    <t>[-0.2738688290119171]</t>
-  </si>
-  <si>
-    <t>[-0.2718724012374878]</t>
-  </si>
-  <si>
-    <t>[0.04602355509996414]</t>
-  </si>
-  <si>
-    <t>[0.16525688767433167]</t>
-  </si>
-  <si>
-    <t>[-0.1283944845199585]</t>
-  </si>
-  <si>
-    <t>[-0.33181923627853394]</t>
-  </si>
-  <si>
-    <t>[0.07592131942510605]</t>
-  </si>
-  <si>
-    <t>[-0.07536933571100235]</t>
-  </si>
-  <si>
-    <t>[0.17275358736515045]</t>
-  </si>
-  <si>
-    <t>[0.2817452847957611]</t>
-  </si>
-  <si>
-    <t>[0.09326497465372086]</t>
-  </si>
-  <si>
-    <t>[-0.048190027475357056]</t>
-  </si>
-  <si>
-    <t>[-0.08499239385128021]</t>
-  </si>
-  <si>
-    <t>[0.319996178150177]</t>
-  </si>
-  <si>
-    <t>[-0.3052317500114441]</t>
-  </si>
-  <si>
-    <t>[0.17028822004795074]</t>
-  </si>
-  <si>
-    <t>[0.09172117710113525]</t>
-  </si>
-  <si>
-    <t>[0.3409607708454132]</t>
-  </si>
-  <si>
-    <t>[-0.16997438669204712]</t>
-  </si>
-  <si>
-    <t>[-0.08128601312637329]</t>
-  </si>
-  <si>
-    <t>[0.09707451611757278]</t>
-  </si>
-  <si>
-    <t>[-0.014280102215707302]</t>
-  </si>
-  <si>
-    <t>[-0.0722392275929451]</t>
-  </si>
-  <si>
-    <t>[0.3674257695674896]</t>
-  </si>
-  <si>
-    <t>[0.33701878786087036]</t>
-  </si>
-  <si>
-    <t>[-0.050335414707660675]</t>
-  </si>
-  <si>
-    <t>[-0.1450425088405609]</t>
-  </si>
-  <si>
-    <t>[-0.1641324758529663]</t>
-  </si>
-  <si>
-    <t>[0.16178376972675323]</t>
-  </si>
-  <si>
-    <t>[-0.028585607185959816]</t>
-  </si>
-  <si>
-    <t>[-0.15732121467590332]</t>
-  </si>
-  <si>
-    <t>[-0.1262357383966446]</t>
-  </si>
-  <si>
-    <t>[0.09759220480918884]</t>
-  </si>
-  <si>
-    <t>[0.286283940076828]</t>
-  </si>
-  <si>
-    <t>[0.13514354825019836]</t>
-  </si>
-  <si>
-    <t>[-0.0898352637887001]</t>
-  </si>
-  <si>
-    <t>[-0.3691907227039337]</t>
-  </si>
-  <si>
-    <t>[-0.28311964869499207]</t>
-  </si>
-  <si>
-    <t>[-0.05466940999031067]</t>
-  </si>
-  <si>
-    <t>[0.00820920243859291]</t>
-  </si>
-  <si>
-    <t>[-0.36590710282325745]</t>
-  </si>
-  <si>
-    <t>[-0.32734575867652893]</t>
-  </si>
-  <si>
-    <t>[-0.08390118926763535]</t>
-  </si>
-  <si>
-    <t>[-0.08455950766801834]</t>
-  </si>
-  <si>
-    <t>[0.2892361283302307]</t>
-  </si>
-  <si>
-    <t>[0.3751758635044098]</t>
-  </si>
-  <si>
-    <t>[-0.26486504077911377]</t>
-  </si>
-  <si>
-    <t>[0.12911677360534668]</t>
-  </si>
-  <si>
-    <t>[-0.15168477594852448]</t>
-  </si>
-  <si>
-    <t>[-0.05623837560415268]</t>
-  </si>
-  <si>
-    <t>[-0.2204134613275528]</t>
-  </si>
-  <si>
-    <t>[-0.4162317216396332]</t>
-  </si>
-  <si>
-    <t>[0.36622464656829834]</t>
-  </si>
-  <si>
-    <t>[-0.3935110867023468]</t>
-  </si>
-  <si>
-    <t>[0.1504719853401184]</t>
-  </si>
-  <si>
-    <t>[-0.10009931772947311]</t>
-  </si>
-  <si>
-    <t>[0.3098757863044739]</t>
-  </si>
-  <si>
-    <t>[0.12796945869922638]</t>
-  </si>
-  <si>
-    <t>[0.04289356991648674]</t>
-  </si>
-  <si>
-    <t>[-0.014399242587387562]</t>
-  </si>
-  <si>
-    <t>[0.10358736664056778]</t>
-  </si>
-  <si>
-    <t>[-0.073337621986866]</t>
-  </si>
-  <si>
-    <t>[-0.08093217015266418]</t>
-  </si>
-  <si>
-    <t>[0.3374280631542206]</t>
-  </si>
-  <si>
-    <t>[-0.1663302183151245]</t>
-  </si>
-  <si>
-    <t>[-0.0015309435548260808]</t>
-  </si>
-  <si>
-    <t>[0.14425665140151978]</t>
-  </si>
-  <si>
-    <t>[0.12180372327566147]</t>
-  </si>
-  <si>
-    <t>[-0.06361791491508484]</t>
-  </si>
-  <si>
-    <t>[0.015387318097054958]</t>
-  </si>
-  <si>
-    <t>[0.2774452865123749]</t>
-  </si>
-  <si>
-    <t>[-0.3274111747741699]</t>
-  </si>
-  <si>
-    <t>[-0.19562272727489471]</t>
-  </si>
-  <si>
-    <t>[-0.2608487010002136]</t>
-  </si>
-  <si>
-    <t>[0.21857064962387085]</t>
-  </si>
-  <si>
-    <t>[0.22695091366767883]</t>
-  </si>
-  <si>
-    <t>[0.31864607334136963]</t>
-  </si>
-  <si>
-    <t>[0.2805035412311554]</t>
-  </si>
-  <si>
-    <t>[-0.0789036676287651]</t>
-  </si>
-  <si>
-    <t>[-0.3307940661907196]</t>
-  </si>
-  <si>
-    <t>[-0.24571353197097778]</t>
-  </si>
-  <si>
-    <t>[-0.32625386118888855]</t>
-  </si>
-  <si>
-    <t>[-0.24791520833969116]</t>
-  </si>
-  <si>
-    <t>[-0.2644893527030945]</t>
-  </si>
-  <si>
-    <t>[0.21228085458278656]</t>
-  </si>
-  <si>
-    <t>[0.05277691408991814]</t>
-  </si>
-  <si>
-    <t>[0.13204315304756165]</t>
-  </si>
-  <si>
-    <t>[0.14296755194664001]</t>
-  </si>
-  <si>
-    <t>[-0.044394321739673615]</t>
-  </si>
-  <si>
-    <t>[0.21700409054756165]</t>
-  </si>
-  <si>
-    <t>[-0.2449844628572464]</t>
-  </si>
-  <si>
-    <t>[-0.0840047299861908]</t>
-  </si>
-  <si>
-    <t>[-0.01045971643179655]</t>
-  </si>
-  <si>
-    <t>[-0.039647359400987625]</t>
-  </si>
-  <si>
-    <t>[0.09097875654697418]</t>
-  </si>
-  <si>
-    <t>[0.2663857340812683]</t>
-  </si>
-  <si>
-    <t>[0.1592869758605957]</t>
-  </si>
-  <si>
-    <t>[-0.3873927593231201]</t>
-  </si>
-  <si>
-    <t>[-0.07179912179708481]</t>
-  </si>
-  <si>
-    <t>[-0.4299941956996918]</t>
-  </si>
-  <si>
-    <t>[-0.1765715628862381]</t>
-  </si>
-  <si>
-    <t>[0.22760045528411865]</t>
-  </si>
-  <si>
-    <t>[-0.2989063858985901]</t>
-  </si>
-  <si>
-    <t>[0.34322649240493774]</t>
-  </si>
-  <si>
-    <t>[0.12491673976182938]</t>
-  </si>
-  <si>
-    <t>[0.12264781445264816]</t>
-  </si>
-  <si>
-    <t>[0.31530138850212097]</t>
-  </si>
-  <si>
-    <t>[-0.36297523975372314]</t>
-  </si>
-  <si>
-    <t>[0.08522452414035797]</t>
-  </si>
-  <si>
-    <t>[-0.10286980867385864]</t>
-  </si>
-  <si>
-    <t>[0.0962318629026413]</t>
-  </si>
-  <si>
-    <t>[0.03521506488323212]</t>
-  </si>
-  <si>
-    <t>[0.21752259135246277]</t>
-  </si>
-  <si>
-    <t>[0.28111714124679565]</t>
-  </si>
-  <si>
-    <t>[0.3217269480228424]</t>
-  </si>
-  <si>
-    <t>[-0.36467719078063965]</t>
-  </si>
-  <si>
-    <t>[-0.13693752884864807]</t>
-  </si>
-  <si>
-    <t>[0.18572205305099487]</t>
-  </si>
-  <si>
-    <t>[0.041084710508584976]</t>
-  </si>
-  <si>
-    <t>[-0.07235198467969894]</t>
-  </si>
-  <si>
-    <t>[-0.07050473242998123]</t>
-  </si>
-  <si>
-    <t>[-0.3348659574985504]</t>
-  </si>
-  <si>
-    <t>[0.16545778512954712]</t>
-  </si>
-  <si>
-    <t>[-0.25979387760162354]</t>
-  </si>
-  <si>
-    <t>[-0.2406083047389984]</t>
-  </si>
-  <si>
-    <t>[-0.00550607405602932]</t>
-  </si>
-  <si>
-    <t>[-0.029080985113978386]</t>
-  </si>
-  <si>
-    <t>[0.018311012536287308]</t>
-  </si>
-  <si>
-    <t>[0.16218867897987366]</t>
-  </si>
-  <si>
-    <t>[-0.45736968517303467]</t>
-  </si>
-  <si>
-    <t>[0.20656196773052216]</t>
-  </si>
-  <si>
-    <t>[0.03416137397289276]</t>
-  </si>
-  <si>
-    <t>[0.395060658454895]</t>
-  </si>
-  <si>
-    <t>[-0.08286350965499878]</t>
-  </si>
-  <si>
-    <t>[-0.05216505751013756]</t>
-  </si>
-  <si>
-    <t>[0.0737781822681427]</t>
-  </si>
-  <si>
-    <t>[-0.1198132187128067]</t>
-  </si>
-  <si>
-    <t>[0.16720376908779144]</t>
-  </si>
-  <si>
-    <t>[0.002638104371726513]</t>
-  </si>
-  <si>
-    <t>[-0.12240036576986313]</t>
-  </si>
-  <si>
-    <t>[0.156950443983078]</t>
-  </si>
-  <si>
-    <t>[-0.37437450885772705]</t>
-  </si>
-  <si>
-    <t>[-0.05149182304739952]</t>
-  </si>
-  <si>
-    <t>[0.008380495011806488]</t>
-  </si>
-  <si>
-    <t>[-0.17221525311470032]</t>
-  </si>
-  <si>
-    <t>[0.039288002997636795]</t>
-  </si>
-  <si>
-    <t>[0.10268216580152512]</t>
-  </si>
-  <si>
-    <t>[0.22143356502056122]</t>
-  </si>
-  <si>
-    <t>[-0.12952546775341034]</t>
-  </si>
-  <si>
-    <t>[0.12068966031074524]</t>
-  </si>
-  <si>
-    <t>[0.2546840310096741]</t>
-  </si>
-  <si>
-    <t>[0.07535187155008316]</t>
-  </si>
-  <si>
-    <t>[-0.1934397965669632]</t>
-  </si>
-  <si>
-    <t>[0.03580861538648605]</t>
-  </si>
-  <si>
-    <t>[0.2542892098426819]</t>
-  </si>
-  <si>
-    <t>[0.14381076395511627]</t>
-  </si>
-  <si>
-    <t>[0.25546202063560486]</t>
-  </si>
-  <si>
-    <t>[0.04539303854107857]</t>
-  </si>
-  <si>
-    <t>[-0.10757565498352051]</t>
-  </si>
-  <si>
-    <t>[0.23715421557426453]</t>
-  </si>
-  <si>
-    <t>[-0.06512270867824554]</t>
-  </si>
-  <si>
-    <t>[-0.02012769691646099]</t>
-  </si>
-  <si>
-    <t>[0.12447923421859741]</t>
-  </si>
-  <si>
-    <t>[0.019203389063477516]</t>
-  </si>
-  <si>
-    <t>[0.13873541355133057]</t>
-  </si>
-  <si>
-    <t>[-0.2778022587299347]</t>
-  </si>
-  <si>
-    <t>[0.26706334948539734]</t>
-  </si>
-  <si>
-    <t>[-0.34700807929039]</t>
-  </si>
-  <si>
-    <t>[0.012220845557749271]</t>
-  </si>
-  <si>
-    <t>[-0.10275495052337646]</t>
-  </si>
-  <si>
-    <t>[-0.22490105032920837]</t>
-  </si>
-  <si>
-    <t>[0.15361495316028595]</t>
-  </si>
-  <si>
-    <t>[0.08549681305885315]</t>
-  </si>
-  <si>
-    <t>[0.24995145201683044]</t>
-  </si>
-  <si>
-    <t>[-0.11570437252521515]</t>
-  </si>
-  <si>
-    <t>[-0.1033424362540245]</t>
-  </si>
-  <si>
-    <t>[-0.0036968872882425785]</t>
-  </si>
-  <si>
-    <t>[0.11948882788419724]</t>
-  </si>
-  <si>
-    <t>[-0.1439967006444931]</t>
-  </si>
-  <si>
-    <t>[0.01599283516407013]</t>
-  </si>
-  <si>
-    <t>[-0.05451425909996033]</t>
-  </si>
-  <si>
-    <t>[-0.300929456949234]</t>
-  </si>
-  <si>
-    <t>[-0.18359169363975525]</t>
-  </si>
-  <si>
-    <t>[-0.12466760724782944]</t>
-  </si>
-  <si>
-    <t>[0.21132555603981018]</t>
-  </si>
-  <si>
-    <t>[-0.021590514108538628]</t>
-  </si>
-  <si>
-    <t>[0.06197722256183624]</t>
-  </si>
-  <si>
-    <t>[0.08793142437934875]</t>
-  </si>
-  <si>
-    <t>[0.07205134630203247]</t>
-  </si>
-  <si>
-    <t>[0.30033689737319946]</t>
-  </si>
-  <si>
-    <t>[-0.10744212567806244]</t>
-  </si>
-  <si>
-    <t>[-0.164274662733078]</t>
-  </si>
-  <si>
-    <t>[-0.23667332530021667]</t>
-  </si>
-  <si>
-    <t>[-0.15843363106250763]</t>
-  </si>
-  <si>
-    <t>[0.1156243085861206]</t>
-  </si>
-  <si>
-    <t>[0.04146856442093849]</t>
-  </si>
-  <si>
-    <t>[0.2503596842288971]</t>
-  </si>
-  <si>
-    <t>[0.08082448691129684]</t>
-  </si>
-  <si>
-    <t>[0.021395932883024216]</t>
-  </si>
-  <si>
-    <t>[0.015516873449087143]</t>
-  </si>
-  <si>
-    <t>[-0.26827389001846313]</t>
-  </si>
-  <si>
-    <t>[0.24318747222423553]</t>
-  </si>
-  <si>
-    <t>[-0.08475948870182037]</t>
-  </si>
-  <si>
-    <t>[0.18801411986351013]</t>
-  </si>
-  <si>
-    <t>[-0.11411968618631363]</t>
-  </si>
-  <si>
-    <t>[-0.32523244619369507]</t>
-  </si>
-  <si>
-    <t>[-0.26200243830680847]</t>
-  </si>
-  <si>
-    <t>[0.19606292247772217]</t>
-  </si>
-  <si>
-    <t>[-0.21290525794029236]</t>
-  </si>
-  <si>
-    <t>[-0.22561922669410706]</t>
-  </si>
-  <si>
-    <t>[0.23979109525680542]</t>
-  </si>
-  <si>
-    <t>[-0.25613147020339966]</t>
-  </si>
-  <si>
-    <t>[-0.1393248587846756]</t>
-  </si>
-  <si>
-    <t>[0.14271676540374756]</t>
-  </si>
-  <si>
-    <t>[0.17352168262004852]</t>
-  </si>
-  <si>
-    <t>[0.011793889105319977]</t>
-  </si>
-  <si>
-    <t>[0.13204097747802734]</t>
-  </si>
-  <si>
-    <t>[0.33428511023521423]</t>
-  </si>
-  <si>
-    <t>[0.09657245874404907]</t>
-  </si>
-  <si>
-    <t>[-0.07491735368967056]</t>
-  </si>
-  <si>
-    <t>[0.27994757890701294]</t>
-  </si>
-  <si>
-    <t>[0.010630118660628796]</t>
-  </si>
-  <si>
-    <t>[-0.12479917705059052]</t>
-  </si>
-  <si>
-    <t>[-0.22510334849357605]</t>
-  </si>
-  <si>
-    <t>[0.2831980288028717]</t>
-  </si>
-  <si>
-    <t>[0.3579906225204468]</t>
-  </si>
-  <si>
-    <t>[-0.04201904684305191]</t>
-  </si>
-  <si>
-    <t>[-0.2976771295070648]</t>
-  </si>
-  <si>
-    <t>[0.08911582827568054]</t>
-  </si>
-  <si>
-    <t>[-0.1639358252286911]</t>
-  </si>
-  <si>
-    <t>[-0.15699906647205353]</t>
-  </si>
-  <si>
-    <t>[0.3071150779724121]</t>
-  </si>
-  <si>
-    <t>[-0.17925606667995453]</t>
-  </si>
-  <si>
-    <t>[0.09244976937770844]</t>
-  </si>
-  <si>
-    <t>[0.25712519884109497]</t>
-  </si>
-  <si>
-    <t>[0.08436910808086395]</t>
-  </si>
-  <si>
-    <t>[0.12059711664915085]</t>
-  </si>
-  <si>
-    <t>[0.11033722758293152]</t>
-  </si>
-  <si>
-    <t>[0.03985565900802612]</t>
-  </si>
-  <si>
-    <t>[-0.03510848805308342]</t>
-  </si>
-  <si>
-    <t>[0.0008494672947563231]</t>
-  </si>
-  <si>
-    <t>[-0.3577403426170349]</t>
-  </si>
-  <si>
-    <t>[0.07397624850273132]</t>
-  </si>
-  <si>
-    <t>[0.2444653958082199]</t>
-  </si>
-  <si>
-    <t>[-0.028002683073282242]</t>
-  </si>
-  <si>
-    <t>[0.12407711893320084]</t>
-  </si>
-  <si>
-    <t>[0.29987362027168274]</t>
-  </si>
-  <si>
-    <t>[-0.1931965947151184]</t>
-  </si>
-  <si>
-    <t>[0.15408018231391907]</t>
-  </si>
-  <si>
-    <t>[0.02953340671956539]</t>
-  </si>
-  <si>
-    <t>[0.07802165299654007]</t>
-  </si>
-  <si>
-    <t>[0.13652078807353973]</t>
-  </si>
-  <si>
-    <t>[-0.14599382877349854]</t>
-  </si>
-  <si>
-    <t>[-0.3260655701160431]</t>
-  </si>
-  <si>
-    <t>[0.07802334427833557]</t>
-  </si>
-  <si>
-    <t>[0.12618422508239746]</t>
-  </si>
-  <si>
-    <t>[0.14348943531513214]</t>
-  </si>
-  <si>
-    <t>[0.17804671823978424]</t>
-  </si>
-  <si>
-    <t>[0.04958251118659973]</t>
-  </si>
-  <si>
-    <t>[0.24819959700107574]</t>
-  </si>
-  <si>
-    <t>[0.05584301799535751]</t>
-  </si>
-  <si>
-    <t>[0.14170457422733307]</t>
-  </si>
-  <si>
-    <t>[-0.274297297000885]</t>
-  </si>
-  <si>
-    <t>[-0.208290696144104]</t>
-  </si>
-  <si>
-    <t>[0.03265385329723358]</t>
-  </si>
-  <si>
-    <t>[-0.010099882259964943]</t>
-  </si>
-  <si>
-    <t>[0.31198251247406006]</t>
-  </si>
-  <si>
-    <t>[-0.41972970962524414]</t>
-  </si>
-  <si>
-    <t>[0.33315008878707886]</t>
-  </si>
-  <si>
-    <t>[0.309851735830307]</t>
-  </si>
-  <si>
-    <t>[0.18722760677337646]</t>
-  </si>
-  <si>
-    <t>[-0.1150347888469696]</t>
-  </si>
-  <si>
-    <t>[0.2086828649044037]</t>
-  </si>
-  <si>
-    <t>[0.3664558231830597]</t>
-  </si>
-  <si>
-    <t>[0.11236407607793808]</t>
-  </si>
-  <si>
-    <t>[-0.05357164889574051]</t>
-  </si>
-  <si>
-    <t>[0.20552851259708405]</t>
-  </si>
-  <si>
-    <t>[-0.3194822072982788]</t>
-  </si>
-  <si>
-    <t>[0.10308537632226944]</t>
-  </si>
-  <si>
-    <t>[-0.3497580885887146]</t>
-  </si>
-  <si>
-    <t>[0.28976690769195557]</t>
-  </si>
-  <si>
-    <t>[-0.10941360890865326]</t>
-  </si>
-  <si>
-    <t>[-0.25521889328956604]</t>
-  </si>
-  <si>
-    <t>[0.16866756975650787]</t>
-  </si>
-  <si>
-    <t>[0.008949997834861279]</t>
-  </si>
-  <si>
-    <t>[-0.04653052240610123]</t>
-  </si>
-  <si>
-    <t>[0.30500084161758423]</t>
-  </si>
-  <si>
-    <t>[-0.15035074949264526]</t>
-  </si>
-  <si>
-    <t>[-0.029314421117305756]</t>
-  </si>
-  <si>
-    <t>[-0.13242286443710327]</t>
-  </si>
-  <si>
-    <t>[-0.15590371191501617]</t>
-  </si>
-  <si>
-    <t>[-0.2313411682844162]</t>
-  </si>
-  <si>
-    <t>[0.06969717890024185]</t>
-  </si>
-  <si>
-    <t>[-0.14584772288799286]</t>
-  </si>
-  <si>
-    <t>[0.13661059737205505]</t>
-  </si>
-  <si>
-    <t>[-0.2423870712518692]</t>
-  </si>
-  <si>
-    <t>[-0.2596089839935303]</t>
-  </si>
-  <si>
-    <t>[-0.4439421594142914]</t>
-  </si>
-  <si>
-    <t>[-0.12170238047838211]</t>
-  </si>
-  <si>
-    <t>[0.06077311560511589]</t>
-  </si>
-  <si>
-    <t>[0.32969075441360474]</t>
-  </si>
-  <si>
-    <t>[0.18736398220062256]</t>
-  </si>
-  <si>
-    <t>[0.13251566886901855]</t>
-  </si>
-  <si>
-    <t>[-0.07327032834291458]</t>
-  </si>
-  <si>
-    <t>[-0.046842630952596664]</t>
-  </si>
-  <si>
-    <t>[0.21477466821670532]</t>
-  </si>
-  <si>
-    <t>[0.18619510531425476]</t>
-  </si>
-  <si>
-    <t>[-0.09702350944280624]</t>
-  </si>
-  <si>
-    <t>[-0.14131207764148712]</t>
-  </si>
-  <si>
-    <t>[0.3196600377559662]</t>
-  </si>
-  <si>
-    <t>[0.16327032446861267]</t>
-  </si>
-  <si>
-    <t>[-0.37544310092926025]</t>
-  </si>
-  <si>
-    <t>[-0.23952725529670715]</t>
-  </si>
-  <si>
-    <t>[0.13185706734657288]</t>
-  </si>
-  <si>
-    <t>[0.031114622950553894]</t>
-  </si>
-  <si>
-    <t>[-0.06421831250190735]</t>
-  </si>
-  <si>
-    <t>[-0.173574298620224]</t>
-  </si>
-  <si>
-    <t>[0.35703590512275696]</t>
-  </si>
-  <si>
-    <t>[-0.07254623621702194]</t>
-  </si>
-  <si>
-    <t>[-0.07222509384155273]</t>
-  </si>
-  <si>
-    <t>[-0.014647001400589943]</t>
-  </si>
-  <si>
-    <t>[-0.0927148312330246]</t>
-  </si>
-  <si>
-    <t>[0.08830883353948593]</t>
-  </si>
-  <si>
-    <t>[0.23136302828788757]</t>
-  </si>
-  <si>
-    <t>[-0.22741006314754486]</t>
-  </si>
-  <si>
-    <t>[-0.15449944138526917]</t>
-  </si>
-  <si>
-    <t>[0.1213034987449646]</t>
-  </si>
-  <si>
-    <t>[-0.2921769917011261]</t>
-  </si>
-  <si>
-    <t>[-0.02937631867825985]</t>
-  </si>
-  <si>
-    <t>[-0.1371595412492752]</t>
-  </si>
-  <si>
-    <t>[-0.10751651972532272]</t>
-  </si>
-  <si>
-    <t>[-0.06086390092968941]</t>
-  </si>
-  <si>
-    <t>[0.057594288140535355]</t>
-  </si>
-  <si>
-    <t>[0.4348633885383606]</t>
-  </si>
-  <si>
-    <t>[0.20434173941612244]</t>
-  </si>
-  <si>
-    <t>[0.4543377757072449]</t>
-  </si>
-  <si>
-    <t>[-0.26104849576950073]</t>
-  </si>
-  <si>
-    <t>[-0.17626582086086273]</t>
-  </si>
-  <si>
-    <t>[0.18078657984733582]</t>
-  </si>
-  <si>
-    <t>[0.3284529745578766]</t>
-  </si>
-  <si>
-    <t>[0.1408548206090927]</t>
-  </si>
-  <si>
-    <t>[-0.23287270963191986]</t>
-  </si>
-  <si>
-    <t>[0.15006142854690552]</t>
-  </si>
-  <si>
-    <t>[0.1677444875240326]</t>
-  </si>
-  <si>
-    <t>[-0.22020168602466583]</t>
-  </si>
-  <si>
-    <t>[0.1771726757287979]</t>
-  </si>
-  <si>
-    <t>[0.18975666165351868]</t>
-  </si>
-  <si>
-    <t>[0.2556295692920685]</t>
-  </si>
-  <si>
-    <t>[-0.03010174259543419]</t>
-  </si>
-  <si>
-    <t>[0.21675410866737366]</t>
-  </si>
-  <si>
-    <t>[-0.12977661192417145]</t>
-  </si>
-  <si>
-    <t>[0.3955765962600708]</t>
-  </si>
-  <si>
-    <t>[0.08735056221485138]</t>
-  </si>
-  <si>
-    <t>[0.2933175265789032]</t>
-  </si>
-  <si>
-    <t>[-0.3457789719104767]</t>
-  </si>
-  <si>
-    <t>[-0.14545315504074097]</t>
-  </si>
-  <si>
-    <t>[-0.25536733865737915]</t>
-  </si>
-  <si>
-    <t>[0.07403772324323654]</t>
-  </si>
-  <si>
-    <t>[0.0031181885860860348]</t>
-  </si>
-  <si>
-    <t>[-0.04182697460055351]</t>
-  </si>
-  <si>
-    <t>[0.004111407790333033]</t>
-  </si>
-  <si>
-    <t>[-0.015523227863013744]</t>
-  </si>
-  <si>
-    <t>[0.2639915943145752]</t>
-  </si>
-  <si>
-    <t>[-0.3027457296848297]</t>
-  </si>
-  <si>
-    <t>[-0.019670749083161354]</t>
-  </si>
-  <si>
-    <t>[-0.1627872735261917]</t>
-  </si>
-  <si>
-    <t>[-0.23632986843585968]</t>
-  </si>
-  <si>
-    <t>[0.37339162826538086]</t>
-  </si>
-  <si>
-    <t>[0.04849374294281006]</t>
-  </si>
-  <si>
-    <t>[0.3164106011390686]</t>
-  </si>
-  <si>
-    <t>[-0.2418687641620636]</t>
-  </si>
-  <si>
-    <t>[0.027482254430651665]</t>
-  </si>
-  <si>
-    <t>[0.1040666252374649]</t>
-  </si>
-  <si>
-    <t>[-0.30331140756607056]</t>
-  </si>
-  <si>
-    <t>[0.03571631386876106]</t>
-  </si>
-  <si>
-    <t>[0.2691933810710907]</t>
-  </si>
-  <si>
-    <t>[-0.2152581661939621]</t>
-  </si>
-  <si>
-    <t>[-0.3580004572868347]</t>
-  </si>
-  <si>
-    <t>[0.1242872029542923]</t>
-  </si>
-  <si>
-    <t>[-0.35669028759002686]</t>
-  </si>
-  <si>
-    <t>[0.08236327022314072]</t>
-  </si>
-  <si>
-    <t>[0.09011995792388916]</t>
-  </si>
-  <si>
-    <t>[0.05248042941093445]</t>
-  </si>
-  <si>
-    <t>[0.003180895932018757]</t>
-  </si>
-  <si>
-    <t>[-0.0559515617787838]</t>
-  </si>
-  <si>
-    <t>[0.4018907845020294]</t>
-  </si>
-  <si>
-    <t>[0.09015857428312302]</t>
-  </si>
-  <si>
-    <t>[-0.15883001685142517]</t>
-  </si>
-  <si>
-    <t>[-0.23059715330600739]</t>
-  </si>
-  <si>
-    <t>[0.12859177589416504]</t>
-  </si>
-  <si>
-    <t>[0.32222816348075867]</t>
-  </si>
-  <si>
-    <t>[-0.07801857590675354]</t>
-  </si>
-  <si>
-    <t>[0.18548353016376495]</t>
-  </si>
-  <si>
-    <t>[0.3362172842025757]</t>
-  </si>
-  <si>
-    <t>[-0.23755218088626862]</t>
-  </si>
-  <si>
-    <t>[-0.34743234515190125]</t>
-  </si>
-  <si>
-    <t>[-0.2623105049133301]</t>
-  </si>
-  <si>
-    <t>[0.3429250419139862]</t>
-  </si>
-  <si>
-    <t>[0.04886187985539436]</t>
-  </si>
-  <si>
-    <t>[0.1209133118391037]</t>
-  </si>
-  <si>
-    <t>[0.19047735631465912]</t>
-  </si>
-  <si>
-    <t>[-0.2216971516609192]</t>
-  </si>
-  <si>
-    <t>[-0.05981311947107315]</t>
-  </si>
-  <si>
-    <t>[-0.2473677545785904]</t>
-  </si>
-  <si>
-    <t>[0.18853874504566193]</t>
-  </si>
-  <si>
-    <t>[-0.44472235441207886]</t>
-  </si>
-  <si>
-    <t>[0.3209281265735626]</t>
-  </si>
-  <si>
-    <t>[-0.19027674198150635]</t>
-  </si>
-  <si>
-    <t>[0.07469039410352707]</t>
-  </si>
-  <si>
-    <t>[-0.1554500162601471]</t>
-  </si>
-  <si>
-    <t>[0.26473355293273926]</t>
-  </si>
-  <si>
-    <t>[-0.2465265840291977]</t>
-  </si>
-  <si>
-    <t>[0.11368963867425919]</t>
-  </si>
-  <si>
-    <t>[-0.07857950031757355]</t>
-  </si>
-  <si>
-    <t>[-0.23479345440864563]</t>
-  </si>
-  <si>
-    <t>[0.08776389807462692]</t>
-  </si>
-  <si>
-    <t>[-0.11612728983163834]</t>
-  </si>
-  <si>
-    <t>[-0.20714835822582245]</t>
-  </si>
-  <si>
-    <t>[-0.18694671988487244]</t>
-  </si>
-  <si>
-    <t>[-0.002819058019667864]</t>
-  </si>
-  <si>
-    <t>[0.15720771253108978]</t>
-  </si>
-  <si>
-    <t>[-0.06466022878885269]</t>
-  </si>
-  <si>
-    <t>[-0.012028631754219532]</t>
-  </si>
-  <si>
-    <t>[0.29903876781463623]</t>
-  </si>
-  <si>
-    <t>[-0.25683075189590454]</t>
-  </si>
-  <si>
-    <t>[0.19174447655677795]</t>
-  </si>
-  <si>
-    <t>[0.3070358633995056]</t>
-  </si>
-  <si>
-    <t>[0.1995624154806137]</t>
-  </si>
-  <si>
-    <t>[0.014490566216409206]</t>
-  </si>
-  <si>
-    <t>[-0.2213682234287262]</t>
-  </si>
-  <si>
-    <t>[-0.22606785595417023]</t>
-  </si>
-  <si>
-    <t>[0.29353195428848267]</t>
-  </si>
-  <si>
-    <t>[-0.11208367347717285]</t>
-  </si>
-  <si>
-    <t>[-0.346476286649704]</t>
-  </si>
-  <si>
-    <t>[0.14569124579429626]</t>
-  </si>
-  <si>
-    <t>[-0.061520252376794815]</t>
-  </si>
-  <si>
-    <t>[0.13060800731182098]</t>
-  </si>
-  <si>
-    <t>[-0.14396458864212036]</t>
-  </si>
-  <si>
-    <t>[-0.15218593180179596]</t>
-  </si>
-  <si>
-    <t>[0.17218872904777527]</t>
-  </si>
-  <si>
-    <t>[-0.19313736259937286]</t>
-  </si>
-  <si>
-    <t>[-0.2025795578956604]</t>
-  </si>
-  <si>
-    <t>[0.28510263562202454]</t>
-  </si>
-  <si>
-    <t>[-0.27263203263282776]</t>
-  </si>
-  <si>
-    <t>[0.29021018743515015]</t>
-  </si>
-  <si>
-    <t>[-0.004347521346062422]</t>
-  </si>
-  <si>
-    <t>[-0.23575586080551147]</t>
-  </si>
-  <si>
-    <t>[-0.281367689371109]</t>
-  </si>
-  <si>
-    <t>[-0.1339239776134491]</t>
-  </si>
-  <si>
-    <t>[0.18641982972621918]</t>
-  </si>
-  <si>
-    <t>[0.20691744983196259]</t>
-  </si>
-  <si>
-    <t>[0.03503379225730896]</t>
-  </si>
-  <si>
-    <t>[-0.001502311322838068]</t>
-  </si>
-  <si>
-    <t>[0.35729360580444336]</t>
-  </si>
-  <si>
-    <t>[0.1919928938150406]</t>
-  </si>
-  <si>
-    <t>[0.1818743348121643]</t>
-  </si>
-  <si>
-    <t>[0.25416743755340576]</t>
-  </si>
-  <si>
-    <t>[-0.263315349817276]</t>
-  </si>
-  <si>
-    <t>[0.2343616485595703]</t>
-  </si>
-  <si>
-    <t>[-0.3126586377620697]</t>
-  </si>
-  <si>
-    <t>[0.02300323359668255]</t>
-  </si>
-  <si>
-    <t>[0.007311937864869833]</t>
-  </si>
-  <si>
-    <t>[-0.16471603512763977]</t>
-  </si>
-  <si>
-    <t>[0.17821112275123596]</t>
-  </si>
-  <si>
-    <t>[-0.013469239696860313]</t>
-  </si>
-  <si>
-    <t>[-0.3737526834011078]</t>
-  </si>
-  <si>
-    <t>[0.17858046293258667]</t>
-  </si>
-  <si>
-    <t>[0.03877169266343117]</t>
-  </si>
-  <si>
-    <t>[0.052758004516363144]</t>
-  </si>
-  <si>
-    <t>[-0.12161578238010406]</t>
-  </si>
-  <si>
-    <t>[0.08882862329483032]</t>
-  </si>
-  <si>
-    <t>[-0.3119364082813263]</t>
-  </si>
-  <si>
-    <t>[-0.013829628936946392]</t>
-  </si>
-  <si>
-    <t>[0.19413185119628906]</t>
-  </si>
-  <si>
-    <t>[0.22967934608459473]</t>
-  </si>
-  <si>
-    <t>[0.008402647450566292]</t>
-  </si>
-  <si>
-    <t>[-0.22845543920993805]</t>
-  </si>
-  <si>
-    <t>[0.10599278658628464]</t>
-  </si>
-  <si>
-    <t>[-0.10586467385292053]</t>
-  </si>
-  <si>
-    <t>[-0.34380340576171875]</t>
-  </si>
-  <si>
-    <t>[-0.09045572578907013]</t>
-  </si>
-  <si>
-    <t>[-0.4189949929714203]</t>
-  </si>
-  <si>
-    <t>[0.20481714606285095]</t>
-  </si>
-  <si>
-    <t>[-0.37930959463119507]</t>
-  </si>
-  <si>
-    <t>[0.2533319592475891]</t>
-  </si>
-  <si>
-    <t>[-0.010288202203810215]</t>
-  </si>
-  <si>
-    <t>[-0.07118257135152817]</t>
-  </si>
-  <si>
-    <t>[-0.19878625869750977]</t>
-  </si>
-  <si>
-    <t>[0.21637457609176636]</t>
-  </si>
-  <si>
-    <t>[0.24586693942546844]</t>
-  </si>
-  <si>
-    <t>[-0.04827138036489487]</t>
-  </si>
-  <si>
-    <t>[0.35939034819602966]</t>
-  </si>
-  <si>
-    <t>[0.22961607575416565]</t>
-  </si>
-  <si>
-    <t>[-0.17736177146434784]</t>
-  </si>
-  <si>
-    <t>[-0.09353374689817429]</t>
-  </si>
-  <si>
-    <t>[-0.1776232123374939]</t>
-  </si>
-  <si>
-    <t>[-0.0425901897251606]</t>
-  </si>
-  <si>
-    <t>[-0.41409963369369507]</t>
-  </si>
-  <si>
-    <t>[0.1910383254289627]</t>
-  </si>
-  <si>
-    <t>[-0.0704561322927475]</t>
-  </si>
-  <si>
-    <t>[-0.2842836380004883]</t>
-  </si>
-  <si>
-    <t>[-0.013684852048754692]</t>
-  </si>
-  <si>
-    <t>[-0.2311132252216339]</t>
-  </si>
-  <si>
-    <t>[0.1922314614057541]</t>
-  </si>
-  <si>
-    <t>[-0.21863248944282532]</t>
-  </si>
-  <si>
-    <t>[-0.14431951940059662]</t>
-  </si>
-  <si>
-    <t>[-0.3025810122489929]</t>
-  </si>
-  <si>
-    <t>[-0.05845664441585541]</t>
-  </si>
-  <si>
-    <t>[-0.2628020942211151]</t>
-  </si>
-  <si>
-    <t>[-0.3622581362724304]</t>
-  </si>
-  <si>
-    <t>[-0.016239773482084274]</t>
-  </si>
-  <si>
-    <t>[0.03430496156215668]</t>
-  </si>
-  <si>
-    <t>[0.11157498508691788]</t>
-  </si>
-  <si>
-    <t>[0.37279272079467773]</t>
-  </si>
-  <si>
-    <t>[-0.21315915882587433]</t>
-  </si>
-  <si>
-    <t>[0.03351777046918869]</t>
-  </si>
-  <si>
-    <t>[0.3719208240509033]</t>
-  </si>
-  <si>
-    <t>[0.04611122980713844]</t>
-  </si>
-  <si>
-    <t>[-0.11099134385585785]</t>
-  </si>
-  <si>
-    <t>[0.17017757892608643]</t>
-  </si>
-  <si>
-    <t>[0.21986395120620728]</t>
-  </si>
-  <si>
-    <t>[0.31264936923980713]</t>
-  </si>
-  <si>
-    <t>[0.14956223964691162]</t>
-  </si>
-  <si>
-    <t>[-0.04502980783581734]</t>
-  </si>
-  <si>
-    <t>[-0.19845137000083923]</t>
-  </si>
-  <si>
-    <t>[-0.32741257548332214]</t>
-  </si>
-  <si>
-    <t>[-0.07733965665102005]</t>
-  </si>
-  <si>
-    <t>[-0.08164782077074051]</t>
-  </si>
-  <si>
-    <t>[0.2535778880119324]</t>
-  </si>
-  <si>
-    <t>[-0.08365224301815033]</t>
-  </si>
-  <si>
-    <t>[-0.06522994488477707]</t>
-  </si>
-  <si>
-    <t>[-0.11037995666265488]</t>
-  </si>
-  <si>
-    <t>[-0.25766804814338684]</t>
-  </si>
-  <si>
-    <t>[-0.31175878643989563]</t>
-  </si>
-  <si>
-    <t>[0.03698673099279404]</t>
-  </si>
-  <si>
-    <t>[0.004251172766089439]</t>
-  </si>
-  <si>
-    <t>[0.17285975813865662]</t>
-  </si>
-  <si>
-    <t>[0.049784984439611435]</t>
-  </si>
-  <si>
-    <t>[0.11682669818401337]</t>
-  </si>
-  <si>
-    <t>[0.17739202082157135]</t>
-  </si>
-  <si>
-    <t>[-0.12222301959991455]</t>
-  </si>
-  <si>
-    <t>[-0.05108918249607086]</t>
-  </si>
-  <si>
-    <t>[-0.005612140521407127]</t>
-  </si>
-  <si>
-    <t>[0.24566686153411865]</t>
-  </si>
-  <si>
-    <t>[-0.09175161272287369]</t>
-  </si>
-  <si>
-    <t>[-0.18781515955924988]</t>
-  </si>
-  <si>
-    <t>[-0.13858379423618317]</t>
-  </si>
-  <si>
-    <t>[-0.09637833386659622]</t>
-  </si>
-  <si>
-    <t>[0.29565709829330444]</t>
-  </si>
-  <si>
-    <t>[0.22977401316165924]</t>
-  </si>
-  <si>
-    <t>[-0.22181114554405212]</t>
-  </si>
-  <si>
-    <t>[0.3339325487613678]</t>
-  </si>
-  <si>
-    <t>[-0.2735469937324524]</t>
-  </si>
-  <si>
-    <t>[0.035398855805397034]</t>
-  </si>
-  <si>
-    <t>[-0.15790995955467224]</t>
-  </si>
-  <si>
-    <t>[-0.12217095494270325]</t>
-  </si>
-  <si>
-    <t>[0.1026744470000267]</t>
-  </si>
-  <si>
-    <t>[-0.13235673308372498]</t>
-  </si>
-  <si>
-    <t>[0.334503173828125]</t>
-  </si>
-  <si>
-    <t>[-0.4365522265434265]</t>
-  </si>
-  <si>
-    <t>[-0.046373020857572556]</t>
-  </si>
-  <si>
-    <t>[-0.16441546380519867]</t>
-  </si>
-  <si>
-    <t>[0.19429121911525726]</t>
-  </si>
-  <si>
-    <t>[-0.34656208753585815]</t>
-  </si>
-  <si>
-    <t>[-0.202510267496109]</t>
-  </si>
-  <si>
-    <t>[0.13625982403755188]</t>
-  </si>
-  <si>
-    <t>[0.06845259666442871]</t>
-  </si>
-  <si>
-    <t>[0.23829525709152222]</t>
-  </si>
-  <si>
-    <t>[-0.17822806537151337]</t>
-  </si>
-  <si>
-    <t>[-0.28911736607551575]</t>
-  </si>
-  <si>
-    <t>[0.13782094419002533]</t>
-  </si>
-  <si>
-    <t>[0.11857865750789642]</t>
-  </si>
-  <si>
-    <t>[0.06283503025770187]</t>
-  </si>
-  <si>
-    <t>[-0.25692859292030334]</t>
-  </si>
-  <si>
-    <t>[0.0882897600531578]</t>
-  </si>
-  <si>
-    <t>[-0.028269266709685326]</t>
-  </si>
-  <si>
-    <t>[0.16055616736412048]</t>
-  </si>
-  <si>
-    <t>[-0.3492010533809662]</t>
-  </si>
-  <si>
-    <t>[0.36893388628959656]</t>
-  </si>
-  <si>
-    <t>[-0.11781610548496246]</t>
-  </si>
-  <si>
-    <t>[0.1348244994878769]</t>
-  </si>
-  <si>
-    <t>[0.3992241621017456]</t>
-  </si>
-  <si>
-    <t>[0.1993107795715332]</t>
-  </si>
-  <si>
-    <t>[-0.08264917135238647]</t>
-  </si>
-  <si>
-    <t>[-0.26369014382362366]</t>
+    <t>[-0.010020889341831207]</t>
+  </si>
+  <si>
+    <t>[0.09971456974744797]</t>
+  </si>
+  <si>
+    <t>[0.2466009557247162]</t>
+  </si>
+  <si>
+    <t>[0.028312714770436287]</t>
+  </si>
+  <si>
+    <t>[-0.07004863768815994]</t>
+  </si>
+  <si>
+    <t>[-0.03941243886947632]</t>
+  </si>
+  <si>
+    <t>[0.03612131252884865]</t>
+  </si>
+  <si>
+    <t>[0.1755804419517517]</t>
+  </si>
+  <si>
+    <t>[0.4154438078403473]</t>
+  </si>
+  <si>
+    <t>[-0.08699376881122589]</t>
+  </si>
+  <si>
+    <t>[0.41498467326164246]</t>
+  </si>
+  <si>
+    <t>[0.00714669656008482]</t>
+  </si>
+  <si>
+    <t>[-0.24467994272708893]</t>
+  </si>
+  <si>
+    <t>[-0.13598833978176117]</t>
+  </si>
+  <si>
+    <t>[0.35877421498298645]</t>
+  </si>
+  <si>
+    <t>[-0.19045202434062958]</t>
+  </si>
+  <si>
+    <t>[-0.04170989617705345]</t>
+  </si>
+  <si>
+    <t>[0.08869119733572006]</t>
+  </si>
+  <si>
+    <t>[-0.14226621389389038]</t>
+  </si>
+  <si>
+    <t>[0.2161695957183838]</t>
+  </si>
+  <si>
+    <t>[-0.14540117979049683]</t>
+  </si>
+  <si>
+    <t>[-0.012988441623747349]</t>
+  </si>
+  <si>
+    <t>[-0.10340069979429245]</t>
+  </si>
+  <si>
+    <t>[0.3019835650920868]</t>
+  </si>
+  <si>
+    <t>[0.13418996334075928]</t>
+  </si>
+  <si>
+    <t>[-0.10126356780529022]</t>
+  </si>
+  <si>
+    <t>[0.2202143371105194]</t>
+  </si>
+  <si>
+    <t>[-0.22696246206760406]</t>
+  </si>
+  <si>
+    <t>[0.24969860911369324]</t>
+  </si>
+  <si>
+    <t>[-0.2745213508605957]</t>
+  </si>
+  <si>
+    <t>[-0.2884196937084198]</t>
+  </si>
+  <si>
+    <t>[-0.22752158343791962]</t>
+  </si>
+  <si>
+    <t>[-0.12408110499382019]</t>
+  </si>
+  <si>
+    <t>[-0.12183143198490143]</t>
+  </si>
+  <si>
+    <t>[-0.2018623799085617]</t>
+  </si>
+  <si>
+    <t>[0.0795244425535202]</t>
+  </si>
+  <si>
+    <t>[-0.3650630712509155]</t>
+  </si>
+  <si>
+    <t>[0.13976451754570007]</t>
+  </si>
+  <si>
+    <t>[0.19889511168003082]</t>
+  </si>
+  <si>
+    <t>[-0.09797532856464386]</t>
+  </si>
+  <si>
+    <t>[-0.1598893254995346]</t>
+  </si>
+  <si>
+    <t>[-0.04010516405105591]</t>
+  </si>
+  <si>
+    <t>[0.06667852401733398]</t>
+  </si>
+  <si>
+    <t>[-0.21306255459785461]</t>
+  </si>
+  <si>
+    <t>[0.28637099266052246]</t>
+  </si>
+  <si>
+    <t>[-0.28002744913101196]</t>
+  </si>
+  <si>
+    <t>[0.0165974423289299]</t>
+  </si>
+  <si>
+    <t>[0.14054304361343384]</t>
+  </si>
+  <si>
+    <t>[0.22838163375854492]</t>
+  </si>
+  <si>
+    <t>[-0.0950290858745575]</t>
+  </si>
+  <si>
+    <t>[-0.23003391921520233]</t>
+  </si>
+  <si>
+    <t>[-0.19754816591739655]</t>
+  </si>
+  <si>
+    <t>[-0.07065600156784058]</t>
+  </si>
+  <si>
+    <t>[0.20015738904476166]</t>
+  </si>
+  <si>
+    <t>[0.1570592075586319]</t>
+  </si>
+  <si>
+    <t>[-0.12925489246845245]</t>
+  </si>
+  <si>
+    <t>[-0.09382344782352448]</t>
+  </si>
+  <si>
+    <t>[-0.11620680242776871]</t>
+  </si>
+  <si>
+    <t>[0.028617272153496742]</t>
+  </si>
+  <si>
+    <t>[0.28397566080093384]</t>
+  </si>
+  <si>
+    <t>[0.02973783202469349]</t>
+  </si>
+  <si>
+    <t>[-0.2062799334526062]</t>
+  </si>
+  <si>
+    <t>[-0.08430708199739456]</t>
+  </si>
+  <si>
+    <t>[0.299173504114151]</t>
+  </si>
+  <si>
+    <t>[0.03477846086025238]</t>
+  </si>
+  <si>
+    <t>[-0.2822166681289673]</t>
+  </si>
+  <si>
+    <t>[-0.17829103767871857]</t>
+  </si>
+  <si>
+    <t>[-0.24134938418865204]</t>
+  </si>
+  <si>
+    <t>[-0.07287731766700745]</t>
+  </si>
+  <si>
+    <t>[-0.23036375641822815]</t>
+  </si>
+  <si>
+    <t>[0.01996593549847603]</t>
+  </si>
+  <si>
+    <t>[-0.27803078293800354]</t>
+  </si>
+  <si>
+    <t>[0.06733447313308716]</t>
+  </si>
+  <si>
+    <t>[0.05909551680088043]</t>
+  </si>
+  <si>
+    <t>[0.17047080397605896]</t>
+  </si>
+  <si>
+    <t>[-0.2589324116706848]</t>
+  </si>
+  <si>
+    <t>[0.10898908972740173]</t>
+  </si>
+  <si>
+    <t>[0.07664692401885986]</t>
+  </si>
+  <si>
+    <t>[0.43906906247138977]</t>
+  </si>
+  <si>
+    <t>[0.12351122498512268]</t>
+  </si>
+  <si>
+    <t>[-0.11464329063892365]</t>
+  </si>
+  <si>
+    <t>[0.20455105602741241]</t>
+  </si>
+  <si>
+    <t>[0.0012974912533536553]</t>
+  </si>
+  <si>
+    <t>[-0.03867233172059059]</t>
+  </si>
+  <si>
+    <t>[0.11662650108337402]</t>
+  </si>
+  <si>
+    <t>[0.1164277195930481]</t>
+  </si>
+  <si>
+    <t>[0.37291058897972107]</t>
+  </si>
+  <si>
+    <t>[-0.11717604845762253]</t>
+  </si>
+  <si>
+    <t>[-0.22280475497245789]</t>
+  </si>
+  <si>
+    <t>[-0.04159980267286301]</t>
+  </si>
+  <si>
+    <t>[-0.19643841683864594]</t>
+  </si>
+  <si>
+    <t>[-0.11435261368751526]</t>
+  </si>
+  <si>
+    <t>[0.19313327968120575]</t>
+  </si>
+  <si>
+    <t>[-0.13771964609622955]</t>
+  </si>
+  <si>
+    <t>[-0.09493307024240494]</t>
+  </si>
+  <si>
+    <t>[0.2883070707321167]</t>
+  </si>
+  <si>
+    <t>[-0.10571149736642838]</t>
+  </si>
+  <si>
+    <t>[0.24926680326461792]</t>
+  </si>
+  <si>
+    <t>[-0.35871079564094543]</t>
+  </si>
+  <si>
+    <t>[0.27322956919670105]</t>
+  </si>
+  <si>
+    <t>[-0.1615167260169983]</t>
+  </si>
+  <si>
+    <t>[-0.007123466581106186]</t>
+  </si>
+  <si>
+    <t>[-0.3301490545272827]</t>
+  </si>
+  <si>
+    <t>[-0.11158072203397751]</t>
+  </si>
+  <si>
+    <t>[-0.13813643157482147]</t>
+  </si>
+  <si>
+    <t>[0.17827464640140533]</t>
+  </si>
+  <si>
+    <t>[0.1238708570599556]</t>
+  </si>
+  <si>
+    <t>[0.1987992823123932]</t>
+  </si>
+  <si>
+    <t>[0.10163530707359314]</t>
+  </si>
+  <si>
+    <t>[0.032334450632333755]</t>
+  </si>
+  <si>
+    <t>[0.010117227211594582]</t>
+  </si>
+  <si>
+    <t>[-0.06130044162273407]</t>
+  </si>
+  <si>
+    <t>[0.29134881496429443]</t>
+  </si>
+  <si>
+    <t>[0.04154708608984947]</t>
+  </si>
+  <si>
+    <t>[-0.33199477195739746]</t>
+  </si>
+  <si>
+    <t>[0.0849091038107872]</t>
+  </si>
+  <si>
+    <t>[-0.0900886207818985]</t>
+  </si>
+  <si>
+    <t>[-0.005319718271493912]</t>
+  </si>
+  <si>
+    <t>[-0.3137339651584625]</t>
+  </si>
+  <si>
+    <t>[0.29974696040153503]</t>
+  </si>
+  <si>
+    <t>[-0.25566330552101135]</t>
+  </si>
+  <si>
+    <t>[-0.3797699809074402]</t>
+  </si>
+  <si>
+    <t>[-0.031786128878593445]</t>
+  </si>
+  <si>
+    <t>[-0.22019228339195251]</t>
+  </si>
+  <si>
+    <t>[0.36260485649108887]</t>
+  </si>
+  <si>
+    <t>[0.18931818008422852]</t>
+  </si>
+  <si>
+    <t>[-0.13699275255203247]</t>
+  </si>
+  <si>
+    <t>[0.036390841007232666]</t>
+  </si>
+  <si>
+    <t>[-0.13430240750312805]</t>
+  </si>
+  <si>
+    <t>[-0.13529962301254272]</t>
+  </si>
+  <si>
+    <t>[0.34735044836997986]</t>
+  </si>
+  <si>
+    <t>[0.17344781756401062]</t>
+  </si>
+  <si>
+    <t>[0.28445330262184143]</t>
+  </si>
+  <si>
+    <t>[-0.2714046239852905]</t>
+  </si>
+  <si>
+    <t>[0.02007760852575302]</t>
+  </si>
+  <si>
+    <t>[0.34809765219688416]</t>
+  </si>
+  <si>
+    <t>[-0.019186152145266533]</t>
+  </si>
+  <si>
+    <t>[0.0306449756026268]</t>
+  </si>
+  <si>
+    <t>[-0.08673077076673508]</t>
+  </si>
+  <si>
+    <t>[0.1959478259086609]</t>
+  </si>
+  <si>
+    <t>[-1.8438106053508818e-05]</t>
+  </si>
+  <si>
+    <t>[0.20762871205806732]</t>
+  </si>
+  <si>
+    <t>[0.24810288846492767]</t>
+  </si>
+  <si>
+    <t>[-0.15412390232086182]</t>
+  </si>
+  <si>
+    <t>[-0.08001716434955597]</t>
+  </si>
+  <si>
+    <t>[0.04446815699338913]</t>
+  </si>
+  <si>
+    <t>[0.09037022292613983]</t>
+  </si>
+  <si>
+    <t>[0.35924413800239563]</t>
+  </si>
+  <si>
+    <t>[0.2818276584148407]</t>
+  </si>
+  <si>
+    <t>[0.15629926323890686]</t>
+  </si>
+  <si>
+    <t>[0.037262797355651855]</t>
+  </si>
+  <si>
+    <t>[-0.12721949815750122]</t>
+  </si>
+  <si>
+    <t>[0.16455717384815216]</t>
+  </si>
+  <si>
+    <t>[0.112993523478508]</t>
+  </si>
+  <si>
+    <t>[-0.26358792185783386]</t>
+  </si>
+  <si>
+    <t>[-0.2249036729335785]</t>
+  </si>
+  <si>
+    <t>[-0.1717475950717926]</t>
+  </si>
+  <si>
+    <t>[0.1475466787815094]</t>
+  </si>
+  <si>
+    <t>[-0.1473289579153061]</t>
+  </si>
+  <si>
+    <t>[-0.25178641080856323]</t>
+  </si>
+  <si>
+    <t>[-0.17095014452934265]</t>
+  </si>
+  <si>
+    <t>[-0.052148159593343735]</t>
+  </si>
+  <si>
+    <t>[0.28173619508743286]</t>
+  </si>
+  <si>
+    <t>[0.11741115897893906]</t>
+  </si>
+  <si>
+    <t>[0.03353556990623474]</t>
+  </si>
+  <si>
+    <t>[0.1564152091741562]</t>
+  </si>
+  <si>
+    <t>[-0.13257761299610138]</t>
+  </si>
+  <si>
+    <t>[0.21879899501800537]</t>
+  </si>
+  <si>
+    <t>[-0.10641904175281525]</t>
+  </si>
+  <si>
+    <t>[-0.016174277290701866]</t>
+  </si>
+  <si>
+    <t>[-0.08538113534450531]</t>
+  </si>
+  <si>
+    <t>[0.1875307410955429]</t>
+  </si>
+  <si>
+    <t>[-0.24588215351104736]</t>
+  </si>
+  <si>
+    <t>[-0.19202713668346405]</t>
+  </si>
+  <si>
+    <t>[-0.013848066329956055]</t>
+  </si>
+  <si>
+    <t>[0.11024916172027588]</t>
+  </si>
+  <si>
+    <t>[-0.15514053404331207]</t>
+  </si>
+  <si>
+    <t>[-0.2480734884738922]</t>
+  </si>
+  <si>
+    <t>[-0.43240585923194885]</t>
+  </si>
+  <si>
+    <t>[-0.22205641865730286]</t>
+  </si>
+  <si>
+    <t>[0.1256914585828781]</t>
+  </si>
+  <si>
+    <t>[-0.26498520374298096]</t>
+  </si>
+  <si>
+    <t>[-0.11645612865686417]</t>
+  </si>
+  <si>
+    <t>[-0.10308947414159775]</t>
+  </si>
+  <si>
+    <t>[-0.2906222343444824]</t>
+  </si>
+  <si>
+    <t>[0.13056960701942444]</t>
+  </si>
+  <si>
+    <t>[-0.14983046054840088]</t>
+  </si>
+  <si>
+    <t>[0.0302627794444561]</t>
+  </si>
+  <si>
+    <t>[0.39974936842918396]</t>
+  </si>
+  <si>
+    <t>[-0.32315894961357117]</t>
+  </si>
+  <si>
+    <t>[0.25768059492111206]</t>
+  </si>
+  <si>
+    <t>[-0.20985594391822815]</t>
+  </si>
+  <si>
+    <t>[-0.35955825448036194]</t>
+  </si>
+  <si>
+    <t>[-0.2203856110572815]</t>
+  </si>
+  <si>
+    <t>[-0.05428297445178032]</t>
+  </si>
+  <si>
+    <t>[-0.029432496055960655]</t>
+  </si>
+  <si>
+    <t>[-0.24464575946331024]</t>
+  </si>
+  <si>
+    <t>[-0.190049946308136]</t>
+  </si>
+  <si>
+    <t>[0.0010868050158023834]</t>
+  </si>
+  <si>
+    <t>[-0.05003456398844719]</t>
+  </si>
+  <si>
+    <t>[-0.010096294805407524]</t>
+  </si>
+  <si>
+    <t>[0.13934552669525146]</t>
+  </si>
+  <si>
+    <t>[0.08865347504615784]</t>
+  </si>
+  <si>
+    <t>[0.22901952266693115]</t>
+  </si>
+  <si>
+    <t>[0.4218684434890747]</t>
+  </si>
+  <si>
+    <t>[-0.31793883442878723]</t>
+  </si>
+  <si>
+    <t>[-0.11585261672735214]</t>
+  </si>
+  <si>
+    <t>[0.1514967978000641]</t>
+  </si>
+  <si>
+    <t>[0.32037198543548584]</t>
+  </si>
+  <si>
+    <t>[0.20588082075119019]</t>
+  </si>
+  <si>
+    <t>[0.042975522577762604]</t>
+  </si>
+  <si>
+    <t>[-0.07305841147899628]</t>
+  </si>
+  <si>
+    <t>[-0.07208681106567383]</t>
+  </si>
+  <si>
+    <t>[0.14424967765808105]</t>
+  </si>
+  <si>
+    <t>[-0.3267846703529358]</t>
+  </si>
+  <si>
+    <t>[0.14979881048202515]</t>
+  </si>
+  <si>
+    <t>[-0.407789409160614]</t>
+  </si>
+  <si>
+    <t>[0.05232081562280655]</t>
+  </si>
+  <si>
+    <t>[0.3657335340976715]</t>
+  </si>
+  <si>
+    <t>[-0.3084983229637146]</t>
+  </si>
+  <si>
+    <t>[0.13923674821853638]</t>
+  </si>
+  <si>
+    <t>[-0.07442498207092285]</t>
+  </si>
+  <si>
+    <t>[-0.3567616939544678]</t>
+  </si>
+  <si>
+    <t>[-0.0903095230460167]</t>
+  </si>
+  <si>
+    <t>[-0.060167573392391205]</t>
+  </si>
+  <si>
+    <t>[0.03634936362504959]</t>
+  </si>
+  <si>
+    <t>[-0.28929799795150757]</t>
+  </si>
+  <si>
+    <t>[0.2687808871269226]</t>
+  </si>
+  <si>
+    <t>[-0.2498084008693695]</t>
+  </si>
+  <si>
+    <t>[0.16099317371845245]</t>
+  </si>
+  <si>
+    <t>[-0.36140796542167664]</t>
+  </si>
+  <si>
+    <t>[0.4074234664440155]</t>
+  </si>
+  <si>
+    <t>[-0.037140510976314545]</t>
+  </si>
+  <si>
+    <t>[0.13729968667030334]</t>
+  </si>
+  <si>
+    <t>[-0.23445940017700195]</t>
+  </si>
+  <si>
+    <t>[-0.3764852285385132]</t>
+  </si>
+  <si>
+    <t>[0.005186768714338541]</t>
+  </si>
+  <si>
+    <t>[0.14337103068828583]</t>
+  </si>
+  <si>
+    <t>[0.011760983616113663]</t>
+  </si>
+  <si>
+    <t>[-0.09643174707889557]</t>
+  </si>
+  <si>
+    <t>[-0.3883155286312103]</t>
+  </si>
+  <si>
+    <t>[-0.2839128375053406]</t>
+  </si>
+  <si>
+    <t>[0.04292425513267517]</t>
+  </si>
+  <si>
+    <t>[0.03284556046128273]</t>
+  </si>
+  <si>
+    <t>[-0.03664061427116394]</t>
+  </si>
+  <si>
+    <t>[-0.08294298499822617]</t>
+  </si>
+  <si>
+    <t>[0.2757033109664917]</t>
+  </si>
+  <si>
+    <t>[0.46241435408592224]</t>
+  </si>
+  <si>
+    <t>[-0.03677518293261528]</t>
+  </si>
+  <si>
+    <t>[-0.15639281272888184]</t>
+  </si>
+  <si>
+    <t>[-0.37461942434310913]</t>
+  </si>
+  <si>
+    <t>[0.1703055053949356]</t>
+  </si>
+  <si>
+    <t>[0.05279837176203728]</t>
+  </si>
+  <si>
+    <t>[-0.3323160409927368]</t>
+  </si>
+  <si>
+    <t>[-0.0008392832241952419]</t>
+  </si>
+  <si>
+    <t>[-0.2739371061325073]</t>
+  </si>
+  <si>
+    <t>[-0.3138240575790405]</t>
+  </si>
+  <si>
+    <t>[0.2052539885044098]</t>
+  </si>
+  <si>
+    <t>[0.07536666095256805]</t>
+  </si>
+  <si>
+    <t>[0.21244703233242035]</t>
+  </si>
+  <si>
+    <t>[-0.0817323625087738]</t>
+  </si>
+  <si>
+    <t>[-0.09712595492601395]</t>
+  </si>
+  <si>
+    <t>[-0.1001674011349678]</t>
+  </si>
+  <si>
+    <t>[-0.239667147397995]</t>
+  </si>
+  <si>
+    <t>[0.3085041642189026]</t>
+  </si>
+  <si>
+    <t>[0.18891353905200958]</t>
+  </si>
+  <si>
+    <t>[-0.21677875518798828]</t>
+  </si>
+  <si>
+    <t>[-0.16632488369941711]</t>
+  </si>
+  <si>
+    <t>[0.030595969408750534]</t>
+  </si>
+  <si>
+    <t>[-0.20245632529258728]</t>
+  </si>
+  <si>
+    <t>[0.037843771278858185]</t>
+  </si>
+  <si>
+    <t>[0.10007161647081375]</t>
+  </si>
+  <si>
+    <t>[-0.030311157926917076]</t>
+  </si>
+  <si>
+    <t>[0.14198660850524902]</t>
+  </si>
+  <si>
+    <t>[0.10732773691415787]</t>
+  </si>
+  <si>
+    <t>[0.44082897901535034]</t>
+  </si>
+  <si>
+    <t>[0.13275401294231415]</t>
+  </si>
+  <si>
+    <t>[-0.1261678785085678]</t>
+  </si>
+  <si>
+    <t>[0.1279894858598709]</t>
+  </si>
+  <si>
+    <t>[-0.005837142467498779]</t>
+  </si>
+  <si>
+    <t>[0.04039867967367172]</t>
+  </si>
+  <si>
+    <t>[0.20425744354724884]</t>
+  </si>
+  <si>
+    <t>[-0.03975271061062813]</t>
+  </si>
+  <si>
+    <t>[0.3284454941749573]</t>
+  </si>
+  <si>
+    <t>[-0.3307873010635376]</t>
+  </si>
+  <si>
+    <t>[0.12788769602775574]</t>
+  </si>
+  <si>
+    <t>[0.13227099180221558]</t>
+  </si>
+  <si>
+    <t>[0.21235796809196472]</t>
+  </si>
+  <si>
+    <t>[-0.2689651846885681]</t>
+  </si>
+  <si>
+    <t>[-0.3723294734954834]</t>
+  </si>
+  <si>
+    <t>[-0.323760449886322]</t>
+  </si>
+  <si>
+    <t>[-0.3104360103607178]</t>
+  </si>
+  <si>
+    <t>[0.057300638407468796]</t>
+  </si>
+  <si>
+    <t>[0.16159452497959137]</t>
+  </si>
+  <si>
+    <t>[-0.4490419328212738]</t>
+  </si>
+  <si>
+    <t>[0.1507984697818756]</t>
+  </si>
+  <si>
+    <t>[-0.3447495400905609]</t>
+  </si>
+  <si>
+    <t>[0.19597633183002472]</t>
+  </si>
+  <si>
+    <t>[0.34683412313461304]</t>
+  </si>
+  <si>
+    <t>[-0.07459153234958649]</t>
+  </si>
+  <si>
+    <t>[0.3718366026878357]</t>
+  </si>
+  <si>
+    <t>[-0.17945097386837006]</t>
+  </si>
+  <si>
+    <t>[0.131222665309906]</t>
+  </si>
+  <si>
+    <t>[0.27918389439582825]</t>
+  </si>
+  <si>
+    <t>[-0.24558903276920319]</t>
+  </si>
+  <si>
+    <t>[0.042376961559057236]</t>
+  </si>
+  <si>
+    <t>[-0.41418105363845825]</t>
+  </si>
+  <si>
+    <t>[-0.23988467454910278]</t>
+  </si>
+  <si>
+    <t>[-0.23559939861297607]</t>
+  </si>
+  <si>
+    <t>[-0.2904074788093567]</t>
+  </si>
+  <si>
+    <t>[-0.15388737618923187]</t>
+  </si>
+  <si>
+    <t>[-0.1531372368335724]</t>
+  </si>
+  <si>
+    <t>[-0.3137647807598114]</t>
+  </si>
+  <si>
+    <t>[0.13610011339187622]</t>
+  </si>
+  <si>
+    <t>[-0.37638288736343384]</t>
+  </si>
+  <si>
+    <t>[-0.020175492390990257]</t>
+  </si>
+  <si>
+    <t>[0.19349069893360138]</t>
+  </si>
+  <si>
+    <t>[0.08053024113178253]</t>
+  </si>
+  <si>
+    <t>[0.08363565057516098]</t>
+  </si>
+  <si>
+    <t>[-0.28746458888053894]</t>
+  </si>
+  <si>
+    <t>[0.3071911334991455]</t>
+  </si>
+  <si>
+    <t>[0.0055052428506314754]</t>
+  </si>
+  <si>
+    <t>[-0.0423285998404026]</t>
+  </si>
+  <si>
+    <t>[-0.22572815418243408]</t>
+  </si>
+  <si>
+    <t>[0.07112216204404831]</t>
+  </si>
+  <si>
+    <t>[-0.09657538682222366]</t>
+  </si>
+  <si>
+    <t>[0.026923274621367455]</t>
+  </si>
+  <si>
+    <t>[0.14133350551128387]</t>
+  </si>
+  <si>
+    <t>[-0.390902578830719]</t>
+  </si>
+  <si>
+    <t>[-0.1839122623205185]</t>
+  </si>
+  <si>
+    <t>[0.29902559518814087]</t>
+  </si>
+  <si>
+    <t>[0.1289200335741043]</t>
+  </si>
+  <si>
+    <t>[-0.04082765057682991]</t>
+  </si>
+  <si>
+    <t>[-0.03334376960992813]</t>
+  </si>
+  <si>
+    <t>[-0.30173683166503906]</t>
+  </si>
+  <si>
+    <t>[-0.21613144874572754]</t>
+  </si>
+  <si>
+    <t>[-0.16343602538108826]</t>
+  </si>
+  <si>
+    <t>[-0.17864397168159485]</t>
+  </si>
+  <si>
+    <t>[0.3078020215034485]</t>
+  </si>
+  <si>
+    <t>[-0.2345948964357376]</t>
+  </si>
+  <si>
+    <t>[0.4388854503631592]</t>
+  </si>
+  <si>
+    <t>[0.07815265655517578]</t>
+  </si>
+  <si>
+    <t>[-0.07352680712938309]</t>
+  </si>
+  <si>
+    <t>[-0.03404991328716278]</t>
+  </si>
+  <si>
+    <t>[0.0879262238740921]</t>
+  </si>
+  <si>
+    <t>[0.4172258675098419]</t>
+  </si>
+  <si>
+    <t>[0.14375627040863037]</t>
+  </si>
+  <si>
+    <t>[0.04477434605360031]</t>
+  </si>
+  <si>
+    <t>[-0.428454726934433]</t>
+  </si>
+  <si>
+    <t>[-0.13781580328941345]</t>
+  </si>
+  <si>
+    <t>[0.1305515021085739]</t>
+  </si>
+  <si>
+    <t>[0.015461869537830353]</t>
+  </si>
+  <si>
+    <t>[-0.09177987277507782]</t>
+  </si>
+  <si>
+    <t>[0.26373305916786194]</t>
+  </si>
+  <si>
+    <t>[0.14960969984531403]</t>
+  </si>
+  <si>
+    <t>[-0.10039622336626053]</t>
+  </si>
+  <si>
+    <t>[-0.39309197664260864]</t>
+  </si>
+  <si>
+    <t>[-0.12376470118761063]</t>
+  </si>
+  <si>
+    <t>[0.09823428094387054]</t>
+  </si>
+  <si>
+    <t>[-0.037415552884340286]</t>
+  </si>
+  <si>
+    <t>[0.031417179852724075]</t>
+  </si>
+  <si>
+    <t>[0.1071171835064888]</t>
+  </si>
+  <si>
+    <t>[0.057391438633203506]</t>
+  </si>
+  <si>
+    <t>[-0.356749027967453]</t>
+  </si>
+  <si>
+    <t>[0.4491764008998871]</t>
+  </si>
+  <si>
+    <t>[0.20643694698810577]</t>
+  </si>
+  <si>
+    <t>[-0.14851200580596924]</t>
+  </si>
+  <si>
+    <t>[0.2949497103691101]</t>
+  </si>
+  <si>
+    <t>[0.10613548755645752]</t>
+  </si>
+  <si>
+    <t>[0.07380234450101852]</t>
+  </si>
+  <si>
+    <t>[0.1034775897860527]</t>
+  </si>
+  <si>
+    <t>[-0.37206852436065674]</t>
+  </si>
+  <si>
+    <t>[-0.16221964359283447]</t>
+  </si>
+  <si>
+    <t>[-0.03229236230254173]</t>
+  </si>
+  <si>
+    <t>[0.1644689291715622]</t>
+  </si>
+  <si>
+    <t>[0.2464117705821991]</t>
+  </si>
+  <si>
+    <t>[-0.3641262352466583]</t>
+  </si>
+  <si>
+    <t>[-0.14296039938926697]</t>
+  </si>
+  <si>
+    <t>[0.3141355812549591]</t>
+  </si>
+  <si>
+    <t>[-0.18785901367664337]</t>
+  </si>
+  <si>
+    <t>[-0.003256926080211997]</t>
+  </si>
+  <si>
+    <t>[-0.04818698763847351]</t>
+  </si>
+  <si>
+    <t>[0.13561014831066132]</t>
+  </si>
+  <si>
+    <t>[-0.017593098804354668]</t>
+  </si>
+  <si>
+    <t>[0.3681432902812958]</t>
+  </si>
+  <si>
+    <t>[0.19148372113704681]</t>
+  </si>
+  <si>
+    <t>[-0.30868664383888245]</t>
+  </si>
+  <si>
+    <t>[-0.06448221951723099]</t>
+  </si>
+  <si>
+    <t>[0.10208381712436676]</t>
+  </si>
+  <si>
+    <t>[0.27732011675834656]</t>
+  </si>
+  <si>
+    <t>[0.2946517765522003]</t>
+  </si>
+  <si>
+    <t>[0.14123044908046722]</t>
+  </si>
+  <si>
+    <t>[-0.06007986515760422]</t>
+  </si>
+  <si>
+    <t>[-0.1377064734697342]</t>
+  </si>
+  <si>
+    <t>[0.4057207703590393]</t>
+  </si>
+  <si>
+    <t>[0.1394319087266922]</t>
+  </si>
+  <si>
+    <t>[0.2314310222864151]</t>
+  </si>
+  <si>
+    <t>[0.04324068874120712]</t>
+  </si>
+  <si>
+    <t>[0.23464545607566833]</t>
+  </si>
+  <si>
+    <t>[-0.030146833509206772]</t>
+  </si>
+  <si>
+    <t>[0.5027106404304504]</t>
+  </si>
+  <si>
+    <t>[-0.028494220227003098]</t>
+  </si>
+  <si>
+    <t>[0.21460427343845367]</t>
+  </si>
+  <si>
+    <t>[-0.1853213906288147]</t>
+  </si>
+  <si>
+    <t>[-0.24852126836776733]</t>
+  </si>
+  <si>
+    <t>[-0.1615116149187088]</t>
+  </si>
+  <si>
+    <t>[0.14527148008346558]</t>
+  </si>
+  <si>
+    <t>[0.16675585508346558]</t>
+  </si>
+  <si>
+    <t>[0.07457636296749115]</t>
+  </si>
+  <si>
+    <t>[0.2186255156993866]</t>
+  </si>
+  <si>
+    <t>[-0.08771824091672897]</t>
+  </si>
+  <si>
+    <t>[0.2918738126754761]</t>
+  </si>
+  <si>
+    <t>[-0.09655503183603287]</t>
+  </si>
+  <si>
+    <t>[0.23523271083831787]</t>
+  </si>
+  <si>
+    <t>[-0.3693059980869293]</t>
+  </si>
+  <si>
+    <t>[0.2706557810306549]</t>
+  </si>
+  <si>
+    <t>[0.1257157027721405]</t>
+  </si>
+  <si>
+    <t>[0.29723429679870605]</t>
+  </si>
+  <si>
+    <t>[0.2570684850215912]</t>
+  </si>
+  <si>
+    <t>[0.1975245326757431]</t>
+  </si>
+  <si>
+    <t>[0.12970666587352753]</t>
+  </si>
+  <si>
+    <t>[-0.20252574980258942]</t>
+  </si>
+  <si>
+    <t>[-0.20790669322013855]</t>
+  </si>
+  <si>
+    <t>[0.29526689648628235]</t>
+  </si>
+  <si>
+    <t>[0.2579965889453888]</t>
+  </si>
+  <si>
+    <t>[0.07946554571390152]</t>
+  </si>
+  <si>
+    <t>[-0.03560750558972359]</t>
+  </si>
+  <si>
+    <t>[0.14171266555786133]</t>
+  </si>
+  <si>
+    <t>[-0.3083435893058777]</t>
+  </si>
+  <si>
+    <t>[0.2943979799747467]</t>
+  </si>
+  <si>
+    <t>[0.39745524525642395]</t>
+  </si>
+  <si>
+    <t>[0.015744557604193687]</t>
+  </si>
+  <si>
+    <t>[0.017779264599084854]</t>
+  </si>
+  <si>
+    <t>[-0.24568095803260803]</t>
+  </si>
+  <si>
+    <t>[0.16382217407226562]</t>
+  </si>
+  <si>
+    <t>[-0.07610563188791275]</t>
+  </si>
+  <si>
+    <t>[-0.17040158808231354]</t>
+  </si>
+  <si>
+    <t>[0.11595921963453293]</t>
+  </si>
+  <si>
+    <t>[0.05210278555750847]</t>
+  </si>
+  <si>
+    <t>[0.3440345227718353]</t>
+  </si>
+  <si>
+    <t>[0.02056683786213398]</t>
+  </si>
+  <si>
+    <t>[0.22673627734184265]</t>
+  </si>
+  <si>
+    <t>[-0.005595789290964603]</t>
+  </si>
+  <si>
+    <t>[-0.1746165156364441]</t>
+  </si>
+  <si>
+    <t>[-0.08804435282945633]</t>
+  </si>
+  <si>
+    <t>[-0.0004986737039871514]</t>
+  </si>
+  <si>
+    <t>[0.2832699716091156]</t>
+  </si>
+  <si>
+    <t>[-0.010507849976420403]</t>
+  </si>
+  <si>
+    <t>[-0.2438918948173523]</t>
+  </si>
+  <si>
+    <t>[-0.15602074563503265]</t>
+  </si>
+  <si>
+    <t>[0.22624363005161285]</t>
+  </si>
+  <si>
+    <t>[0.02007974311709404]</t>
+  </si>
+  <si>
+    <t>[0.3055976629257202]</t>
+  </si>
+  <si>
+    <t>[-0.03309457749128342]</t>
+  </si>
+  <si>
+    <t>[-0.07887445390224457]</t>
+  </si>
+  <si>
+    <t>[-0.2584677040576935]</t>
+  </si>
+  <si>
+    <t>[-0.054077327251434326]</t>
+  </si>
+  <si>
+    <t>[-0.08422142267227173]</t>
+  </si>
+  <si>
+    <t>[0.3650825619697571]</t>
+  </si>
+  <si>
+    <t>[-0.15305295586585999]</t>
+  </si>
+  <si>
+    <t>[0.08599104732275009]</t>
+  </si>
+  <si>
+    <t>[0.2808818221092224]</t>
+  </si>
+  <si>
+    <t>[0.2576528787612915]</t>
+  </si>
+  <si>
+    <t>[0.23744729161262512]</t>
+  </si>
+  <si>
+    <t>[0.325149804353714]</t>
+  </si>
+  <si>
+    <t>[0.28407442569732666]</t>
+  </si>
+  <si>
+    <t>[-0.20391644537448883]</t>
+  </si>
+  <si>
+    <t>[0.23362421989440918]</t>
+  </si>
+  <si>
+    <t>[-0.08608070015907288]</t>
+  </si>
+  <si>
+    <t>[0.1822788119316101]</t>
+  </si>
+  <si>
+    <t>[-0.36967453360557556]</t>
+  </si>
+  <si>
+    <t>[-0.09807693213224411]</t>
+  </si>
+  <si>
+    <t>[0.42228928208351135]</t>
+  </si>
+  <si>
+    <t>[-0.138956680893898]</t>
+  </si>
+  <si>
+    <t>[0.3551207482814789]</t>
+  </si>
+  <si>
+    <t>[-0.2989882826805115]</t>
+  </si>
+  <si>
+    <t>[0.2779313325881958]</t>
+  </si>
+  <si>
+    <t>[-0.09629681706428528]</t>
+  </si>
+  <si>
+    <t>[-0.18117846548557281]</t>
+  </si>
+  <si>
+    <t>[0.06538546085357666]</t>
+  </si>
+  <si>
+    <t>[-0.0004894663579761982]</t>
+  </si>
+  <si>
+    <t>[0.25263017416000366]</t>
+  </si>
+  <si>
+    <t>[0.18131768703460693]</t>
+  </si>
+  <si>
+    <t>[-0.005288261920213699]</t>
+  </si>
+  <si>
+    <t>[0.14533784985542297]</t>
+  </si>
+  <si>
+    <t>[0.2668735682964325]</t>
+  </si>
+  <si>
+    <t>[-0.005344491917639971]</t>
+  </si>
+  <si>
+    <t>[0.02712308242917061]</t>
+  </si>
+  <si>
+    <t>[0.1829046756029129]</t>
+  </si>
+  <si>
+    <t>[0.0012755239149555564]</t>
+  </si>
+  <si>
+    <t>[-0.0918295606970787]</t>
+  </si>
+  <si>
+    <t>[0.01863732375204563]</t>
+  </si>
+  <si>
+    <t>[0.12124410271644592]</t>
+  </si>
+  <si>
+    <t>[0.06277129799127579]</t>
+  </si>
+  <si>
+    <t>[0.18371109664440155]</t>
+  </si>
+  <si>
+    <t>[0.048340048640966415]</t>
+  </si>
+  <si>
+    <t>[0.016974445432424545]</t>
+  </si>
+  <si>
+    <t>[-0.17968885600566864]</t>
+  </si>
+  <si>
+    <t>[-0.42245960235595703]</t>
+  </si>
+  <si>
+    <t>[-0.20688186585903168]</t>
+  </si>
+  <si>
+    <t>[-0.16379901766777039]</t>
+  </si>
+  <si>
+    <t>[0.23274542391300201]</t>
+  </si>
+  <si>
+    <t>[0.15298861265182495]</t>
+  </si>
+  <si>
+    <t>[0.1334979385137558]</t>
+  </si>
+  <si>
+    <t>[0.08044726401567459]</t>
+  </si>
+  <si>
+    <t>[-0.2442992478609085]</t>
+  </si>
+  <si>
+    <t>[0.34065157175064087]</t>
+  </si>
+  <si>
+    <t>[-0.21880866587162018]</t>
+  </si>
+  <si>
+    <t>[0.3657698631286621]</t>
+  </si>
+  <si>
+    <t>[-0.13361580669879913]</t>
+  </si>
+  <si>
+    <t>[0.3236827850341797]</t>
+  </si>
+  <si>
+    <t>[0.14676178991794586]</t>
+  </si>
+  <si>
+    <t>[0.017766030505299568]</t>
+  </si>
+  <si>
+    <t>[0.19028326869010925]</t>
+  </si>
+  <si>
+    <t>[0.4391568899154663]</t>
+  </si>
+  <si>
+    <t>[0.2756692171096802]</t>
+  </si>
+  <si>
+    <t>[-0.2260945588350296]</t>
+  </si>
+  <si>
+    <t>[-0.1575455367565155]</t>
+  </si>
+  <si>
+    <t>[0.08379723131656647]</t>
+  </si>
+  <si>
+    <t>[-0.09117908775806427]</t>
+  </si>
+  <si>
+    <t>[0.32782047986984253]</t>
+  </si>
+  <si>
+    <t>[-0.09365444630384445]</t>
+  </si>
+  <si>
+    <t>[-0.2693217396736145]</t>
+  </si>
+  <si>
+    <t>[0.10956854373216629]</t>
+  </si>
+  <si>
+    <t>[-0.15832015872001648]</t>
+  </si>
+  <si>
+    <t>[0.04442745819687843]</t>
+  </si>
+  <si>
+    <t>[-0.28595757484436035]</t>
+  </si>
+  <si>
+    <t>[-0.22530463337898254]</t>
+  </si>
+  <si>
+    <t>[-0.08094169199466705]</t>
+  </si>
+  <si>
+    <t>[0.019960716366767883]</t>
+  </si>
+  <si>
+    <t>[-0.13614965975284576]</t>
+  </si>
+  <si>
+    <t>[0.2624306082725525]</t>
+  </si>
+  <si>
+    <t>[-0.15357811748981476]</t>
+  </si>
+  <si>
+    <t>[-0.025510990992188454]</t>
+  </si>
+  <si>
+    <t>[0.14077015221118927]</t>
+  </si>
+  <si>
+    <t>[0.1401219218969345]</t>
+  </si>
+  <si>
+    <t>[0.35295572876930237]</t>
+  </si>
+  <si>
+    <t>[-0.16041356325149536]</t>
+  </si>
+  <si>
+    <t>[0.322956919670105]</t>
+  </si>
+  <si>
+    <t>[-0.2817259132862091]</t>
+  </si>
+  <si>
+    <t>[-0.06590251624584198]</t>
+  </si>
+  <si>
+    <t>[-0.2389691174030304]</t>
+  </si>
+  <si>
+    <t>[-0.02335040085017681]</t>
+  </si>
+  <si>
+    <t>[0.1800857037305832]</t>
+  </si>
+  <si>
+    <t>[-0.36729317903518677]</t>
+  </si>
+  <si>
+    <t>[0.22647802531719208]</t>
+  </si>
+  <si>
+    <t>[0.09157049655914307]</t>
+  </si>
+  <si>
+    <t>[0.222030371427536]</t>
+  </si>
+  <si>
+    <t>[-0.10993298888206482]</t>
+  </si>
+  <si>
+    <t>[0.10378244519233704]</t>
+  </si>
+  <si>
+    <t>[0.13427847623825073]</t>
+  </si>
+  <si>
+    <t>[-0.05665546655654907]</t>
+  </si>
+  <si>
+    <t>[0.13227830827236176]</t>
+  </si>
+  <si>
+    <t>[0.03412242606282234]</t>
+  </si>
+  <si>
+    <t>[-0.024838808923959732]</t>
+  </si>
+  <si>
+    <t>[-0.13545045256614685]</t>
+  </si>
+  <si>
+    <t>[-0.07259982824325562]</t>
+  </si>
+  <si>
+    <t>[0.04352683573961258]</t>
+  </si>
+  <si>
+    <t>[0.3095634877681732]</t>
+  </si>
+  <si>
+    <t>[0.028096215799450874]</t>
+  </si>
+  <si>
+    <t>[-0.13022257387638092]</t>
+  </si>
+  <si>
+    <t>[-0.1625463366508484]</t>
+  </si>
+  <si>
+    <t>[0.32193127274513245]</t>
+  </si>
+  <si>
+    <t>[-0.08233461529016495]</t>
+  </si>
+  <si>
+    <t>[0.4154360890388489]</t>
+  </si>
+  <si>
+    <t>[0.032279130071401596]</t>
+  </si>
+  <si>
+    <t>[0.24135424196720123]</t>
+  </si>
+  <si>
+    <t>[0.11151739954948425]</t>
+  </si>
+  <si>
+    <t>[0.3562595546245575]</t>
+  </si>
+  <si>
+    <t>[0.4002577066421509]</t>
+  </si>
+  <si>
+    <t>[0.43880248069763184]</t>
+  </si>
+  <si>
+    <t>[0.0056107258424162865]</t>
+  </si>
+  <si>
+    <t>[-0.33181557059288025]</t>
+  </si>
+  <si>
+    <t>[-0.09379397332668304]</t>
+  </si>
+  <si>
+    <t>[0.4270208775997162]</t>
+  </si>
+  <si>
+    <t>[0.08050709217786789]</t>
+  </si>
+  <si>
+    <t>[-0.13753165304660797]</t>
+  </si>
+  <si>
+    <t>[0.061002351343631744]</t>
+  </si>
+  <si>
+    <t>[-0.4027855694293976]</t>
+  </si>
+  <si>
+    <t>[0.35532882809638977]</t>
+  </si>
+  <si>
+    <t>[-0.08360479772090912]</t>
+  </si>
+  <si>
+    <t>[0.3719661235809326]</t>
+  </si>
+  <si>
+    <t>[-0.3039173185825348]</t>
+  </si>
+  <si>
+    <t>[0.01686248369514942]</t>
+  </si>
+  <si>
+    <t>[0.30743974447250366]</t>
+  </si>
+  <si>
+    <t>[0.07208681851625443]</t>
+  </si>
+  <si>
+    <t>[-0.13197551667690277]</t>
+  </si>
+  <si>
+    <t>[-0.3080558180809021]</t>
+  </si>
+  <si>
+    <t>[0.3892252743244171]</t>
+  </si>
+  <si>
+    <t>[0.28949815034866333]</t>
+  </si>
+  <si>
+    <t>[-0.39667659997940063]</t>
+  </si>
+  <si>
+    <t>[0.32571104168891907]</t>
+  </si>
+  <si>
+    <t>[0.06752283126115799]</t>
+  </si>
+  <si>
+    <t>[-0.11072945594787598]</t>
+  </si>
+  <si>
+    <t>[0.38963356614112854]</t>
+  </si>
+  <si>
+    <t>[-0.23882320523262024]</t>
+  </si>
+  <si>
+    <t>[-0.26706743240356445]</t>
+  </si>
+  <si>
+    <t>[0.3071891963481903]</t>
+  </si>
+  <si>
+    <t>[0.26855766773223877]</t>
+  </si>
+  <si>
+    <t>[0.23722277581691742]</t>
+  </si>
+  <si>
+    <t>[-0.04291814938187599]</t>
+  </si>
+  <si>
+    <t>[0.2735806703567505]</t>
+  </si>
+  <si>
+    <t>[-0.16155511140823364]</t>
+  </si>
+  <si>
+    <t>[-0.10544966161251068]</t>
+  </si>
+  <si>
+    <t>[-0.11272666603326797]</t>
+  </si>
+  <si>
+    <t>[0.24853616952896118]</t>
+  </si>
+  <si>
+    <t>[0.3628028929233551]</t>
+  </si>
+  <si>
+    <t>[0.15176448225975037]</t>
+  </si>
+  <si>
+    <t>[0.2796396315097809]</t>
+  </si>
+  <si>
+    <t>[0.1258516162633896]</t>
+  </si>
+  <si>
+    <t>[-0.4017998278141022]</t>
+  </si>
+  <si>
+    <t>[-0.2766787111759186]</t>
+  </si>
+  <si>
+    <t>[-0.224679633975029]</t>
+  </si>
+  <si>
+    <t>[-0.21076759696006775]</t>
+  </si>
+  <si>
+    <t>[0.13091474771499634]</t>
+  </si>
+  <si>
+    <t>[0.07310949265956879]</t>
+  </si>
+  <si>
+    <t>[0.017845507711172104]</t>
+  </si>
+  <si>
+    <t>[-0.13696448504924774]</t>
+  </si>
+  <si>
+    <t>[-0.09225950390100479]</t>
+  </si>
+  <si>
+    <t>[0.06140824034810066]</t>
+  </si>
+  <si>
+    <t>[-0.05743592977523804]</t>
+  </si>
+  <si>
+    <t>[-0.20284472405910492]</t>
+  </si>
+  <si>
+    <t>[0.3374244272708893]</t>
+  </si>
+  <si>
+    <t>[-0.16877499222755432]</t>
+  </si>
+  <si>
+    <t>[-0.03481055051088333]</t>
+  </si>
+  <si>
+    <t>[-0.096372090280056]</t>
+  </si>
+  <si>
+    <t>[0.4363950490951538]</t>
+  </si>
+  <si>
+    <t>[0.07534767687320709]</t>
+  </si>
+  <si>
+    <t>[-0.15954233705997467]</t>
+  </si>
+  <si>
+    <t>[0.05983352288603783]</t>
+  </si>
+  <si>
+    <t>[-0.05136452615261078]</t>
+  </si>
+  <si>
+    <t>[-0.03026890754699707]</t>
+  </si>
+  <si>
+    <t>[0.07894708216190338]</t>
+  </si>
+  <si>
+    <t>[0.2741599678993225]</t>
+  </si>
+  <si>
+    <t>[-0.3937941789627075]</t>
+  </si>
+  <si>
+    <t>[-0.13345053791999817]</t>
+  </si>
+  <si>
+    <t>[0.045285098254680634]</t>
+  </si>
+  <si>
+    <t>[0.1825581043958664]</t>
+  </si>
+  <si>
+    <t>[-0.050002243369817734]</t>
+  </si>
+  <si>
+    <t>[0.08037527650594711]</t>
+  </si>
+  <si>
+    <t>[0.15952861309051514]</t>
+  </si>
+  <si>
+    <t>[0.14822429418563843]</t>
+  </si>
+  <si>
+    <t>[0.33015748858451843]</t>
+  </si>
+  <si>
+    <t>[-0.14901849627494812]</t>
+  </si>
+  <si>
+    <t>[0.3866443336009979]</t>
+  </si>
+  <si>
+    <t>[-0.03443031385540962]</t>
+  </si>
+  <si>
+    <t>[-0.4007878005504608]</t>
+  </si>
+  <si>
+    <t>[-0.043671466410160065]</t>
+  </si>
+  <si>
+    <t>[0.27936851978302]</t>
+  </si>
+  <si>
+    <t>[0.06861784309148788]</t>
+  </si>
+  <si>
+    <t>[0.04532928392291069]</t>
+  </si>
+  <si>
+    <t>[-0.18053147196769714]</t>
+  </si>
+  <si>
+    <t>[0.0899406224489212]</t>
+  </si>
+  <si>
+    <t>[0.06982129067182541]</t>
+  </si>
+  <si>
+    <t>[-0.0919276773929596]</t>
+  </si>
+  <si>
+    <t>[-0.012243562377989292]</t>
+  </si>
+  <si>
+    <t>[0.09647682309150696]</t>
+  </si>
+  <si>
+    <t>[0.04446442052721977]</t>
+  </si>
+  <si>
+    <t>[0.30480626225471497]</t>
+  </si>
+  <si>
+    <t>[-0.08210060745477676]</t>
+  </si>
+  <si>
+    <t>[0.2615920305252075]</t>
+  </si>
+  <si>
+    <t>[-0.0012881385628134012]</t>
+  </si>
+  <si>
+    <t>[0.18426354229450226]</t>
+  </si>
+  <si>
+    <t>[0.11940750479698181]</t>
+  </si>
+  <si>
+    <t>[0.39855313301086426]</t>
+  </si>
+  <si>
+    <t>[0.03766535967588425]</t>
+  </si>
+  <si>
+    <t>[-0.03675796836614609]</t>
+  </si>
+  <si>
+    <t>[-0.1231604591012001]</t>
+  </si>
+  <si>
+    <t>[0.03412368521094322]</t>
+  </si>
+  <si>
+    <t>[0.30698081851005554]</t>
+  </si>
+  <si>
+    <t>[0.21778063476085663]</t>
+  </si>
+  <si>
+    <t>[-0.14662568271160126]</t>
+  </si>
+  <si>
+    <t>[-0.05501866340637207]</t>
+  </si>
+  <si>
+    <t>[-0.1035122498869896]</t>
+  </si>
+  <si>
+    <t>[0.04251481220126152]</t>
+  </si>
+  <si>
+    <t>[-0.13568510115146637]</t>
+  </si>
+  <si>
+    <t>[0.21457749605178833]</t>
+  </si>
+  <si>
+    <t>[-0.21356037259101868]</t>
+  </si>
+  <si>
+    <t>[0.3549734354019165]</t>
+  </si>
+  <si>
+    <t>[-0.00165668991394341]</t>
+  </si>
+  <si>
+    <t>[0.3457341194152832]</t>
+  </si>
+  <si>
+    <t>[0.26976606249809265]</t>
+  </si>
+  <si>
+    <t>[0.3743881285190582]</t>
+  </si>
+  <si>
+    <t>[0.12269504368305206]</t>
+  </si>
+  <si>
+    <t>[-0.15736515820026398]</t>
+  </si>
+  <si>
+    <t>[0.30407366156578064]</t>
+  </si>
+  <si>
+    <t>[0.44111794233322144]</t>
+  </si>
+  <si>
+    <t>[0.3099088668823242]</t>
+  </si>
+  <si>
+    <t>[0.31847232580184937]</t>
+  </si>
+  <si>
+    <t>[-0.2326572686433792]</t>
+  </si>
+  <si>
+    <t>[-0.018186243250966072]</t>
+  </si>
+  <si>
+    <t>[-0.15341977775096893]</t>
+  </si>
+  <si>
+    <t>[-0.3700256645679474]</t>
+  </si>
+  <si>
+    <t>[-0.15171563625335693]</t>
+  </si>
+  <si>
+    <t>[0.0963895246386528]</t>
+  </si>
+  <si>
+    <t>[0.13169103860855103]</t>
+  </si>
+  <si>
+    <t>[0.022229239344596863]</t>
+  </si>
+  <si>
+    <t>[0.24794837832450867]</t>
+  </si>
+  <si>
+    <t>[0.3169552981853485]</t>
+  </si>
+  <si>
+    <t>[-0.08804092556238174]</t>
+  </si>
+  <si>
+    <t>[0.3558046221733093]</t>
+  </si>
+  <si>
+    <t>[0.30410733819007874]</t>
+  </si>
+  <si>
+    <t>[-0.030584784224629402]</t>
+  </si>
+  <si>
+    <t>[0.24500006437301636]</t>
+  </si>
+  <si>
+    <t>[0.16836322844028473]</t>
+  </si>
+  <si>
+    <t>[0.22031450271606445]</t>
+  </si>
+  <si>
+    <t>[0.006838873028755188]</t>
+  </si>
+  <si>
+    <t>[-0.24943971633911133]</t>
+  </si>
+  <si>
+    <t>[-0.33773910999298096]</t>
+  </si>
+  <si>
+    <t>[0.25675642490386963]</t>
+  </si>
+  <si>
+    <t>[-0.10434558242559433]</t>
+  </si>
+  <si>
+    <t>[0.24197646975517273]</t>
+  </si>
+  <si>
+    <t>[-0.004141161218285561]</t>
+  </si>
+  <si>
+    <t>[-0.12822698056697845]</t>
+  </si>
+  <si>
+    <t>[0.3700163960456848]</t>
+  </si>
+  <si>
+    <t>[-0.29944276809692383]</t>
+  </si>
+  <si>
+    <t>[-0.010594485327601433]</t>
+  </si>
+  <si>
+    <t>[-0.12064817547798157]</t>
+  </si>
+  <si>
+    <t>[0.3020918369293213]</t>
+  </si>
+  <si>
+    <t>[0.3384019434452057]</t>
+  </si>
+  <si>
+    <t>[0.1702696830034256]</t>
+  </si>
+  <si>
+    <t>[-0.04990198090672493]</t>
+  </si>
+  <si>
+    <t>[0.10736004263162613]</t>
+  </si>
+  <si>
+    <t>[0.17761987447738647]</t>
+  </si>
+  <si>
+    <t>[-0.18662326037883759]</t>
+  </si>
+  <si>
+    <t>[0.11943142116069794]</t>
+  </si>
+  <si>
+    <t>[0.11183193325996399]</t>
+  </si>
+  <si>
+    <t>[-0.10428449511528015]</t>
+  </si>
+  <si>
+    <t>[-0.0758737251162529]</t>
+  </si>
+  <si>
+    <t>[0.29787376523017883]</t>
+  </si>
+  <si>
+    <t>[0.19001486897468567]</t>
+  </si>
+  <si>
+    <t>[-0.3001566231250763]</t>
+  </si>
+  <si>
+    <t>[-0.06536637991666794]</t>
+  </si>
+  <si>
+    <t>[-0.020908214151859283]</t>
+  </si>
+  <si>
+    <t>[0.2616536021232605]</t>
+  </si>
+  <si>
+    <t>[0.07218137383460999]</t>
+  </si>
+  <si>
+    <t>[-0.08612578362226486]</t>
+  </si>
+  <si>
+    <t>[0.3022248148918152]</t>
+  </si>
+  <si>
+    <t>[0.0061921956948935986]</t>
+  </si>
+  <si>
+    <t>[-0.14599455893039703]</t>
+  </si>
+  <si>
+    <t>[0.10729365795850754]</t>
+  </si>
+  <si>
+    <t>[-0.16358299553394318]</t>
+  </si>
+  <si>
+    <t>[0.003080166643485427]</t>
+  </si>
+  <si>
+    <t>[0.07424140721559525]</t>
+  </si>
+  <si>
+    <t>[-0.11167912930250168]</t>
+  </si>
+  <si>
+    <t>[0.09845743328332901]</t>
+  </si>
+  <si>
+    <t>[-0.1476815789937973]</t>
+  </si>
+  <si>
+    <t>[0.1132657453417778]</t>
+  </si>
+  <si>
+    <t>[-0.08547164499759674]</t>
+  </si>
+  <si>
+    <t>[0.2370612919330597]</t>
+  </si>
+  <si>
+    <t>[-0.130837082862854]</t>
+  </si>
+  <si>
+    <t>[-0.03653761371970177]</t>
+  </si>
+  <si>
+    <t>[0.13495087623596191]</t>
+  </si>
+  <si>
+    <t>[-0.08150169253349304]</t>
+  </si>
+  <si>
+    <t>[0.16416755318641663]</t>
+  </si>
+  <si>
+    <t>[-0.07497910410165787]</t>
+  </si>
+  <si>
+    <t>[0.229810431599617]</t>
+  </si>
+  <si>
+    <t>[-0.02970278635621071]</t>
+  </si>
+  <si>
+    <t>[-0.07725296914577484]</t>
+  </si>
+  <si>
+    <t>[0.21473610401153564]</t>
+  </si>
+  <si>
+    <t>[0.23085393011569977]</t>
+  </si>
+  <si>
+    <t>[0.06050551310181618]</t>
+  </si>
+  <si>
+    <t>[0.30112364888191223]</t>
+  </si>
+  <si>
+    <t>[-0.17091187834739685]</t>
+  </si>
+  <si>
+    <t>[0.05665545165538788]</t>
+  </si>
+  <si>
+    <t>[0.18370576202869415]</t>
+  </si>
+  <si>
+    <t>[0.409657746553421]</t>
+  </si>
+  <si>
+    <t>[0.11539249122142792]</t>
+  </si>
+  <si>
+    <t>[-0.27354520559310913]</t>
+  </si>
+  <si>
+    <t>[0.08842504024505615]</t>
+  </si>
+  <si>
+    <t>[0.370099812746048]</t>
+  </si>
+  <si>
+    <t>[-0.3370821475982666]</t>
+  </si>
+  <si>
+    <t>[0.3005804717540741]</t>
+  </si>
+  <si>
+    <t>[0.09438621997833252]</t>
+  </si>
+  <si>
+    <t>[0.4072783887386322]</t>
+  </si>
+  <si>
+    <t>[0.16708862781524658]</t>
+  </si>
+  <si>
+    <t>[0.4649146497249603]</t>
+  </si>
+  <si>
+    <t>[0.3104909360408783]</t>
+  </si>
+  <si>
+    <t>[-0.4328724443912506]</t>
+  </si>
+  <si>
+    <t>[-0.29092687368392944]</t>
+  </si>
+  <si>
+    <t>[-0.005264344625174999]</t>
+  </si>
+  <si>
+    <t>[-0.05290348455309868]</t>
+  </si>
+  <si>
+    <t>[-0.002139800926670432]</t>
+  </si>
+  <si>
+    <t>[0.3188517391681671]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -2395,2356 +2395,2356 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.17807844281196594]</t>
-  </si>
-  <si>
-    <t>[-0.0006385495653375983]</t>
-  </si>
-  <si>
-    <t>[-0.13884685933589935]</t>
-  </si>
-  <si>
-    <t>[-0.12842370569705963]</t>
-  </si>
-  <si>
-    <t>[-0.10410750657320023]</t>
-  </si>
-  <si>
-    <t>[-0.08066961914300919]</t>
-  </si>
-  <si>
-    <t>[0.057366859167814255]</t>
-  </si>
-  <si>
-    <t>[-0.08307354897260666]</t>
-  </si>
-  <si>
-    <t>[0.35219791531562805]</t>
-  </si>
-  <si>
-    <t>[0.0102095240727067]</t>
-  </si>
-  <si>
-    <t>[0.007680448703467846]</t>
-  </si>
-  <si>
-    <t>[-0.0740380585193634]</t>
-  </si>
-  <si>
-    <t>[-0.1652805060148239]</t>
-  </si>
-  <si>
-    <t>[-0.08614739775657654]</t>
-  </si>
-  <si>
-    <t>[-0.08311627805233002]</t>
-  </si>
-  <si>
-    <t>[0.05998581647872925]</t>
-  </si>
-  <si>
-    <t>[0.01178825180977583]</t>
-  </si>
-  <si>
-    <t>[-0.045101869851350784]</t>
-  </si>
-  <si>
-    <t>[-0.09579212963581085]</t>
-  </si>
-  <si>
-    <t>[-0.17214758694171906]</t>
-  </si>
-  <si>
-    <t>[-0.30163756012916565]</t>
-  </si>
-  <si>
-    <t>[-0.09329655021429062]</t>
-  </si>
-  <si>
-    <t>[-0.002078660996630788]</t>
-  </si>
-  <si>
-    <t>[-0.09359301626682281]</t>
-  </si>
-  <si>
-    <t>[0.10577397793531418]</t>
-  </si>
-  <si>
-    <t>[-0.07781695574522018]</t>
-  </si>
-  <si>
-    <t>[0.019454317167401314]</t>
-  </si>
-  <si>
-    <t>[-0.01928274892270565]</t>
-  </si>
-  <si>
-    <t>[0.08762829005718231]</t>
-  </si>
-  <si>
-    <t>[0.1264222413301468]</t>
-  </si>
-  <si>
-    <t>[-0.03874547779560089]</t>
-  </si>
-  <si>
-    <t>[0.10688070207834244]</t>
-  </si>
-  <si>
-    <t>[0.14406755566596985]</t>
-  </si>
-  <si>
-    <t>[-0.006060157902538776]</t>
-  </si>
-  <si>
-    <t>[0.04680374637246132]</t>
-  </si>
-  <si>
-    <t>[-0.18784724175930023]</t>
-  </si>
-  <si>
-    <t>[-0.08282792568206787]</t>
-  </si>
-  <si>
-    <t>[-0.2884865403175354]</t>
-  </si>
-  <si>
-    <t>[-0.11209729313850403]</t>
-  </si>
-  <si>
-    <t>[0.07335300743579865]</t>
-  </si>
-  <si>
-    <t>[-0.15590354800224304]</t>
-  </si>
-  <si>
-    <t>[-0.197794109582901]</t>
-  </si>
-  <si>
-    <t>[0.13236914575099945]</t>
-  </si>
-  <si>
-    <t>[0.06988652795553207]</t>
-  </si>
-  <si>
-    <t>[-0.20071333646774292]</t>
-  </si>
-  <si>
-    <t>[-0.1749415397644043]</t>
-  </si>
-  <si>
-    <t>[-0.0011804347159340978]</t>
-  </si>
-  <si>
-    <t>[-0.09711597114801407]</t>
-  </si>
-  <si>
-    <t>[-0.32922810316085815]</t>
-  </si>
-  <si>
-    <t>[0.09771358221769333]</t>
-  </si>
-  <si>
-    <t>[-0.15545105934143066]</t>
-  </si>
-  <si>
-    <t>[0.25596126914024353]</t>
-  </si>
-  <si>
-    <t>[-0.06485600769519806]</t>
-  </si>
-  <si>
-    <t>[-0.21018530428409576]</t>
-  </si>
-  <si>
-    <t>[-0.09601366519927979]</t>
-  </si>
-  <si>
-    <t>[0.4709520637989044]</t>
-  </si>
-  <si>
-    <t>[0.002900075865909457]</t>
-  </si>
-  <si>
-    <t>[0.3298766613006592]</t>
-  </si>
-  <si>
-    <t>[0.0073504517786204815]</t>
-  </si>
-  <si>
-    <t>[-0.08734146505594254]</t>
-  </si>
-  <si>
-    <t>[0.04605085030198097]</t>
-  </si>
-  <si>
-    <t>[0.04600627347826958]</t>
-  </si>
-  <si>
-    <t>[-0.01968083530664444]</t>
-  </si>
-  <si>
-    <t>[0.14810895919799805]</t>
-  </si>
-  <si>
-    <t>[-0.04046618938446045]</t>
-  </si>
-  <si>
-    <t>[-0.16261756420135498]</t>
-  </si>
-  <si>
-    <t>[0.013535923324525356]</t>
-  </si>
-  <si>
-    <t>[0.1780506819486618]</t>
-  </si>
-  <si>
-    <t>[-0.13019485771656036]</t>
-  </si>
-  <si>
-    <t>[-0.17611448466777802]</t>
-  </si>
-  <si>
-    <t>[0.11443917453289032]</t>
-  </si>
-  <si>
-    <t>[0.04596734419465065]</t>
-  </si>
-  <si>
-    <t>[0.2653234601020813]</t>
-  </si>
-  <si>
-    <t>[-0.09597515314817429]</t>
-  </si>
-  <si>
-    <t>[-0.09500661492347717]</t>
-  </si>
-  <si>
-    <t>[-0.1851755678653717]</t>
-  </si>
-  <si>
-    <t>[-0.024016279727220535]</t>
-  </si>
-  <si>
-    <t>[-0.26739591360092163]</t>
-  </si>
-  <si>
-    <t>[0.07416500896215439]</t>
-  </si>
-  <si>
-    <t>[0.21997377276420593]</t>
-  </si>
-  <si>
-    <t>[0.12577882409095764]</t>
-  </si>
-  <si>
-    <t>[-0.24171259999275208]</t>
-  </si>
-  <si>
-    <t>[0.21897417306900024]</t>
-  </si>
-  <si>
-    <t>[0.04473784938454628]</t>
-  </si>
-  <si>
-    <t>[0.007923755794763565]</t>
-  </si>
-  <si>
-    <t>[0.001897989073768258]</t>
-  </si>
-  <si>
-    <t>[-0.038169775158166885]</t>
-  </si>
-  <si>
-    <t>[-0.21027906239032745]</t>
-  </si>
-  <si>
-    <t>[-0.023741742596030235]</t>
-  </si>
-  <si>
-    <t>[-0.009191329590976238]</t>
-  </si>
-  <si>
-    <t>[-0.06955691426992416]</t>
-  </si>
-  <si>
-    <t>[0.11287853866815567]</t>
-  </si>
-  <si>
-    <t>[-0.18743301928043365]</t>
-  </si>
-  <si>
-    <t>[-0.11071456223726273]</t>
-  </si>
-  <si>
-    <t>[-0.22866792976856232]</t>
-  </si>
-  <si>
-    <t>[0.10298331081867218]</t>
-  </si>
-  <si>
-    <t>[0.1572839617729187]</t>
-  </si>
-  <si>
-    <t>[-0.10961072146892548]</t>
-  </si>
-  <si>
-    <t>[0.08701479434967041]</t>
-  </si>
-  <si>
-    <t>[0.16675806045532227]</t>
-  </si>
-  <si>
-    <t>[-0.006995530799031258]</t>
-  </si>
-  <si>
-    <t>[0.08186539262533188]</t>
-  </si>
-  <si>
-    <t>[-0.07860657572746277]</t>
-  </si>
-  <si>
-    <t>[0.01505157258361578]</t>
-  </si>
-  <si>
-    <t>[0.037725601345300674]</t>
-  </si>
-  <si>
-    <t>[0.036207880824804306]</t>
-  </si>
-  <si>
-    <t>[-0.403921514749527]</t>
-  </si>
-  <si>
-    <t>[0.19996216893196106]</t>
-  </si>
-  <si>
-    <t>[0.06595251709222794]</t>
-  </si>
-  <si>
-    <t>[-0.09414131939411163]</t>
-  </si>
-  <si>
-    <t>[-0.23229670524597168]</t>
-  </si>
-  <si>
-    <t>[-0.121357262134552]</t>
-  </si>
-  <si>
-    <t>[0.10346655547618866]</t>
-  </si>
-  <si>
-    <t>[0.09033235907554626]</t>
-  </si>
-  <si>
-    <t>[0.1296912580728531]</t>
-  </si>
-  <si>
-    <t>[-0.09781937301158905]</t>
-  </si>
-  <si>
-    <t>[0.3099556267261505]</t>
-  </si>
-  <si>
-    <t>[-0.04407574236392975]</t>
-  </si>
-  <si>
-    <t>[-0.023995105177164078]</t>
-  </si>
-  <si>
-    <t>[-0.10378582775592804]</t>
-  </si>
-  <si>
-    <t>[0.004926789086312056]</t>
-  </si>
-  <si>
-    <t>[0.1160094365477562]</t>
-  </si>
-  <si>
-    <t>[-0.16646210849285126]</t>
-  </si>
-  <si>
-    <t>[-0.1517665833234787]</t>
-  </si>
-  <si>
-    <t>[0.05116984620690346]</t>
-  </si>
-  <si>
-    <t>[0.11621399968862534]</t>
-  </si>
-  <si>
-    <t>[0.001861198921687901]</t>
-  </si>
-  <si>
-    <t>[0.11430352181196213]</t>
-  </si>
-  <si>
-    <t>[0.22143986821174622]</t>
-  </si>
-  <si>
-    <t>[-0.12458445131778717]</t>
-  </si>
-  <si>
-    <t>[-0.00607350654900074]</t>
-  </si>
-  <si>
-    <t>[-0.21474230289459229]</t>
-  </si>
-  <si>
-    <t>[-0.06288132071495056]</t>
-  </si>
-  <si>
-    <t>[0.2965909540653229]</t>
-  </si>
-  <si>
-    <t>[0.09471817314624786]</t>
-  </si>
-  <si>
-    <t>[0.14541713893413544]</t>
-  </si>
-  <si>
-    <t>[-0.1421971619129181]</t>
-  </si>
-  <si>
-    <t>[0.0893719345331192]</t>
-  </si>
-  <si>
-    <t>[0.08195466548204422]</t>
-  </si>
-  <si>
-    <t>[-0.013920644298195839]</t>
-  </si>
-  <si>
-    <t>[-0.037690840661525726]</t>
-  </si>
-  <si>
-    <t>[-0.1429944783449173]</t>
-  </si>
-  <si>
-    <t>[0.14941327273845673]</t>
-  </si>
-  <si>
-    <t>[0.4192740321159363]</t>
-  </si>
-  <si>
-    <t>[-0.1929953396320343]</t>
-  </si>
-  <si>
-    <t>[0.23970632255077362]</t>
-  </si>
-  <si>
-    <t>[0.15238121151924133]</t>
-  </si>
-  <si>
-    <t>[0.09712624549865723]</t>
-  </si>
-  <si>
-    <t>[-0.026134179905056953]</t>
-  </si>
-  <si>
-    <t>[0.12567852437496185]</t>
-  </si>
-  <si>
-    <t>[-0.1998058408498764]</t>
-  </si>
-  <si>
-    <t>[0.06708572059869766]</t>
-  </si>
-  <si>
-    <t>[0.052697375416755676]</t>
-  </si>
-  <si>
-    <t>[0.312875360250473]</t>
-  </si>
-  <si>
-    <t>[0.013451867736876011]</t>
-  </si>
-  <si>
-    <t>[0.10797572135925293]</t>
-  </si>
-  <si>
-    <t>[0.2426094263792038]</t>
-  </si>
-  <si>
-    <t>[-0.20757624506950378]</t>
-  </si>
-  <si>
-    <t>[0.1952553242444992]</t>
-  </si>
-  <si>
-    <t>[-0.1108318641781807]</t>
-  </si>
-  <si>
-    <t>[0.27624309062957764]</t>
-  </si>
-  <si>
-    <t>[0.05921144410967827]</t>
-  </si>
-  <si>
-    <t>[0.2921445369720459]</t>
-  </si>
-  <si>
-    <t>[-0.13959932327270508]</t>
-  </si>
-  <si>
-    <t>[-0.07527346163988113]</t>
-  </si>
-  <si>
-    <t>[0.036232102662324905]</t>
-  </si>
-  <si>
-    <t>[-0.10887404531240463]</t>
-  </si>
-  <si>
-    <t>[-0.0413384810090065]</t>
-  </si>
-  <si>
-    <t>[-0.08289027214050293]</t>
-  </si>
-  <si>
-    <t>[-0.017722852528095245]</t>
-  </si>
-  <si>
-    <t>[0.11917080730199814]</t>
-  </si>
-  <si>
-    <t>[-0.0365271158516407]</t>
-  </si>
-  <si>
-    <t>[-0.2105375975370407]</t>
-  </si>
-  <si>
-    <t>[-0.19240441918373108]</t>
-  </si>
-  <si>
-    <t>[0.012944906949996948]</t>
-  </si>
-  <si>
-    <t>[-0.2868836224079132]</t>
-  </si>
-  <si>
-    <t>[0.14230746030807495]</t>
-  </si>
-  <si>
-    <t>[0.07403863966464996]</t>
-  </si>
-  <si>
-    <t>[0.1314397007226944]</t>
-  </si>
-  <si>
-    <t>[-0.11343947798013687]</t>
-  </si>
-  <si>
-    <t>[-0.13560551404953003]</t>
-  </si>
-  <si>
-    <t>[-0.19398106634616852]</t>
-  </si>
-  <si>
-    <t>[-0.22170522809028625]</t>
-  </si>
-  <si>
-    <t>[0.0016626780852675438]</t>
-  </si>
-  <si>
-    <t>[-0.006989838555455208]</t>
-  </si>
-  <si>
-    <t>[0.019032398238778114]</t>
-  </si>
-  <si>
-    <t>[-0.12378310412168503]</t>
-  </si>
-  <si>
-    <t>[0.08771651983261108]</t>
-  </si>
-  <si>
-    <t>[0.31124404072761536]</t>
-  </si>
-  <si>
-    <t>[-0.09000110626220703]</t>
-  </si>
-  <si>
-    <t>[-0.09500770270824432]</t>
-  </si>
-  <si>
-    <t>[0.1279519647359848]</t>
-  </si>
-  <si>
-    <t>[0.3386201858520508]</t>
-  </si>
-  <si>
-    <t>[-0.031929515302181244]</t>
-  </si>
-  <si>
-    <t>[-0.16605569422245026]</t>
-  </si>
-  <si>
-    <t>[0.003024071455001831]</t>
-  </si>
-  <si>
-    <t>[-0.08848177641630173]</t>
-  </si>
-  <si>
-    <t>[-0.06146332249045372]</t>
-  </si>
-  <si>
-    <t>[-0.31470876932144165]</t>
-  </si>
-  <si>
-    <t>[-0.29164600372314453]</t>
-  </si>
-  <si>
-    <t>[0.1804988831281662]</t>
-  </si>
-  <si>
-    <t>[0.2454361617565155]</t>
-  </si>
-  <si>
-    <t>[-0.16232405602931976]</t>
-  </si>
-  <si>
-    <t>[-0.09179031848907471]</t>
-  </si>
-  <si>
-    <t>[0.027841929346323013]</t>
-  </si>
-  <si>
-    <t>[0.11072991043329239]</t>
-  </si>
-  <si>
-    <t>[-0.22398342192173004]</t>
-  </si>
-  <si>
-    <t>[0.11590966582298279]</t>
-  </si>
-  <si>
-    <t>[0.004488916136324406]</t>
-  </si>
-  <si>
-    <t>[0.10007508099079132]</t>
-  </si>
-  <si>
-    <t>[-0.060435496270656586]</t>
-  </si>
-  <si>
-    <t>[0.17270050942897797]</t>
-  </si>
-  <si>
-    <t>[-0.13068926334381104]</t>
-  </si>
-  <si>
-    <t>[0.07099326699972153]</t>
-  </si>
-  <si>
-    <t>[0.05406351760029793]</t>
-  </si>
-  <si>
-    <t>[0.02452470175921917]</t>
-  </si>
-  <si>
-    <t>[-0.05478668585419655]</t>
-  </si>
-  <si>
-    <t>[0.046695563942193985]</t>
-  </si>
-  <si>
-    <t>[0.019773244857788086]</t>
-  </si>
-  <si>
-    <t>[0.2418520301580429]</t>
-  </si>
-  <si>
-    <t>[0.11674880981445312]</t>
-  </si>
-  <si>
-    <t>[0.11753536015748978]</t>
-  </si>
-  <si>
-    <t>[0.09769261628389359]</t>
-  </si>
-  <si>
-    <t>[0.15603084862232208]</t>
-  </si>
-  <si>
-    <t>[-0.07383117824792862]</t>
-  </si>
-  <si>
-    <t>[0.23295487463474274]</t>
-  </si>
-  <si>
-    <t>[-0.23445750772953033]</t>
-  </si>
-  <si>
-    <t>[0.06650372594594955]</t>
-  </si>
-  <si>
-    <t>[0.05826544389128685]</t>
-  </si>
-  <si>
-    <t>[-0.06620410084724426]</t>
-  </si>
-  <si>
-    <t>[-0.0982891321182251]</t>
-  </si>
-  <si>
-    <t>[-0.006290723104029894]</t>
-  </si>
-  <si>
-    <t>[-0.05837980657815933]</t>
-  </si>
-  <si>
-    <t>[-0.06502699106931686]</t>
-  </si>
-  <si>
-    <t>[0.21414750814437866]</t>
-  </si>
-  <si>
-    <t>[0.14119894802570343]</t>
-  </si>
-  <si>
-    <t>[-0.06715341657400131]</t>
-  </si>
-  <si>
-    <t>[-0.057823192328214645]</t>
-  </si>
-  <si>
-    <t>[-0.16077439486980438]</t>
-  </si>
-  <si>
-    <t>[0.1402934193611145]</t>
-  </si>
-  <si>
-    <t>[0.09257622063159943]</t>
-  </si>
-  <si>
-    <t>[-0.07140880823135376]</t>
-  </si>
-  <si>
-    <t>[-0.1771332174539566]</t>
-  </si>
-  <si>
-    <t>[-0.014220437034964561]</t>
-  </si>
-  <si>
-    <t>[-0.03468724712729454]</t>
-  </si>
-  <si>
-    <t>[0.2896130383014679]</t>
-  </si>
-  <si>
-    <t>[-0.03928053006529808]</t>
-  </si>
-  <si>
-    <t>[-0.14158228039741516]</t>
-  </si>
-  <si>
-    <t>[0.18028220534324646]</t>
-  </si>
-  <si>
-    <t>[-0.046184007078409195]</t>
-  </si>
-  <si>
-    <t>[0.13949236273765564]</t>
-  </si>
-  <si>
-    <t>[0.01712728664278984]</t>
-  </si>
-  <si>
-    <t>[0.1593851000070572]</t>
-  </si>
-  <si>
-    <t>[0.023856326937675476]</t>
-  </si>
-  <si>
-    <t>[-0.27423539757728577]</t>
-  </si>
-  <si>
-    <t>[-0.023226268589496613]</t>
-  </si>
-  <si>
-    <t>[0.047795671969652176]</t>
-  </si>
-  <si>
-    <t>[0.2340122014284134]</t>
-  </si>
-  <si>
-    <t>[-0.14153937995433807]</t>
-  </si>
-  <si>
-    <t>[-0.10690989345312119]</t>
-  </si>
-  <si>
-    <t>[0.10378995537757874]</t>
-  </si>
-  <si>
-    <t>[0.0946025624871254]</t>
-  </si>
-  <si>
-    <t>[0.18052390217781067]</t>
-  </si>
-  <si>
-    <t>[-0.10477644950151443]</t>
-  </si>
-  <si>
-    <t>[0.037910427898168564]</t>
-  </si>
-  <si>
-    <t>[-0.04619698226451874]</t>
-  </si>
-  <si>
-    <t>[-0.1640235036611557]</t>
-  </si>
-  <si>
-    <t>[-0.16767054796218872]</t>
-  </si>
-  <si>
-    <t>[0.0762181431055069]</t>
-  </si>
-  <si>
-    <t>[0.12920087575912476]</t>
-  </si>
-  <si>
-    <t>[-0.016135064885020256]</t>
-  </si>
-  <si>
-    <t>[0.3333587050437927]</t>
-  </si>
-  <si>
-    <t>[-0.1512199491262436]</t>
-  </si>
-  <si>
-    <t>[-0.044146765023469925]</t>
-  </si>
-  <si>
-    <t>[-0.1789592057466507]</t>
-  </si>
-  <si>
-    <t>[0.02962457947432995]</t>
-  </si>
-  <si>
-    <t>[-0.12832149863243103]</t>
-  </si>
-  <si>
-    <t>[-0.23701967298984528]</t>
-  </si>
-  <si>
-    <t>[0.04773534834384918]</t>
-  </si>
-  <si>
-    <t>[0.22138665616512299]</t>
-  </si>
-  <si>
-    <t>[0.13705742359161377]</t>
-  </si>
-  <si>
-    <t>[0.07631374895572662]</t>
-  </si>
-  <si>
-    <t>[0.052937351167201996]</t>
-  </si>
-  <si>
-    <t>[-0.003782774554565549]</t>
-  </si>
-  <si>
-    <t>[-0.009905543178319931]</t>
-  </si>
-  <si>
-    <t>[-0.09736258536577225]</t>
-  </si>
-  <si>
-    <t>[0.12117775529623032]</t>
-  </si>
-  <si>
-    <t>[0.008629550226032734]</t>
-  </si>
-  <si>
-    <t>[0.09991035610437393]</t>
-  </si>
-  <si>
-    <t>[0.021282527595758438]</t>
-  </si>
-  <si>
-    <t>[0.005288373678922653]</t>
-  </si>
-  <si>
-    <t>[0.20297805964946747]</t>
-  </si>
-  <si>
-    <t>[-0.038758594542741776]</t>
-  </si>
-  <si>
-    <t>[-0.12209218740463257]</t>
-  </si>
-  <si>
-    <t>[-0.22935444116592407]</t>
-  </si>
-  <si>
-    <t>[-0.05612529069185257]</t>
-  </si>
-  <si>
-    <t>[-0.2218053787946701]</t>
-  </si>
-  <si>
-    <t>[0.05615841597318649]</t>
-  </si>
-  <si>
-    <t>[0.05930272489786148]</t>
-  </si>
-  <si>
-    <t>[-0.3617042601108551]</t>
-  </si>
-  <si>
-    <t>[0.15970516204833984]</t>
-  </si>
-  <si>
-    <t>[0.02512037381529808]</t>
-  </si>
-  <si>
-    <t>[-0.14352905750274658]</t>
-  </si>
-  <si>
-    <t>[0.19521856307983398]</t>
-  </si>
-  <si>
-    <t>[-0.14513231813907623]</t>
-  </si>
-  <si>
-    <t>[0.08294069766998291]</t>
-  </si>
-  <si>
-    <t>[0.027330748736858368]</t>
-  </si>
-  <si>
-    <t>[0.25385379791259766]</t>
-  </si>
-  <si>
-    <t>[0.014047259464859962]</t>
-  </si>
-  <si>
-    <t>[0.11039590835571289]</t>
-  </si>
-  <si>
-    <t>[0.03953797370195389]</t>
-  </si>
-  <si>
-    <t>[0.06483247876167297]</t>
-  </si>
-  <si>
-    <t>[-0.11586704105138779]</t>
-  </si>
-  <si>
-    <t>[0.02223985642194748]</t>
-  </si>
-  <si>
-    <t>[0.0370912179350853]</t>
-  </si>
-  <si>
-    <t>[0.021578436717391014]</t>
-  </si>
-  <si>
-    <t>[0.2565103769302368]</t>
-  </si>
-  <si>
-    <t>[-0.05725814402103424]</t>
-  </si>
-  <si>
-    <t>[-0.12648217380046844]</t>
-  </si>
-  <si>
-    <t>[0.03704618290066719]</t>
-  </si>
-  <si>
-    <t>[0.09489814937114716]</t>
-  </si>
-  <si>
-    <t>[-0.22609855234622955]</t>
-  </si>
-  <si>
-    <t>[-0.000548933632671833]</t>
-  </si>
-  <si>
-    <t>[-0.04542095959186554]</t>
-  </si>
-  <si>
-    <t>[-0.2855619490146637]</t>
-  </si>
-  <si>
-    <t>[0.2145971953868866]</t>
-  </si>
-  <si>
-    <t>[-0.048265863209962845]</t>
-  </si>
-  <si>
-    <t>[0.24154093861579895]</t>
-  </si>
-  <si>
-    <t>[-0.3257349729537964]</t>
-  </si>
-  <si>
-    <t>[0.26872608065605164]</t>
-  </si>
-  <si>
-    <t>[-0.11330292373895645]</t>
-  </si>
-  <si>
-    <t>[0.11854861676692963]</t>
-  </si>
-  <si>
-    <t>[0.08887191861867905]</t>
-  </si>
-  <si>
-    <t>[-0.008682996965944767]</t>
-  </si>
-  <si>
-    <t>[0.10611222684383392]</t>
-  </si>
-  <si>
-    <t>[0.09033375233411789]</t>
-  </si>
-  <si>
-    <t>[0.11877374351024628]</t>
-  </si>
-  <si>
-    <t>[0.03249423950910568]</t>
-  </si>
-  <si>
-    <t>[0.12612774968147278]</t>
-  </si>
-  <si>
-    <t>[0.23136602342128754]</t>
-  </si>
-  <si>
-    <t>[-0.10420479625463486]</t>
-  </si>
-  <si>
-    <t>[-0.32450422644615173]</t>
-  </si>
-  <si>
-    <t>[-0.17051300406455994]</t>
-  </si>
-  <si>
-    <t>[-0.13787685334682465]</t>
-  </si>
-  <si>
-    <t>[-0.10990914702415466]</t>
-  </si>
-  <si>
-    <t>[-0.0017113069770857692]</t>
-  </si>
-  <si>
-    <t>[0.24923886358737946]</t>
-  </si>
-  <si>
-    <t>[0.006766066420823336]</t>
-  </si>
-  <si>
-    <t>[-0.03293110057711601]</t>
-  </si>
-  <si>
-    <t>[-0.14732244610786438]</t>
-  </si>
-  <si>
-    <t>[0.14362935721874237]</t>
-  </si>
-  <si>
-    <t>[0.034719664603471756]</t>
-  </si>
-  <si>
-    <t>[0.08866885304450989]</t>
-  </si>
-  <si>
-    <t>[-0.09957470744848251]</t>
-  </si>
-  <si>
-    <t>[0.2924848794937134]</t>
-  </si>
-  <si>
-    <t>[0.1519239842891693]</t>
-  </si>
-  <si>
-    <t>[-0.09016051143407822]</t>
-  </si>
-  <si>
-    <t>[0.13456939160823822]</t>
-  </si>
-  <si>
-    <t>[-0.05760114639997482]</t>
-  </si>
-  <si>
-    <t>[0.16488493978977203]</t>
-  </si>
-  <si>
-    <t>[-0.12759052217006683]</t>
-  </si>
-  <si>
-    <t>[0.08690248429775238]</t>
-  </si>
-  <si>
-    <t>[-0.088112473487854]</t>
-  </si>
-  <si>
-    <t>[0.17364518344402313]</t>
-  </si>
-  <si>
-    <t>[0.05236728489398956]</t>
-  </si>
-  <si>
-    <t>[-0.033120330423116684]</t>
-  </si>
-  <si>
-    <t>[0.3058132827281952]</t>
-  </si>
-  <si>
-    <t>[0.17653538286685944]</t>
-  </si>
-  <si>
-    <t>[-0.05400582775473595]</t>
-  </si>
-  <si>
-    <t>[-0.26869210600852966]</t>
-  </si>
-  <si>
-    <t>[0.0931260883808136]</t>
-  </si>
-  <si>
-    <t>[-0.04445290192961693]</t>
-  </si>
-  <si>
-    <t>[-0.05687088891863823]</t>
-  </si>
-  <si>
-    <t>[0.06370673328638077]</t>
-  </si>
-  <si>
-    <t>[-0.0689205676317215]</t>
-  </si>
-  <si>
-    <t>[-0.18849851191043854]</t>
-  </si>
-  <si>
-    <t>[-0.2003478854894638]</t>
-  </si>
-  <si>
-    <t>[0.11585235595703125]</t>
-  </si>
-  <si>
-    <t>[-0.06733476370573044]</t>
-  </si>
-  <si>
-    <t>[0.13587196171283722]</t>
-  </si>
-  <si>
-    <t>[0.11453930288553238]</t>
-  </si>
-  <si>
-    <t>[0.1722954958677292]</t>
-  </si>
-  <si>
-    <t>[0.18667732179164886]</t>
-  </si>
-  <si>
-    <t>[-0.22337038815021515]</t>
-  </si>
-  <si>
-    <t>[0.24382108449935913]</t>
-  </si>
-  <si>
-    <t>[-0.11159194260835648]</t>
-  </si>
-  <si>
-    <t>[0.04922353848814964]</t>
-  </si>
-  <si>
-    <t>[-0.21183155477046967]</t>
-  </si>
-  <si>
-    <t>[-0.2673056721687317]</t>
-  </si>
-  <si>
-    <t>[-0.09701310843229294]</t>
-  </si>
-  <si>
-    <t>[-0.1667393296957016]</t>
-  </si>
-  <si>
-    <t>[-0.04451833665370941]</t>
-  </si>
-  <si>
-    <t>[0.1162995994091034]</t>
-  </si>
-  <si>
-    <t>[0.00838855467736721]</t>
-  </si>
-  <si>
-    <t>[-0.07886989414691925]</t>
-  </si>
-  <si>
-    <t>[-0.08014160394668579]</t>
-  </si>
-  <si>
-    <t>[-0.3718966543674469]</t>
-  </si>
-  <si>
-    <t>[-6.201506039360538e-05]</t>
-  </si>
-  <si>
-    <t>[0.14254461228847504]</t>
-  </si>
-  <si>
-    <t>[-0.1906309574842453]</t>
-  </si>
-  <si>
-    <t>[-0.21735148131847382]</t>
-  </si>
-  <si>
-    <t>[0.15162815153598785]</t>
-  </si>
-  <si>
-    <t>[0.09133413434028625]</t>
-  </si>
-  <si>
-    <t>[-0.09510456770658493]</t>
-  </si>
-  <si>
-    <t>[-0.1837451010942459]</t>
-  </si>
-  <si>
-    <t>[0.11155446618795395]</t>
-  </si>
-  <si>
-    <t>[0.01733843982219696]</t>
-  </si>
-  <si>
-    <t>[-0.06966644525527954]</t>
-  </si>
-  <si>
-    <t>[-0.025468645617365837]</t>
-  </si>
-  <si>
-    <t>[-0.05822620540857315]</t>
-  </si>
-  <si>
-    <t>[-0.12784984707832336]</t>
-  </si>
-  <si>
-    <t>[-0.007099260110408068]</t>
-  </si>
-  <si>
-    <t>[0.07068736851215363]</t>
-  </si>
-  <si>
-    <t>[-0.00729434983804822]</t>
-  </si>
-  <si>
-    <t>[0.049078308045864105]</t>
-  </si>
-  <si>
-    <t>[0.01668701507151127]</t>
-  </si>
-  <si>
-    <t>[-0.005175580270588398]</t>
-  </si>
-  <si>
-    <t>[-0.030237292870879173]</t>
-  </si>
-  <si>
-    <t>[-0.17470219731330872]</t>
-  </si>
-  <si>
-    <t>[-0.07869156450033188]</t>
-  </si>
-  <si>
-    <t>[0.05373809114098549]</t>
-  </si>
-  <si>
-    <t>[-0.13358484208583832]</t>
-  </si>
-  <si>
-    <t>[-0.221527099609375]</t>
-  </si>
-  <si>
-    <t>[0.04484131932258606]</t>
-  </si>
-  <si>
-    <t>[0.13574378192424774]</t>
-  </si>
-  <si>
-    <t>[0.03593575581908226]</t>
-  </si>
-  <si>
-    <t>[-0.24952171742916107]</t>
-  </si>
-  <si>
-    <t>[0.1944955587387085]</t>
-  </si>
-  <si>
-    <t>[0.27624863386154175]</t>
-  </si>
-  <si>
-    <t>[-0.2602939009666443]</t>
-  </si>
-  <si>
-    <t>[0.05421522632241249]</t>
-  </si>
-  <si>
-    <t>[0.16345544159412384]</t>
-  </si>
-  <si>
-    <t>[-0.07847007364034653]</t>
-  </si>
-  <si>
-    <t>[-0.2517833411693573]</t>
-  </si>
-  <si>
-    <t>[-0.17609132826328278]</t>
-  </si>
-  <si>
-    <t>[0.09394526481628418]</t>
-  </si>
-  <si>
-    <t>[-0.215284064412117]</t>
-  </si>
-  <si>
-    <t>[-0.16834039986133575]</t>
-  </si>
-  <si>
-    <t>[-0.16728870570659637]</t>
-  </si>
-  <si>
-    <t>[0.35190120339393616]</t>
-  </si>
-  <si>
-    <t>[-0.19843803346157074]</t>
-  </si>
-  <si>
-    <t>[0.05034219101071358]</t>
-  </si>
-  <si>
-    <t>[-0.0959915891289711]</t>
-  </si>
-  <si>
-    <t>[0.2062467783689499]</t>
-  </si>
-  <si>
-    <t>[0.08043582737445831]</t>
-  </si>
-  <si>
-    <t>[-0.16908866167068481]</t>
-  </si>
-  <si>
-    <t>[-0.35555005073547363]</t>
-  </si>
-  <si>
-    <t>[-0.044827044010162354]</t>
-  </si>
-  <si>
-    <t>[0.14361007511615753]</t>
-  </si>
-  <si>
-    <t>[-0.03507942706346512]</t>
-  </si>
-  <si>
-    <t>[0.07893659919500351]</t>
-  </si>
-  <si>
-    <t>[0.023501241579651833]</t>
-  </si>
-  <si>
-    <t>[0.13762681186199188]</t>
-  </si>
-  <si>
-    <t>[0.007796977646648884]</t>
-  </si>
-  <si>
-    <t>[-0.16613325476646423]</t>
-  </si>
-  <si>
-    <t>[-0.013118804432451725]</t>
-  </si>
-  <si>
-    <t>[0.03849092125892639]</t>
-  </si>
-  <si>
-    <t>[0.16967691481113434]</t>
-  </si>
-  <si>
-    <t>[-0.19544319808483124]</t>
-  </si>
-  <si>
-    <t>[0.00149821606464684]</t>
-  </si>
-  <si>
-    <t>[0.05086292698979378]</t>
-  </si>
-  <si>
-    <t>[0.06893160194158554]</t>
-  </si>
-  <si>
-    <t>[0.29460543394088745]</t>
-  </si>
-  <si>
-    <t>[0.08628786355257034]</t>
-  </si>
-  <si>
-    <t>[0.10754621773958206]</t>
-  </si>
-  <si>
-    <t>[0.08135848492383957]</t>
-  </si>
-  <si>
-    <t>[0.01759440079331398]</t>
-  </si>
-  <si>
-    <t>[-0.008537190966308117]</t>
-  </si>
-  <si>
-    <t>[0.046318985521793365]</t>
-  </si>
-  <si>
-    <t>[0.027272827923297882]</t>
-  </si>
-  <si>
-    <t>[0.09158141165971756]</t>
-  </si>
-  <si>
-    <t>[0.047881871461868286]</t>
-  </si>
-  <si>
-    <t>[0.27764707803726196]</t>
-  </si>
-  <si>
-    <t>[-0.020595867186784744]</t>
-  </si>
-  <si>
-    <t>[-0.10276598483324051]</t>
-  </si>
-  <si>
-    <t>[0.05374552309513092]</t>
-  </si>
-  <si>
-    <t>[0.16644753515720367]</t>
-  </si>
-  <si>
-    <t>[0.013309318572282791]</t>
-  </si>
-  <si>
-    <t>[0.09352301061153412]</t>
-  </si>
-  <si>
-    <t>[0.15184864401817322]</t>
-  </si>
-  <si>
-    <t>[-0.0877905786037445]</t>
-  </si>
-  <si>
-    <t>[-0.10336574912071228]</t>
-  </si>
-  <si>
-    <t>[-0.16107235848903656]</t>
-  </si>
-  <si>
-    <t>[0.1234477311372757]</t>
-  </si>
-  <si>
-    <t>[0.031035367399454117]</t>
-  </si>
-  <si>
-    <t>[0.37474876642227173]</t>
-  </si>
-  <si>
-    <t>[0.01585352048277855]</t>
-  </si>
-  <si>
-    <t>[-0.08922303467988968]</t>
-  </si>
-  <si>
-    <t>[-0.05134252458810806]</t>
-  </si>
-  <si>
-    <t>[-0.13837756216526031]</t>
-  </si>
-  <si>
-    <t>[0.011012979783117771]</t>
-  </si>
-  <si>
-    <t>[0.09051428735256195]</t>
-  </si>
-  <si>
-    <t>[-0.15409326553344727]</t>
-  </si>
-  <si>
-    <t>[-0.052119702100753784]</t>
-  </si>
-  <si>
-    <t>[-0.06222441792488098]</t>
-  </si>
-  <si>
-    <t>[-0.09169913083314896]</t>
-  </si>
-  <si>
-    <t>[0.2045021802186966]</t>
-  </si>
-  <si>
-    <t>[0.051503654569387436]</t>
-  </si>
-  <si>
-    <t>[-0.031593941152095795]</t>
-  </si>
-  <si>
-    <t>[-0.5842472910881042]</t>
-  </si>
-  <si>
-    <t>[0.13899965584278107]</t>
-  </si>
-  <si>
-    <t>[0.003498619655147195]</t>
-  </si>
-  <si>
-    <t>[0.0959644764661789]</t>
-  </si>
-  <si>
-    <t>[0.21369677782058716]</t>
-  </si>
-  <si>
-    <t>[-0.05919848009943962]</t>
-  </si>
-  <si>
-    <t>[0.06631385535001755]</t>
-  </si>
-  <si>
-    <t>[0.22018587589263916]</t>
-  </si>
-  <si>
-    <t>[0.1903628259897232]</t>
-  </si>
-  <si>
-    <t>[0.20303118228912354]</t>
-  </si>
-  <si>
-    <t>[0.04553981497883797]</t>
-  </si>
-  <si>
-    <t>[-0.21870893239974976]</t>
-  </si>
-  <si>
-    <t>[-0.05874704197049141]</t>
-  </si>
-  <si>
-    <t>[-0.0919623151421547]</t>
-  </si>
-  <si>
-    <t>[0.0483645424246788]</t>
-  </si>
-  <si>
-    <t>[-0.2291741967201233]</t>
-  </si>
-  <si>
-    <t>[0.13072367012500763]</t>
-  </si>
-  <si>
-    <t>[0.22305338084697723]</t>
-  </si>
-  <si>
-    <t>[-0.029024310410022736]</t>
-  </si>
-  <si>
-    <t>[0.16296611726284027]</t>
-  </si>
-  <si>
-    <t>[-0.0041076187044382095]</t>
-  </si>
-  <si>
-    <t>[-0.03679508715867996]</t>
-  </si>
-  <si>
-    <t>[0.03645128384232521]</t>
-  </si>
-  <si>
-    <t>[0.06711781769990921]</t>
-  </si>
-  <si>
-    <t>[0.34832867980003357]</t>
-  </si>
-  <si>
-    <t>[-0.27272284030914307]</t>
-  </si>
-  <si>
-    <t>[0.2942763864994049]</t>
-  </si>
-  <si>
-    <t>[-0.1126132681965828]</t>
-  </si>
-  <si>
-    <t>[0.21324892342090607]</t>
-  </si>
-  <si>
-    <t>[-0.026605384424328804]</t>
-  </si>
-  <si>
-    <t>[0.14235429465770721]</t>
-  </si>
-  <si>
-    <t>[0.20051079988479614]</t>
-  </si>
-  <si>
-    <t>[0.025119230151176453]</t>
-  </si>
-  <si>
-    <t>[0.0164344385266304]</t>
-  </si>
-  <si>
-    <t>[0.03846636041998863]</t>
-  </si>
-  <si>
-    <t>[0.08039197325706482]</t>
-  </si>
-  <si>
-    <t>[-0.08346202969551086]</t>
-  </si>
-  <si>
-    <t>[-0.1718558967113495]</t>
-  </si>
-  <si>
-    <t>[-0.1171264797449112]</t>
-  </si>
-  <si>
-    <t>[0.22376345098018646]</t>
-  </si>
-  <si>
-    <t>[0.21159321069717407]</t>
-  </si>
-  <si>
-    <t>[0.041085243225097656]</t>
-  </si>
-  <si>
-    <t>[-0.0761341080069542]</t>
-  </si>
-  <si>
-    <t>[-0.003381232963874936]</t>
-  </si>
-  <si>
-    <t>[0.2098076045513153]</t>
-  </si>
-  <si>
-    <t>[-0.19169913232326508]</t>
-  </si>
-  <si>
-    <t>[0.19847579300403595]</t>
-  </si>
-  <si>
-    <t>[0.035427484661340714]</t>
-  </si>
-  <si>
-    <t>[0.2358759194612503]</t>
-  </si>
-  <si>
-    <t>[0.07168379426002502]</t>
-  </si>
-  <si>
-    <t>[-0.19349008798599243]</t>
-  </si>
-  <si>
-    <t>[0.2294524759054184]</t>
-  </si>
-  <si>
-    <t>[0.1540919542312622]</t>
-  </si>
-  <si>
-    <t>[-0.005208292976021767]</t>
-  </si>
-  <si>
-    <t>[-0.06923703104257584]</t>
-  </si>
-  <si>
-    <t>[-0.11808779090642929]</t>
-  </si>
-  <si>
-    <t>[-0.03953207656741142]</t>
-  </si>
-  <si>
-    <t>[0.006756313145160675]</t>
-  </si>
-  <si>
-    <t>[0.20873506367206573]</t>
-  </si>
-  <si>
-    <t>[0.07244881242513657]</t>
-  </si>
-  <si>
-    <t>[0.05349372699856758]</t>
-  </si>
-  <si>
-    <t>[0.09760937094688416]</t>
-  </si>
-  <si>
-    <t>[-0.09035832434892654]</t>
-  </si>
-  <si>
-    <t>[0.04857715591788292]</t>
-  </si>
-  <si>
-    <t>[-0.1022074744105339]</t>
-  </si>
-  <si>
-    <t>[0.0229344479739666]</t>
-  </si>
-  <si>
-    <t>[-0.008013401180505753]</t>
-  </si>
-  <si>
-    <t>[-0.12067905813455582]</t>
-  </si>
-  <si>
-    <t>[-0.0034107626415789127]</t>
-  </si>
-  <si>
-    <t>[-0.07745936512947083]</t>
-  </si>
-  <si>
-    <t>[0.06098725274205208]</t>
-  </si>
-  <si>
-    <t>[0.05483689531683922]</t>
-  </si>
-  <si>
-    <t>[0.07380077242851257]</t>
-  </si>
-  <si>
-    <t>[0.2595217823982239]</t>
-  </si>
-  <si>
-    <t>[0.062364593148231506]</t>
-  </si>
-  <si>
-    <t>[-0.08067145943641663]</t>
-  </si>
-  <si>
-    <t>[0.25345131754875183]</t>
-  </si>
-  <si>
-    <t>[0.06992670148611069]</t>
-  </si>
-  <si>
-    <t>[-0.027322685346007347]</t>
-  </si>
-  <si>
-    <t>[0.16423314809799194]</t>
-  </si>
-  <si>
-    <t>[0.01589864119887352]</t>
-  </si>
-  <si>
-    <t>[-0.08856917172670364]</t>
-  </si>
-  <si>
-    <t>[0.032183315604925156]</t>
-  </si>
-  <si>
-    <t>[-0.2665453553199768]</t>
-  </si>
-  <si>
-    <t>[-0.12690185010433197]</t>
-  </si>
-  <si>
-    <t>[-0.1498776376247406]</t>
-  </si>
-  <si>
-    <t>[-0.0798618420958519]</t>
-  </si>
-  <si>
-    <t>[0.029798494651913643]</t>
-  </si>
-  <si>
-    <t>[0.12714800238609314]</t>
-  </si>
-  <si>
-    <t>[0.1149803176522255]</t>
-  </si>
-  <si>
-    <t>[0.14807477593421936]</t>
-  </si>
-  <si>
-    <t>[0.3506997525691986]</t>
-  </si>
-  <si>
-    <t>[0.19113002717494965]</t>
-  </si>
-  <si>
-    <t>[0.031760115176439285]</t>
-  </si>
-  <si>
-    <t>[-0.03767096996307373]</t>
-  </si>
-  <si>
-    <t>[0.0081265177577734]</t>
-  </si>
-  <si>
-    <t>[0.27304312586784363]</t>
-  </si>
-  <si>
-    <t>[-0.03547397628426552]</t>
-  </si>
-  <si>
-    <t>[0.06867697834968567]</t>
-  </si>
-  <si>
-    <t>[0.14958319067955017]</t>
-  </si>
-  <si>
-    <t>[0.021304963156580925]</t>
-  </si>
-  <si>
-    <t>[0.4151928722858429]</t>
-  </si>
-  <si>
-    <t>[-0.03873168304562569]</t>
-  </si>
-  <si>
-    <t>[-0.07794220745563507]</t>
-  </si>
-  <si>
-    <t>[0.35380613803863525]</t>
-  </si>
-  <si>
-    <t>[0.18325476348400116]</t>
-  </si>
-  <si>
-    <t>[-0.09474289417266846]</t>
-  </si>
-  <si>
-    <t>[0.1797213852405548]</t>
-  </si>
-  <si>
-    <t>[-0.1746411919593811]</t>
-  </si>
-  <si>
-    <t>[0.2917577624320984]</t>
-  </si>
-  <si>
-    <t>[-0.1534457802772522]</t>
-  </si>
-  <si>
-    <t>[-0.043314315378665924]</t>
-  </si>
-  <si>
-    <t>[0.07048487663269043]</t>
-  </si>
-  <si>
-    <t>[-0.08380214124917984]</t>
-  </si>
-  <si>
-    <t>[0.291565477848053]</t>
-  </si>
-  <si>
-    <t>[0.11304960399866104]</t>
-  </si>
-  <si>
-    <t>[0.09489551931619644]</t>
-  </si>
-  <si>
-    <t>[0.1395203024148941]</t>
-  </si>
-  <si>
-    <t>[0.02661004848778248]</t>
-  </si>
-  <si>
-    <t>[-0.1540365219116211]</t>
-  </si>
-  <si>
-    <t>[-0.03548416495323181]</t>
-  </si>
-  <si>
-    <t>[0.04365551471710205]</t>
-  </si>
-  <si>
-    <t>[-0.060262203216552734]</t>
-  </si>
-  <si>
-    <t>[-0.10162527859210968]</t>
-  </si>
-  <si>
-    <t>[-0.0012521939352154732]</t>
-  </si>
-  <si>
-    <t>[-0.27449145913124084]</t>
-  </si>
-  <si>
-    <t>[-0.0807335153222084]</t>
-  </si>
-  <si>
-    <t>[-0.18653051555156708]</t>
-  </si>
-  <si>
-    <t>[0.07272854447364807]</t>
-  </si>
-  <si>
-    <t>[0.1751602441072464]</t>
-  </si>
-  <si>
-    <t>[0.21086430549621582]</t>
-  </si>
-  <si>
-    <t>[-0.04775068163871765]</t>
-  </si>
-  <si>
-    <t>[0.10771963000297546]</t>
-  </si>
-  <si>
-    <t>[0.02429472841322422]</t>
-  </si>
-  <si>
-    <t>[-0.3613090217113495]</t>
-  </si>
-  <si>
-    <t>[0.31603875756263733]</t>
-  </si>
-  <si>
-    <t>[-0.31058424711227417]</t>
-  </si>
-  <si>
-    <t>[-0.08801336586475372]</t>
-  </si>
-  <si>
-    <t>[-0.18619610369205475]</t>
-  </si>
-  <si>
-    <t>[0.06532443314790726]</t>
-  </si>
-  <si>
-    <t>[0.008077333681285381]</t>
-  </si>
-  <si>
-    <t>[0.1752495914697647]</t>
-  </si>
-  <si>
-    <t>[-0.046401962637901306]</t>
-  </si>
-  <si>
-    <t>[0.052795082330703735]</t>
-  </si>
-  <si>
-    <t>[-0.013868403621017933]</t>
-  </si>
-  <si>
-    <t>[-0.019597429782152176]</t>
-  </si>
-  <si>
-    <t>[-0.19974087178707123]</t>
-  </si>
-  <si>
-    <t>[-0.011949537321925163]</t>
-  </si>
-  <si>
-    <t>[-0.1255725771188736]</t>
-  </si>
-  <si>
-    <t>[-0.22383281588554382]</t>
-  </si>
-  <si>
-    <t>[-0.058541156351566315]</t>
-  </si>
-  <si>
-    <t>[0.04351186007261276]</t>
-  </si>
-  <si>
-    <t>[-0.1341635137796402]</t>
-  </si>
-  <si>
-    <t>[0.01773473620414734]</t>
-  </si>
-  <si>
-    <t>[-0.14499270915985107]</t>
-  </si>
-  <si>
-    <t>[-0.11197161674499512]</t>
-  </si>
-  <si>
-    <t>[-0.053671274334192276]</t>
-  </si>
-  <si>
-    <t>[0.04096560180187225]</t>
-  </si>
-  <si>
-    <t>[0.16630500555038452]</t>
-  </si>
-  <si>
-    <t>[0.03676691651344299]</t>
-  </si>
-  <si>
-    <t>[0.19021053612232208]</t>
-  </si>
-  <si>
-    <t>[0.13766580820083618]</t>
-  </si>
-  <si>
-    <t>[0.1146569773554802]</t>
-  </si>
-  <si>
-    <t>[-0.3404046595096588]</t>
-  </si>
-  <si>
-    <t>[0.13613207638263702]</t>
-  </si>
-  <si>
-    <t>[0.05406281724572182]</t>
-  </si>
-  <si>
-    <t>[-0.14530134201049805]</t>
-  </si>
-  <si>
-    <t>[-0.10417340695858002]</t>
-  </si>
-  <si>
-    <t>[0.012930418364703655]</t>
-  </si>
-  <si>
-    <t>[-0.2941626310348511]</t>
-  </si>
-  <si>
-    <t>[0.23979227244853973]</t>
-  </si>
-  <si>
-    <t>[0.16743430495262146]</t>
-  </si>
-  <si>
-    <t>[0.32312390208244324]</t>
-  </si>
-  <si>
-    <t>[-0.03552152216434479]</t>
-  </si>
-  <si>
-    <t>[-0.09114179015159607]</t>
-  </si>
-  <si>
-    <t>[0.15534067153930664]</t>
-  </si>
-  <si>
-    <t>[-0.07941313087940216]</t>
-  </si>
-  <si>
-    <t>[-0.06112208962440491]</t>
-  </si>
-  <si>
-    <t>[0.16747061908245087]</t>
-  </si>
-  <si>
-    <t>[-0.18288949131965637]</t>
-  </si>
-  <si>
-    <t>[-0.06264618039131165]</t>
-  </si>
-  <si>
-    <t>[-0.03696811944246292]</t>
-  </si>
-  <si>
-    <t>[-0.06108527630567551]</t>
-  </si>
-  <si>
-    <t>[0.046702925115823746]</t>
-  </si>
-  <si>
-    <t>[0.22853431105613708]</t>
-  </si>
-  <si>
-    <t>[0.033642616122961044]</t>
-  </si>
-  <si>
-    <t>[0.1642591804265976]</t>
-  </si>
-  <si>
-    <t>[0.07919512689113617]</t>
-  </si>
-  <si>
-    <t>[0.001033425098285079]</t>
-  </si>
-  <si>
-    <t>[0.14899948239326477]</t>
-  </si>
-  <si>
-    <t>[-0.062011368572711945]</t>
-  </si>
-  <si>
-    <t>[0.3290179371833801]</t>
-  </si>
-  <si>
-    <t>[-0.3610471487045288]</t>
-  </si>
-  <si>
-    <t>[-0.18652471899986267]</t>
-  </si>
-  <si>
-    <t>[-0.08529942482709885]</t>
-  </si>
-  <si>
-    <t>[-0.14100269973278046]</t>
-  </si>
-  <si>
-    <t>[-0.07298469543457031]</t>
-  </si>
-  <si>
-    <t>[0.025882018730044365]</t>
-  </si>
-  <si>
-    <t>[-0.2785862982273102]</t>
-  </si>
-  <si>
-    <t>[0.35714608430862427]</t>
-  </si>
-  <si>
-    <t>[0.03596747666597366]</t>
-  </si>
-  <si>
-    <t>[-0.05044905096292496]</t>
-  </si>
-  <si>
-    <t>[-0.1952124983072281]</t>
-  </si>
-  <si>
-    <t>[0.25610268115997314]</t>
-  </si>
-  <si>
-    <t>[-0.19515728950500488]</t>
-  </si>
-  <si>
-    <t>[0.16578558087348938]</t>
-  </si>
-  <si>
-    <t>[0.10334211587905884]</t>
-  </si>
-  <si>
-    <t>[0.11161603778600693]</t>
-  </si>
-  <si>
-    <t>[0.17274963855743408]</t>
-  </si>
-  <si>
-    <t>[-0.1094357818365097]</t>
-  </si>
-  <si>
-    <t>[-0.06718692928552628]</t>
-  </si>
-  <si>
-    <t>[-0.0496118888258934]</t>
-  </si>
-  <si>
-    <t>[0.05278358981013298]</t>
-  </si>
-  <si>
-    <t>[0.008059533312916756]</t>
-  </si>
-  <si>
-    <t>[-0.01603519357740879]</t>
-  </si>
-  <si>
-    <t>[-0.01185324601829052]</t>
-  </si>
-  <si>
-    <t>[0.060013629496097565]</t>
-  </si>
-  <si>
-    <t>[-0.021184062585234642]</t>
-  </si>
-  <si>
-    <t>[-0.13335272669792175]</t>
-  </si>
-  <si>
-    <t>[0.3022181987762451]</t>
-  </si>
-  <si>
-    <t>[0.06393099576234818]</t>
-  </si>
-  <si>
-    <t>[-0.001653689774684608]</t>
-  </si>
-  <si>
-    <t>[0.040357738733291626]</t>
-  </si>
-  <si>
-    <t>[0.012435774318873882]</t>
-  </si>
-  <si>
-    <t>[-0.07440789043903351]</t>
-  </si>
-  <si>
-    <t>[-0.2637255787849426]</t>
-  </si>
-  <si>
-    <t>[-0.1305759847164154]</t>
-  </si>
-  <si>
-    <t>[0.3724081814289093]</t>
-  </si>
-  <si>
-    <t>[-0.0728764459490776]</t>
-  </si>
-  <si>
-    <t>[-0.012897415086627007]</t>
-  </si>
-  <si>
-    <t>[0.08311992138624191]</t>
-  </si>
-  <si>
-    <t>[-0.060146309435367584]</t>
-  </si>
-  <si>
-    <t>[-0.19640159606933594]</t>
-  </si>
-  <si>
-    <t>[0.013400083407759666]</t>
-  </si>
-  <si>
-    <t>[-0.01105080358684063]</t>
-  </si>
-  <si>
-    <t>[0.17240384221076965]</t>
-  </si>
-  <si>
-    <t>[-0.06987155228853226]</t>
-  </si>
-  <si>
-    <t>[-0.12509839236736298]</t>
-  </si>
-  <si>
-    <t>[-0.4608822166919708]</t>
-  </si>
-  <si>
-    <t>[-0.01927144080400467]</t>
-  </si>
-  <si>
-    <t>[0.0438292995095253]</t>
-  </si>
-  <si>
-    <t>[-0.02540004439651966]</t>
-  </si>
-  <si>
-    <t>[-0.18966668844223022]</t>
-  </si>
-  <si>
-    <t>[-0.06402949243783951]</t>
-  </si>
-  <si>
-    <t>[-0.26928800344467163]</t>
-  </si>
-  <si>
-    <t>[-0.024136684834957123]</t>
-  </si>
-  <si>
-    <t>[-0.12482935190200806]</t>
-  </si>
-  <si>
-    <t>[-0.21513476967811584]</t>
-  </si>
-  <si>
-    <t>[-0.05225587263703346]</t>
-  </si>
-  <si>
-    <t>[0.11600655317306519]</t>
-  </si>
-  <si>
-    <t>[0.16021424531936646]</t>
-  </si>
-  <si>
-    <t>[0.03852248936891556]</t>
-  </si>
-  <si>
-    <t>[-0.16817720234394073]</t>
-  </si>
-  <si>
-    <t>[-0.011636044830083847]</t>
-  </si>
-  <si>
-    <t>[0.01972736231982708]</t>
-  </si>
-  <si>
-    <t>[0.06982708722352982]</t>
-  </si>
-  <si>
-    <t>[-0.06849663704633713]</t>
-  </si>
-  <si>
-    <t>[-0.23246349394321442]</t>
-  </si>
-  <si>
-    <t>[-0.14547282457351685]</t>
-  </si>
-  <si>
-    <t>[0.011279691010713577]</t>
-  </si>
-  <si>
-    <t>[0.03486446663737297]</t>
-  </si>
-  <si>
-    <t>[0.008172729052603245]</t>
-  </si>
-  <si>
-    <t>[0.026087231934070587]</t>
-  </si>
-  <si>
-    <t>[-0.33453041315078735]</t>
-  </si>
-  <si>
-    <t>[-0.14745955169200897]</t>
-  </si>
-  <si>
-    <t>[0.1584937572479248]</t>
-  </si>
-  <si>
-    <t>[-0.10676723718643188]</t>
-  </si>
-  <si>
-    <t>[0.03755514696240425]</t>
-  </si>
-  <si>
-    <t>[-0.053706709295511246]</t>
-  </si>
-  <si>
-    <t>[-0.2603321075439453]</t>
-  </si>
-  <si>
-    <t>[-0.25715160369873047]</t>
-  </si>
-  <si>
-    <t>[-0.0823802649974823]</t>
-  </si>
-  <si>
-    <t>[0.08067703992128372]</t>
-  </si>
-  <si>
-    <t>[-0.22618526220321655]</t>
-  </si>
-  <si>
-    <t>[-0.04191577807068825]</t>
-  </si>
-  <si>
-    <t>[0.08409414440393448]</t>
-  </si>
-  <si>
-    <t>[-0.17223504185676575]</t>
-  </si>
-  <si>
-    <t>[-0.03479452431201935]</t>
-  </si>
-  <si>
-    <t>[0.08801516145467758]</t>
-  </si>
-  <si>
-    <t>[-0.21351251006126404]</t>
-  </si>
-  <si>
-    <t>[0.19292297959327698]</t>
-  </si>
-  <si>
-    <t>[0.0667886883020401]</t>
-  </si>
-  <si>
-    <t>[0.08986761420965195]</t>
-  </si>
-  <si>
-    <t>[0.13237500190734863]</t>
-  </si>
-  <si>
-    <t>[0.0338660329580307]</t>
+    <t>[-0.031138790771365166]</t>
+  </si>
+  <si>
+    <t>[-0.053663469851017]</t>
+  </si>
+  <si>
+    <t>[0.21353401243686676]</t>
+  </si>
+  <si>
+    <t>[-0.1377200037240982]</t>
+  </si>
+  <si>
+    <t>[0.09316512942314148]</t>
+  </si>
+  <si>
+    <t>[-0.15854471921920776]</t>
+  </si>
+  <si>
+    <t>[0.2031993865966797]</t>
+  </si>
+  <si>
+    <t>[0.15828301012516022]</t>
+  </si>
+  <si>
+    <t>[0.051335372030735016]</t>
+  </si>
+  <si>
+    <t>[0.1509915143251419]</t>
+  </si>
+  <si>
+    <t>[0.09894860535860062]</t>
+  </si>
+  <si>
+    <t>[0.03723529353737831]</t>
+  </si>
+  <si>
+    <t>[0.011230641044676304]</t>
+  </si>
+  <si>
+    <t>[-0.2569374442100525]</t>
+  </si>
+  <si>
+    <t>[0.38071373105049133]</t>
+  </si>
+  <si>
+    <t>[-0.12970009446144104]</t>
+  </si>
+  <si>
+    <t>[0.1980811506509781]</t>
+  </si>
+  <si>
+    <t>[-0.0456387884914875]</t>
+  </si>
+  <si>
+    <t>[-0.09666755795478821]</t>
+  </si>
+  <si>
+    <t>[0.01180593203753233]</t>
+  </si>
+  <si>
+    <t>[-0.06265522539615631]</t>
+  </si>
+  <si>
+    <t>[-0.04572005569934845]</t>
+  </si>
+  <si>
+    <t>[-0.09819785505533218]</t>
+  </si>
+  <si>
+    <t>[0.33757826685905457]</t>
+  </si>
+  <si>
+    <t>[0.25293898582458496]</t>
+  </si>
+  <si>
+    <t>[0.0029336384031921625]</t>
+  </si>
+  <si>
+    <t>[0.16225527226924896]</t>
+  </si>
+  <si>
+    <t>[0.19632229208946228]</t>
+  </si>
+  <si>
+    <t>[0.037846639752388]</t>
+  </si>
+  <si>
+    <t>[-0.12068301439285278]</t>
+  </si>
+  <si>
+    <t>[-0.05666821822524071]</t>
+  </si>
+  <si>
+    <t>[0.10208562761545181]</t>
+  </si>
+  <si>
+    <t>[0.07315830141305923]</t>
+  </si>
+  <si>
+    <t>[0.010852673090994358]</t>
+  </si>
+  <si>
+    <t>[-0.007511550094932318]</t>
+  </si>
+  <si>
+    <t>[-0.09426316618919373]</t>
+  </si>
+  <si>
+    <t>[-0.016753626987338066]</t>
+  </si>
+  <si>
+    <t>[0.291826456785202]</t>
+  </si>
+  <si>
+    <t>[-0.0339527502655983]</t>
+  </si>
+  <si>
+    <t>[-0.21199588477611542]</t>
+  </si>
+  <si>
+    <t>[-0.3021320104598999]</t>
+  </si>
+  <si>
+    <t>[0.09054828435182571]</t>
+  </si>
+  <si>
+    <t>[0.010825037956237793]</t>
+  </si>
+  <si>
+    <t>[0.058302655816078186]</t>
+  </si>
+  <si>
+    <t>[0.09734679758548737]</t>
+  </si>
+  <si>
+    <t>[-0.020869877189397812]</t>
+  </si>
+  <si>
+    <t>[-0.20786318182945251]</t>
+  </si>
+  <si>
+    <t>[-0.31880074739456177]</t>
+  </si>
+  <si>
+    <t>[0.298324853181839]</t>
+  </si>
+  <si>
+    <t>[-0.17441067099571228]</t>
+  </si>
+  <si>
+    <t>[-0.17007488012313843]</t>
+  </si>
+  <si>
+    <t>[-0.08099035918712616]</t>
+  </si>
+  <si>
+    <t>[-0.04412943124771118]</t>
+  </si>
+  <si>
+    <t>[0.02442106232047081]</t>
+  </si>
+  <si>
+    <t>[0.08871841430664062]</t>
+  </si>
+  <si>
+    <t>[0.08763180673122406]</t>
+  </si>
+  <si>
+    <t>[0.09740880876779556]</t>
+  </si>
+  <si>
+    <t>[0.10674886405467987]</t>
+  </si>
+  <si>
+    <t>[0.21072494983673096]</t>
+  </si>
+  <si>
+    <t>[0.0030073393136262894]</t>
+  </si>
+  <si>
+    <t>[-0.10734008997678757]</t>
+  </si>
+  <si>
+    <t>[0.14344002306461334]</t>
+  </si>
+  <si>
+    <t>[0.047608938068151474]</t>
+  </si>
+  <si>
+    <t>[-0.1377314180135727]</t>
+  </si>
+  <si>
+    <t>[0.059599995613098145]</t>
+  </si>
+  <si>
+    <t>[-0.07423487305641174]</t>
+  </si>
+  <si>
+    <t>[-0.09983611106872559]</t>
+  </si>
+  <si>
+    <t>[0.283448189496994]</t>
+  </si>
+  <si>
+    <t>[-0.1851143091917038]</t>
+  </si>
+  <si>
+    <t>[0.08383799344301224]</t>
+  </si>
+  <si>
+    <t>[-0.37410175800323486]</t>
+  </si>
+  <si>
+    <t>[0.19851282238960266]</t>
+  </si>
+  <si>
+    <t>[0.049726083874702454]</t>
+  </si>
+  <si>
+    <t>[-0.13407118618488312]</t>
+  </si>
+  <si>
+    <t>[0.2590954601764679]</t>
+  </si>
+  <si>
+    <t>[-0.057705026119947433]</t>
+  </si>
+  <si>
+    <t>[0.0021548010408878326]</t>
+  </si>
+  <si>
+    <t>[-0.05654475465416908]</t>
+  </si>
+  <si>
+    <t>[0.2594391703605652]</t>
+  </si>
+  <si>
+    <t>[0.028145307675004005]</t>
+  </si>
+  <si>
+    <t>[0.07351972907781601]</t>
+  </si>
+  <si>
+    <t>[0.09933801740407944]</t>
+  </si>
+  <si>
+    <t>[-0.1561317890882492]</t>
+  </si>
+  <si>
+    <t>[-0.09597712755203247]</t>
+  </si>
+  <si>
+    <t>[-0.08350911736488342]</t>
+  </si>
+  <si>
+    <t>[-0.2525273263454437]</t>
+  </si>
+  <si>
+    <t>[0.21531973779201508]</t>
+  </si>
+  <si>
+    <t>[0.1090710237622261]</t>
+  </si>
+  <si>
+    <t>[-0.19101831316947937]</t>
+  </si>
+  <si>
+    <t>[-0.06634114682674408]</t>
+  </si>
+  <si>
+    <t>[-0.17819982767105103]</t>
+  </si>
+  <si>
+    <t>[-0.03370925784111023]</t>
+  </si>
+  <si>
+    <t>[0.2331908643245697]</t>
+  </si>
+  <si>
+    <t>[-0.13238753378391266]</t>
+  </si>
+  <si>
+    <t>[0.001409996417351067]</t>
+  </si>
+  <si>
+    <t>[0.07417082786560059]</t>
+  </si>
+  <si>
+    <t>[0.29028353095054626]</t>
+  </si>
+  <si>
+    <t>[0.012484891340136528]</t>
+  </si>
+  <si>
+    <t>[-0.06075478717684746]</t>
+  </si>
+  <si>
+    <t>[0.11255846172571182]</t>
+  </si>
+  <si>
+    <t>[0.049939852207899094]</t>
+  </si>
+  <si>
+    <t>[-0.14041566848754883]</t>
+  </si>
+  <si>
+    <t>[-0.0033993166871368885]</t>
+  </si>
+  <si>
+    <t>[-0.2588535249233246]</t>
+  </si>
+  <si>
+    <t>[-0.07578686624765396]</t>
+  </si>
+  <si>
+    <t>[-0.0042242552153766155]</t>
+  </si>
+  <si>
+    <t>[-0.023293931037187576]</t>
+  </si>
+  <si>
+    <t>[-0.15696340799331665]</t>
+  </si>
+  <si>
+    <t>[-0.10767876356840134]</t>
+  </si>
+  <si>
+    <t>[-0.01981239765882492]</t>
+  </si>
+  <si>
+    <t>[-0.03487798944115639]</t>
+  </si>
+  <si>
+    <t>[0.1150224581360817]</t>
+  </si>
+  <si>
+    <t>[0.04498585686087608]</t>
+  </si>
+  <si>
+    <t>[-0.2056456357240677]</t>
+  </si>
+  <si>
+    <t>[0.20840662717819214]</t>
+  </si>
+  <si>
+    <t>[-0.05355198308825493]</t>
+  </si>
+  <si>
+    <t>[0.0024151557590812445]</t>
+  </si>
+  <si>
+    <t>[0.1042148619890213]</t>
+  </si>
+  <si>
+    <t>[-0.059167154133319855]</t>
+  </si>
+  <si>
+    <t>[-0.08944802731275558]</t>
+  </si>
+  <si>
+    <t>[0.10151509195566177]</t>
+  </si>
+  <si>
+    <t>[0.29395821690559387]</t>
+  </si>
+  <si>
+    <t>[0.06690438091754913]</t>
+  </si>
+  <si>
+    <t>[-0.04472069814801216]</t>
+  </si>
+  <si>
+    <t>[-0.35079601407051086]</t>
+  </si>
+  <si>
+    <t>[0.027903012931346893]</t>
+  </si>
+  <si>
+    <t>[0.2931729555130005]</t>
+  </si>
+  <si>
+    <t>[0.0038627455942332745]</t>
+  </si>
+  <si>
+    <t>[0.20842251181602478]</t>
+  </si>
+  <si>
+    <t>[0.18165534734725952]</t>
+  </si>
+  <si>
+    <t>[-0.06460212171077728]</t>
+  </si>
+  <si>
+    <t>[0.09755292534828186]</t>
+  </si>
+  <si>
+    <t>[-0.14076915383338928]</t>
+  </si>
+  <si>
+    <t>[0.1469687521457672]</t>
+  </si>
+  <si>
+    <t>[0.08344103395938873]</t>
+  </si>
+  <si>
+    <t>[-0.08019198477268219]</t>
+  </si>
+  <si>
+    <t>[0.2468009889125824]</t>
+  </si>
+  <si>
+    <t>[0.11436185240745544]</t>
+  </si>
+  <si>
+    <t>[0.272629976272583]</t>
+  </si>
+  <si>
+    <t>[0.24543750286102295]</t>
+  </si>
+  <si>
+    <t>[0.1784508228302002]</t>
+  </si>
+  <si>
+    <t>[-0.0018431362695991993]</t>
+  </si>
+  <si>
+    <t>[-0.22941511869430542]</t>
+  </si>
+  <si>
+    <t>[0.11198678612709045]</t>
+  </si>
+  <si>
+    <t>[0.3202740550041199]</t>
+  </si>
+  <si>
+    <t>[0.019748913124203682]</t>
+  </si>
+  <si>
+    <t>[0.25205761194229126]</t>
+  </si>
+  <si>
+    <t>[-0.03363320976495743]</t>
+  </si>
+  <si>
+    <t>[-0.05457811430096626]</t>
+  </si>
+  <si>
+    <t>[0.04047374799847603]</t>
+  </si>
+  <si>
+    <t>[0.07246401906013489]</t>
+  </si>
+  <si>
+    <t>[-0.15939418971538544]</t>
+  </si>
+  <si>
+    <t>[-0.04685654491186142]</t>
+  </si>
+  <si>
+    <t>[-0.2092275768518448]</t>
+  </si>
+  <si>
+    <t>[-0.04180067405104637]</t>
+  </si>
+  <si>
+    <t>[-0.013942313380539417]</t>
+  </si>
+  <si>
+    <t>[0.36460036039352417]</t>
+  </si>
+  <si>
+    <t>[-0.04243353381752968]</t>
+  </si>
+  <si>
+    <t>[0.4480082392692566]</t>
+  </si>
+  <si>
+    <t>[0.13908666372299194]</t>
+  </si>
+  <si>
+    <t>[0.3832956552505493]</t>
+  </si>
+  <si>
+    <t>[0.1276613175868988]</t>
+  </si>
+  <si>
+    <t>[-0.23423965275287628]</t>
+  </si>
+  <si>
+    <t>[0.043451737612485886]</t>
+  </si>
+  <si>
+    <t>[0.14429232478141785]</t>
+  </si>
+  <si>
+    <t>[-0.09686074405908585]</t>
+  </si>
+  <si>
+    <t>[-0.022659970447421074]</t>
+  </si>
+  <si>
+    <t>[-0.049976520240306854]</t>
+  </si>
+  <si>
+    <t>[0.07446473836898804]</t>
+  </si>
+  <si>
+    <t>[0.09772713482379913]</t>
+  </si>
+  <si>
+    <t>[-0.24954257905483246]</t>
+  </si>
+  <si>
+    <t>[-0.05779720097780228]</t>
+  </si>
+  <si>
+    <t>[-0.3376278579235077]</t>
+  </si>
+  <si>
+    <t>[-0.0906544178724289]</t>
+  </si>
+  <si>
+    <t>[-0.18810568749904633]</t>
+  </si>
+  <si>
+    <t>[0.024553554132580757]</t>
+  </si>
+  <si>
+    <t>[0.20488053560256958]</t>
+  </si>
+  <si>
+    <t>[-0.09599704295396805]</t>
+  </si>
+  <si>
+    <t>[-0.25738298892974854]</t>
+  </si>
+  <si>
+    <t>[-0.0031633712351322174]</t>
+  </si>
+  <si>
+    <t>[0.02016785554587841]</t>
+  </si>
+  <si>
+    <t>[0.06383521854877472]</t>
+  </si>
+  <si>
+    <t>[-0.006674362346529961]</t>
+  </si>
+  <si>
+    <t>[0.14356587827205658]</t>
+  </si>
+  <si>
+    <t>[0.16477486491203308]</t>
+  </si>
+  <si>
+    <t>[-0.06476635485887527]</t>
+  </si>
+  <si>
+    <t>[-0.12119020521640778]</t>
+  </si>
+  <si>
+    <t>[0.07217960059642792]</t>
+  </si>
+  <si>
+    <t>[0.02288048528134823]</t>
+  </si>
+  <si>
+    <t>[-0.035627853125333786]</t>
+  </si>
+  <si>
+    <t>[0.3126659691333771]</t>
+  </si>
+  <si>
+    <t>[0.08517084270715714]</t>
+  </si>
+  <si>
+    <t>[-0.15142999589443207]</t>
+  </si>
+  <si>
+    <t>[-0.07631978392601013]</t>
+  </si>
+  <si>
+    <t>[-0.16583913564682007]</t>
+  </si>
+  <si>
+    <t>[0.11663966625928879]</t>
+  </si>
+  <si>
+    <t>[-0.15085160732269287]</t>
+  </si>
+  <si>
+    <t>[0.15550759434700012]</t>
+  </si>
+  <si>
+    <t>[0.31637436151504517]</t>
+  </si>
+  <si>
+    <t>[-0.13224293291568756]</t>
+  </si>
+  <si>
+    <t>[-0.24076013267040253]</t>
+  </si>
+  <si>
+    <t>[-0.055655285716056824]</t>
+  </si>
+  <si>
+    <t>[-0.04470354691147804]</t>
+  </si>
+  <si>
+    <t>[-0.10290379822254181]</t>
+  </si>
+  <si>
+    <t>[0.08668719977140427]</t>
+  </si>
+  <si>
+    <t>[-0.1878814697265625]</t>
+  </si>
+  <si>
+    <t>[-0.10726730525493622]</t>
+  </si>
+  <si>
+    <t>[0.32148829102516174]</t>
+  </si>
+  <si>
+    <t>[-0.12308666855096817]</t>
+  </si>
+  <si>
+    <t>[-0.11965853720903397]</t>
+  </si>
+  <si>
+    <t>[-0.10695823282003403]</t>
+  </si>
+  <si>
+    <t>[-0.02343902178108692]</t>
+  </si>
+  <si>
+    <t>[-0.10178623348474503]</t>
+  </si>
+  <si>
+    <t>[0.0015463392483070493]</t>
+  </si>
+  <si>
+    <t>[-0.31699618697166443]</t>
+  </si>
+  <si>
+    <t>[0.09026602655649185]</t>
+  </si>
+  <si>
+    <t>[0.07405092567205429]</t>
+  </si>
+  <si>
+    <t>[0.07105216383934021]</t>
+  </si>
+  <si>
+    <t>[0.11011765897274017]</t>
+  </si>
+  <si>
+    <t>[-0.051838334649801254]</t>
+  </si>
+  <si>
+    <t>[0.08308084309101105]</t>
+  </si>
+  <si>
+    <t>[0.04051569104194641]</t>
+  </si>
+  <si>
+    <t>[-0.2715500593185425]</t>
+  </si>
+  <si>
+    <t>[-0.04331120848655701]</t>
+  </si>
+  <si>
+    <t>[0.047775156795978546]</t>
+  </si>
+  <si>
+    <t>[-0.12122221291065216]</t>
+  </si>
+  <si>
+    <t>[-0.12196515500545502]</t>
+  </si>
+  <si>
+    <t>[-0.0230869147926569]</t>
+  </si>
+  <si>
+    <t>[0.04038706421852112]</t>
+  </si>
+  <si>
+    <t>[0.02602136880159378]</t>
+  </si>
+  <si>
+    <t>[-0.014293868094682693]</t>
+  </si>
+  <si>
+    <t>[0.08967382460832596]</t>
+  </si>
+  <si>
+    <t>[-0.34838923811912537]</t>
+  </si>
+  <si>
+    <t>[-0.13850277662277222]</t>
+  </si>
+  <si>
+    <t>[-0.09245742857456207]</t>
+  </si>
+  <si>
+    <t>[0.3102627694606781]</t>
+  </si>
+  <si>
+    <t>[-0.19499748945236206]</t>
+  </si>
+  <si>
+    <t>[0.08679603040218353]</t>
+  </si>
+  <si>
+    <t>[-0.012700797989964485]</t>
+  </si>
+  <si>
+    <t>[-0.008516263216733932]</t>
+  </si>
+  <si>
+    <t>[0.02472228743135929]</t>
+  </si>
+  <si>
+    <t>[0.021601630374789238]</t>
+  </si>
+  <si>
+    <t>[0.1471969336271286]</t>
+  </si>
+  <si>
+    <t>[0.011571872048079967]</t>
+  </si>
+  <si>
+    <t>[-0.10896512866020203]</t>
+  </si>
+  <si>
+    <t>[0.10254040360450745]</t>
+  </si>
+  <si>
+    <t>[-0.029062941670417786]</t>
+  </si>
+  <si>
+    <t>[-0.04986752197146416]</t>
+  </si>
+  <si>
+    <t>[0.09950731694698334]</t>
+  </si>
+  <si>
+    <t>[0.07659786939620972]</t>
+  </si>
+  <si>
+    <t>[0.06040291115641594]</t>
+  </si>
+  <si>
+    <t>[0.09858125448226929]</t>
+  </si>
+  <si>
+    <t>[-0.3303978443145752]</t>
+  </si>
+  <si>
+    <t>[0.19767828285694122]</t>
+  </si>
+  <si>
+    <t>[0.13872694969177246]</t>
+  </si>
+  <si>
+    <t>[-0.17874960601329803]</t>
+  </si>
+  <si>
+    <t>[-0.0036841758992522955]</t>
+  </si>
+  <si>
+    <t>[0.016424287110567093]</t>
+  </si>
+  <si>
+    <t>[0.087478868663311]</t>
+  </si>
+  <si>
+    <t>[0.022626755759119987]</t>
+  </si>
+  <si>
+    <t>[0.1990741789340973]</t>
+  </si>
+  <si>
+    <t>[0.03430639207363129]</t>
+  </si>
+  <si>
+    <t>[0.03897231072187424]</t>
+  </si>
+  <si>
+    <t>[0.1340646594762802]</t>
+  </si>
+  <si>
+    <t>[0.10799282044172287]</t>
+  </si>
+  <si>
+    <t>[-0.29818642139434814]</t>
+  </si>
+  <si>
+    <t>[0.2547655999660492]</t>
+  </si>
+  <si>
+    <t>[0.08721979707479477]</t>
+  </si>
+  <si>
+    <t>[0.04808666184544563]</t>
+  </si>
+  <si>
+    <t>[0.18417122960090637]</t>
+  </si>
+  <si>
+    <t>[-0.180035799741745]</t>
+  </si>
+  <si>
+    <t>[-0.027317078784108162]</t>
+  </si>
+  <si>
+    <t>[-0.37149086594581604]</t>
+  </si>
+  <si>
+    <t>[-0.06508460640907288]</t>
+  </si>
+  <si>
+    <t>[0.12015614658594131]</t>
+  </si>
+  <si>
+    <t>[-0.0619317963719368]</t>
+  </si>
+  <si>
+    <t>[-0.09122627228498459]</t>
+  </si>
+  <si>
+    <t>[0.12259118258953094]</t>
+  </si>
+  <si>
+    <t>[0.003493834752589464]</t>
+  </si>
+  <si>
+    <t>[-0.18928401172161102]</t>
+  </si>
+  <si>
+    <t>[0.21751223504543304]</t>
+  </si>
+  <si>
+    <t>[0.09741399437189102]</t>
+  </si>
+  <si>
+    <t>[0.09636911749839783]</t>
+  </si>
+  <si>
+    <t>[0.04303235560655594]</t>
+  </si>
+  <si>
+    <t>[0.08198282122612]</t>
+  </si>
+  <si>
+    <t>[0.03472690284252167]</t>
+  </si>
+  <si>
+    <t>[-0.2603142261505127]</t>
+  </si>
+  <si>
+    <t>[0.1079736277461052]</t>
+  </si>
+  <si>
+    <t>[-0.11751428246498108]</t>
+  </si>
+  <si>
+    <t>[-0.005599429830908775]</t>
+  </si>
+  <si>
+    <t>[-0.39284518361091614]</t>
+  </si>
+  <si>
+    <t>[0.03324900567531586]</t>
+  </si>
+  <si>
+    <t>[0.08888081461191177]</t>
+  </si>
+  <si>
+    <t>[0.10687725991010666]</t>
+  </si>
+  <si>
+    <t>[-0.2841350734233856]</t>
+  </si>
+  <si>
+    <t>[-0.01516731921583414]</t>
+  </si>
+  <si>
+    <t>[-0.04227881506085396]</t>
+  </si>
+  <si>
+    <t>[-0.160911425948143]</t>
+  </si>
+  <si>
+    <t>[0.17122624814510345]</t>
+  </si>
+  <si>
+    <t>[0.14138288795948029]</t>
+  </si>
+  <si>
+    <t>[0.17270426452159882]</t>
+  </si>
+  <si>
+    <t>[0.053519245237112045]</t>
+  </si>
+  <si>
+    <t>[0.11519915610551834]</t>
+  </si>
+  <si>
+    <t>[-0.2540278732776642]</t>
+  </si>
+  <si>
+    <t>[0.016876008361577988]</t>
+  </si>
+  <si>
+    <t>[-0.17782233655452728]</t>
+  </si>
+  <si>
+    <t>[-0.04479902237653732]</t>
+  </si>
+  <si>
+    <t>[0.18093474209308624]</t>
+  </si>
+  <si>
+    <t>[-0.05236992612481117]</t>
+  </si>
+  <si>
+    <t>[-0.07993204146623611]</t>
+  </si>
+  <si>
+    <t>[0.08875365555286407]</t>
+  </si>
+  <si>
+    <t>[-0.022686589509248734]</t>
+  </si>
+  <si>
+    <t>[-0.19119831919670105]</t>
+  </si>
+  <si>
+    <t>[0.030483976006507874]</t>
+  </si>
+  <si>
+    <t>[-0.1180928647518158]</t>
+  </si>
+  <si>
+    <t>[-0.07271116971969604]</t>
+  </si>
+  <si>
+    <t>[0.3149675726890564]</t>
+  </si>
+  <si>
+    <t>[-0.26181694865226746]</t>
+  </si>
+  <si>
+    <t>[-0.0988469049334526]</t>
+  </si>
+  <si>
+    <t>[-0.03143933787941933]</t>
+  </si>
+  <si>
+    <t>[-0.23442207276821136]</t>
+  </si>
+  <si>
+    <t>[0.2427268773317337]</t>
+  </si>
+  <si>
+    <t>[-0.11889378726482391]</t>
+  </si>
+  <si>
+    <t>[-0.013137624599039555]</t>
+  </si>
+  <si>
+    <t>[-0.15124556422233582]</t>
+  </si>
+  <si>
+    <t>[0.24652329087257385]</t>
+  </si>
+  <si>
+    <t>[-0.06441812962293625]</t>
+  </si>
+  <si>
+    <t>[-0.08887109905481339]</t>
+  </si>
+  <si>
+    <t>[-0.23423807322978973]</t>
+  </si>
+  <si>
+    <t>[-0.24750348925590515]</t>
+  </si>
+  <si>
+    <t>[0.2801305651664734]</t>
+  </si>
+  <si>
+    <t>[0.034475553780794144]</t>
+  </si>
+  <si>
+    <t>[0.1396830677986145]</t>
+  </si>
+  <si>
+    <t>[0.2761501371860504]</t>
+  </si>
+  <si>
+    <t>[-0.17389751970767975]</t>
+  </si>
+  <si>
+    <t>[-0.14946141839027405]</t>
+  </si>
+  <si>
+    <t>[0.13861717283725739]</t>
+  </si>
+  <si>
+    <t>[0.04051519185304642]</t>
+  </si>
+  <si>
+    <t>[0.04512278363108635]</t>
+  </si>
+  <si>
+    <t>[0.06058569625020027]</t>
+  </si>
+  <si>
+    <t>[-0.21042901277542114]</t>
+  </si>
+  <si>
+    <t>[0.13903816044330597]</t>
+  </si>
+  <si>
+    <t>[-0.12496300786733627]</t>
+  </si>
+  <si>
+    <t>[-0.04538997262716293]</t>
+  </si>
+  <si>
+    <t>[-0.1339757740497589]</t>
+  </si>
+  <si>
+    <t>[-0.22939631342887878]</t>
+  </si>
+  <si>
+    <t>[-0.1877726912498474]</t>
+  </si>
+  <si>
+    <t>[-0.04223458468914032]</t>
+  </si>
+  <si>
+    <t>[-0.002665123902261257]</t>
+  </si>
+  <si>
+    <t>[-0.07097873091697693]</t>
+  </si>
+  <si>
+    <t>[0.03769063949584961]</t>
+  </si>
+  <si>
+    <t>[-0.01854194886982441]</t>
+  </si>
+  <si>
+    <t>[0.2329702079296112]</t>
+  </si>
+  <si>
+    <t>[0.2569506764411926]</t>
+  </si>
+  <si>
+    <t>[0.27685636281967163]</t>
+  </si>
+  <si>
+    <t>[-0.08786631375551224]</t>
+  </si>
+  <si>
+    <t>[0.1567852646112442]</t>
+  </si>
+  <si>
+    <t>[-0.1979946345090866]</t>
+  </si>
+  <si>
+    <t>[-0.0030572977848351]</t>
+  </si>
+  <si>
+    <t>[0.0224892757833004]</t>
+  </si>
+  <si>
+    <t>[-0.18833114206790924]</t>
+  </si>
+  <si>
+    <t>[0.007363846991211176]</t>
+  </si>
+  <si>
+    <t>[0.12401340156793594]</t>
+  </si>
+  <si>
+    <t>[-0.3014141023159027]</t>
+  </si>
+  <si>
+    <t>[-0.07508073002099991]</t>
+  </si>
+  <si>
+    <t>[-0.037102002650499344]</t>
+  </si>
+  <si>
+    <t>[0.21047602593898773]</t>
+  </si>
+  <si>
+    <t>[0.060442160815000534]</t>
+  </si>
+  <si>
+    <t>[-0.04512285441160202]</t>
+  </si>
+  <si>
+    <t>[0.09109915047883987]</t>
+  </si>
+  <si>
+    <t>[0.04664355888962746]</t>
+  </si>
+  <si>
+    <t>[-0.11632086336612701]</t>
+  </si>
+  <si>
+    <t>[0.23510697484016418]</t>
+  </si>
+  <si>
+    <t>[-0.06679467111825943]</t>
+  </si>
+  <si>
+    <t>[-0.40079349279403687]</t>
+  </si>
+  <si>
+    <t>[0.1716354638338089]</t>
+  </si>
+  <si>
+    <t>[0.08781510591506958]</t>
+  </si>
+  <si>
+    <t>[0.02962416782975197]</t>
+  </si>
+  <si>
+    <t>[-0.05223025009036064]</t>
+  </si>
+  <si>
+    <t>[-0.056726351380348206]</t>
+  </si>
+  <si>
+    <t>[-0.36338141560554504]</t>
+  </si>
+  <si>
+    <t>[0.22644482553005219]</t>
+  </si>
+  <si>
+    <t>[-0.09968683868646622]</t>
+  </si>
+  <si>
+    <t>[-0.1168619841337204]</t>
+  </si>
+  <si>
+    <t>[-0.37133553624153137]</t>
+  </si>
+  <si>
+    <t>[0.1191282793879509]</t>
+  </si>
+  <si>
+    <t>[-0.0031006350181996822]</t>
+  </si>
+  <si>
+    <t>[-0.11384684592485428]</t>
+  </si>
+  <si>
+    <t>[0.2029534876346588]</t>
+  </si>
+  <si>
+    <t>[-0.01801193132996559]</t>
+  </si>
+  <si>
+    <t>[-0.23218244314193726]</t>
+  </si>
+  <si>
+    <t>[0.05075884237885475]</t>
+  </si>
+  <si>
+    <t>[0.14607420563697815]</t>
+  </si>
+  <si>
+    <t>[0.08114657551050186]</t>
+  </si>
+  <si>
+    <t>[-0.14507107436656952]</t>
+  </si>
+  <si>
+    <t>[0.10458961874246597]</t>
+  </si>
+  <si>
+    <t>[-0.031174683943390846]</t>
+  </si>
+  <si>
+    <t>[-0.09866984933614731]</t>
+  </si>
+  <si>
+    <t>[0.02508596144616604]</t>
+  </si>
+  <si>
+    <t>[-0.012198477983474731]</t>
+  </si>
+  <si>
+    <t>[-0.008111631497740746]</t>
+  </si>
+  <si>
+    <t>[-0.058963026851415634]</t>
+  </si>
+  <si>
+    <t>[-0.33741459250450134]</t>
+  </si>
+  <si>
+    <t>[0.2803743779659271]</t>
+  </si>
+  <si>
+    <t>[-0.14176255464553833]</t>
+  </si>
+  <si>
+    <t>[0.10609707981348038]</t>
+  </si>
+  <si>
+    <t>[-0.23067472875118256]</t>
+  </si>
+  <si>
+    <t>[0.25649306178092957]</t>
+  </si>
+  <si>
+    <t>[-0.04844467714428902]</t>
+  </si>
+  <si>
+    <t>[0.17922377586364746]</t>
+  </si>
+  <si>
+    <t>[-0.009193523786962032]</t>
+  </si>
+  <si>
+    <t>[-0.020776323974132538]</t>
+  </si>
+  <si>
+    <t>[0.18297179043293]</t>
+  </si>
+  <si>
+    <t>[-0.24195478856563568]</t>
+  </si>
+  <si>
+    <t>[0.40239834785461426]</t>
+  </si>
+  <si>
+    <t>[-0.13008658587932587]</t>
+  </si>
+  <si>
+    <t>[-0.1759386658668518]</t>
+  </si>
+  <si>
+    <t>[0.011029429733753204]</t>
+  </si>
+  <si>
+    <t>[0.02840404212474823]</t>
+  </si>
+  <si>
+    <t>[-0.3414919972419739]</t>
+  </si>
+  <si>
+    <t>[-0.13154640793800354]</t>
+  </si>
+  <si>
+    <t>[0.33063870668411255]</t>
+  </si>
+  <si>
+    <t>[-0.2419913113117218]</t>
+  </si>
+  <si>
+    <t>[0.007480462081730366]</t>
+  </si>
+  <si>
+    <t>[-0.09561213850975037]</t>
+  </si>
+  <si>
+    <t>[0.2069840431213379]</t>
+  </si>
+  <si>
+    <t>[0.03916631266474724]</t>
+  </si>
+  <si>
+    <t>[-0.1538102626800537]</t>
+  </si>
+  <si>
+    <t>[-0.07824312895536423]</t>
+  </si>
+  <si>
+    <t>[0.05300668627023697]</t>
+  </si>
+  <si>
+    <t>[-0.1742895543575287]</t>
+  </si>
+  <si>
+    <t>[-0.09590445458889008]</t>
+  </si>
+  <si>
+    <t>[0.02089723013341427]</t>
+  </si>
+  <si>
+    <t>[0.06712748110294342]</t>
+  </si>
+  <si>
+    <t>[0.17844578623771667]</t>
+  </si>
+  <si>
+    <t>[0.07169463485479355]</t>
+  </si>
+  <si>
+    <t>[0.14894570410251617]</t>
+  </si>
+  <si>
+    <t>[0.060677021741867065]</t>
+  </si>
+  <si>
+    <t>[-0.050602592527866364]</t>
+  </si>
+  <si>
+    <t>[-0.2012149691581726]</t>
+  </si>
+  <si>
+    <t>[-0.09868855774402618]</t>
+  </si>
+  <si>
+    <t>[-0.007159044500440359]</t>
+  </si>
+  <si>
+    <t>[0.22662125527858734]</t>
+  </si>
+  <si>
+    <t>[0.014612802304327488]</t>
+  </si>
+  <si>
+    <t>[0.054286353290081024]</t>
+  </si>
+  <si>
+    <t>[0.13384360074996948]</t>
+  </si>
+  <si>
+    <t>[-0.09949810057878494]</t>
+  </si>
+  <si>
+    <t>[0.09537190943956375]</t>
+  </si>
+  <si>
+    <t>[0.20481804013252258]</t>
+  </si>
+  <si>
+    <t>[0.08491598814725876]</t>
+  </si>
+  <si>
+    <t>[-0.29009291529655457]</t>
+  </si>
+  <si>
+    <t>[0.022036654874682426]</t>
+  </si>
+  <si>
+    <t>[0.03907937556505203]</t>
+  </si>
+  <si>
+    <t>[0.09798400849103928]</t>
+  </si>
+  <si>
+    <t>[0.110135518014431]</t>
+  </si>
+  <si>
+    <t>[0.01055504847317934]</t>
+  </si>
+  <si>
+    <t>[-0.35993626713752747]</t>
+  </si>
+  <si>
+    <t>[-0.1492931991815567]</t>
+  </si>
+  <si>
+    <t>[-0.152603417634964]</t>
+  </si>
+  <si>
+    <t>[-0.10254532843828201]</t>
+  </si>
+  <si>
+    <t>[-0.041352905333042145]</t>
+  </si>
+  <si>
+    <t>[0.058034759014844894]</t>
+  </si>
+  <si>
+    <t>[-0.19849713146686554]</t>
+  </si>
+  <si>
+    <t>[-0.21242322027683258]</t>
+  </si>
+  <si>
+    <t>[0.19273044168949127]</t>
+  </si>
+  <si>
+    <t>[-0.1882334202528]</t>
+  </si>
+  <si>
+    <t>[-0.020167553797364235]</t>
+  </si>
+  <si>
+    <t>[0.06954820454120636]</t>
+  </si>
+  <si>
+    <t>[0.05278750881552696]</t>
+  </si>
+  <si>
+    <t>[-0.14259548485279083]</t>
+  </si>
+  <si>
+    <t>[0.148828387260437]</t>
+  </si>
+  <si>
+    <t>[-0.11852726340293884]</t>
+  </si>
+  <si>
+    <t>[-0.06675466895103455]</t>
+  </si>
+  <si>
+    <t>[0.06929218024015427]</t>
+  </si>
+  <si>
+    <t>[-0.28078848123550415]</t>
+  </si>
+  <si>
+    <t>[-0.11870517581701279]</t>
+  </si>
+  <si>
+    <t>[-0.2394690364599228]</t>
+  </si>
+  <si>
+    <t>[0.15339478850364685]</t>
+  </si>
+  <si>
+    <t>[0.053830746561288834]</t>
+  </si>
+  <si>
+    <t>[0.22228768467903137]</t>
+  </si>
+  <si>
+    <t>[-0.2276858240365982]</t>
+  </si>
+  <si>
+    <t>[-0.05716242641210556]</t>
+  </si>
+  <si>
+    <t>[0.11319202184677124]</t>
+  </si>
+  <si>
+    <t>[-0.04668954014778137]</t>
+  </si>
+  <si>
+    <t>[-0.11999300867319107]</t>
+  </si>
+  <si>
+    <t>[-0.11287987977266312]</t>
+  </si>
+  <si>
+    <t>[-0.17411136627197266]</t>
+  </si>
+  <si>
+    <t>[0.04543229565024376]</t>
+  </si>
+  <si>
+    <t>[0.013782158493995667]</t>
+  </si>
+  <si>
+    <t>[0.062566377222538]</t>
+  </si>
+  <si>
+    <t>[-0.36392471194267273]</t>
+  </si>
+  <si>
+    <t>[0.14237968623638153]</t>
+  </si>
+  <si>
+    <t>[0.002179257571697235]</t>
+  </si>
+  <si>
+    <t>[-0.17664150893688202]</t>
+  </si>
+  <si>
+    <t>[-0.11663497239351273]</t>
+  </si>
+  <si>
+    <t>[-0.0632619708776474]</t>
+  </si>
+  <si>
+    <t>[-0.29356881976127625]</t>
+  </si>
+  <si>
+    <t>[-0.145326629281044]</t>
+  </si>
+  <si>
+    <t>[0.11966139078140259]</t>
+  </si>
+  <si>
+    <t>[-0.2907228469848633]</t>
+  </si>
+  <si>
+    <t>[0.21655836701393127]</t>
+  </si>
+  <si>
+    <t>[-0.033899590373039246]</t>
+  </si>
+  <si>
+    <t>[-0.0908006951212883]</t>
+  </si>
+  <si>
+    <t>[-0.12779304385185242]</t>
+  </si>
+  <si>
+    <t>[-0.04260140657424927]</t>
+  </si>
+  <si>
+    <t>[0.033576201647520065]</t>
+  </si>
+  <si>
+    <t>[-0.1343313604593277]</t>
+  </si>
+  <si>
+    <t>[0.012744964100420475]</t>
+  </si>
+  <si>
+    <t>[-0.3182227909564972]</t>
+  </si>
+  <si>
+    <t>[-0.1623537391424179]</t>
+  </si>
+  <si>
+    <t>[-0.005312979221343994]</t>
+  </si>
+  <si>
+    <t>[0.08863147348165512]</t>
+  </si>
+  <si>
+    <t>[-0.2185606062412262]</t>
+  </si>
+  <si>
+    <t>[-0.07212318480014801]</t>
+  </si>
+  <si>
+    <t>[-0.1974565088748932]</t>
+  </si>
+  <si>
+    <t>[-0.0866427794098854]</t>
+  </si>
+  <si>
+    <t>[-0.0704016387462616]</t>
+  </si>
+  <si>
+    <t>[0.023545045405626297]</t>
+  </si>
+  <si>
+    <t>[-0.08371447026729584]</t>
+  </si>
+  <si>
+    <t>[0.07965263724327087]</t>
+  </si>
+  <si>
+    <t>[0.01176223624497652]</t>
+  </si>
+  <si>
+    <t>[0.0791291669011116]</t>
+  </si>
+  <si>
+    <t>[0.05377582833170891]</t>
+  </si>
+  <si>
+    <t>[-0.05477752909064293]</t>
+  </si>
+  <si>
+    <t>[-0.20662930607795715]</t>
+  </si>
+  <si>
+    <t>[0.10335587710142136]</t>
+  </si>
+  <si>
+    <t>[0.21446020901203156]</t>
+  </si>
+  <si>
+    <t>[-0.16386684775352478]</t>
+  </si>
+  <si>
+    <t>[0.11861860007047653]</t>
+  </si>
+  <si>
+    <t>[-0.30402877926826477]</t>
+  </si>
+  <si>
+    <t>[-0.08609361201524734]</t>
+  </si>
+  <si>
+    <t>[-0.13180212676525116]</t>
+  </si>
+  <si>
+    <t>[0.080414779484272]</t>
+  </si>
+  <si>
+    <t>[0.011302470229566097]</t>
+  </si>
+  <si>
+    <t>[-0.012228410691022873]</t>
+  </si>
+  <si>
+    <t>[-0.05195171386003494]</t>
+  </si>
+  <si>
+    <t>[-0.044152382761240005]</t>
+  </si>
+  <si>
+    <t>[0.2974148392677307]</t>
+  </si>
+  <si>
+    <t>[-0.271363228559494]</t>
+  </si>
+  <si>
+    <t>[-0.03793517127633095]</t>
+  </si>
+  <si>
+    <t>[0.20249436795711517]</t>
+  </si>
+  <si>
+    <t>[-0.14658328890800476]</t>
+  </si>
+  <si>
+    <t>[-0.2794846296310425]</t>
+  </si>
+  <si>
+    <t>[-0.16557016968727112]</t>
+  </si>
+  <si>
+    <t>[0.16255083680152893]</t>
+  </si>
+  <si>
+    <t>[0.0861782655119896]</t>
+  </si>
+  <si>
+    <t>[-0.1153520792722702]</t>
+  </si>
+  <si>
+    <t>[0.0004204564029350877]</t>
+  </si>
+  <si>
+    <t>[-0.024770217016339302]</t>
+  </si>
+  <si>
+    <t>[-0.0662643164396286]</t>
+  </si>
+  <si>
+    <t>[-0.2942192256450653]</t>
+  </si>
+  <si>
+    <t>[0.2312334030866623]</t>
+  </si>
+  <si>
+    <t>[-0.2853746712207794]</t>
+  </si>
+  <si>
+    <t>[-0.1999245584011078]</t>
+  </si>
+  <si>
+    <t>[-0.010062088258564472]</t>
+  </si>
+  <si>
+    <t>[-0.10332411527633667]</t>
+  </si>
+  <si>
+    <t>[-0.030524156987667084]</t>
+  </si>
+  <si>
+    <t>[-0.09563733637332916]</t>
+  </si>
+  <si>
+    <t>[0.09168320149183273]</t>
+  </si>
+  <si>
+    <t>[0.08657646179199219]</t>
+  </si>
+  <si>
+    <t>[-0.024867134168744087]</t>
+  </si>
+  <si>
+    <t>[0.37041643261909485]</t>
+  </si>
+  <si>
+    <t>[0.13640643656253815]</t>
+  </si>
+  <si>
+    <t>[0.16714222729206085]</t>
+  </si>
+  <si>
+    <t>[0.15311205387115479]</t>
+  </si>
+  <si>
+    <t>[-0.08247865736484528]</t>
+  </si>
+  <si>
+    <t>[0.04811285808682442]</t>
+  </si>
+  <si>
+    <t>[0.1448981910943985]</t>
+  </si>
+  <si>
+    <t>[0.19978827238082886]</t>
+  </si>
+  <si>
+    <t>[0.18990692496299744]</t>
+  </si>
+  <si>
+    <t>[0.09247837960720062]</t>
+  </si>
+  <si>
+    <t>[-0.04223453998565674]</t>
+  </si>
+  <si>
+    <t>[-0.046521902084350586]</t>
+  </si>
+  <si>
+    <t>[-0.28294122219085693]</t>
+  </si>
+  <si>
+    <t>[0.0184255912899971]</t>
+  </si>
+  <si>
+    <t>[-0.13656793534755707]</t>
+  </si>
+  <si>
+    <t>[-0.10247944295406342]</t>
+  </si>
+  <si>
+    <t>[-0.18854071199893951]</t>
+  </si>
+  <si>
+    <t>[-0.04666794836521149]</t>
+  </si>
+  <si>
+    <t>[-0.22135807573795319]</t>
+  </si>
+  <si>
+    <t>[-0.02769099362194538]</t>
+  </si>
+  <si>
+    <t>[0.3345063626766205]</t>
+  </si>
+  <si>
+    <t>[-0.24332678318023682]</t>
+  </si>
+  <si>
+    <t>[0.0866292417049408]</t>
+  </si>
+  <si>
+    <t>[0.40026435256004333]</t>
+  </si>
+  <si>
+    <t>[-0.11534443497657776]</t>
+  </si>
+  <si>
+    <t>[0.26492947340011597]</t>
+  </si>
+  <si>
+    <t>[-0.024611560627818108]</t>
+  </si>
+  <si>
+    <t>[0.07186092436313629]</t>
+  </si>
+  <si>
+    <t>[-0.06808051466941833]</t>
+  </si>
+  <si>
+    <t>[-0.09034246951341629]</t>
+  </si>
+  <si>
+    <t>[0.0655360072851181]</t>
+  </si>
+  <si>
+    <t>[0.13317127525806427]</t>
+  </si>
+  <si>
+    <t>[-0.13603654503822327]</t>
+  </si>
+  <si>
+    <t>[0.13052622973918915]</t>
+  </si>
+  <si>
+    <t>[0.054425012320280075]</t>
+  </si>
+  <si>
+    <t>[-0.30475834012031555]</t>
+  </si>
+  <si>
+    <t>[0.11707819253206253]</t>
+  </si>
+  <si>
+    <t>[0.05332345888018608]</t>
+  </si>
+  <si>
+    <t>[-0.17692698538303375]</t>
+  </si>
+  <si>
+    <t>[-0.06452533602714539]</t>
+  </si>
+  <si>
+    <t>[-0.20309455692768097]</t>
+  </si>
+  <si>
+    <t>[-0.024060169234871864]</t>
+  </si>
+  <si>
+    <t>[0.1080993264913559]</t>
+  </si>
+  <si>
+    <t>[-0.0776287168264389]</t>
+  </si>
+  <si>
+    <t>[-0.11798275262117386]</t>
+  </si>
+  <si>
+    <t>[-0.04600495100021362]</t>
+  </si>
+  <si>
+    <t>[0.0763682872056961]</t>
+  </si>
+  <si>
+    <t>[0.109113410115242]</t>
+  </si>
+  <si>
+    <t>[0.2591750919818878]</t>
+  </si>
+  <si>
+    <t>[-0.14089766144752502]</t>
+  </si>
+  <si>
+    <t>[0.3051358163356781]</t>
+  </si>
+  <si>
+    <t>[0.08269369602203369]</t>
+  </si>
+  <si>
+    <t>[-0.1364341527223587]</t>
+  </si>
+  <si>
+    <t>[-0.13514059782028198]</t>
+  </si>
+  <si>
+    <t>[-0.0829237699508667]</t>
+  </si>
+  <si>
+    <t>[-0.08449412882328033]</t>
+  </si>
+  <si>
+    <t>[-0.12346634268760681]</t>
+  </si>
+  <si>
+    <t>[0.012159831821918488]</t>
+  </si>
+  <si>
+    <t>[0.2594033181667328]</t>
+  </si>
+  <si>
+    <t>[0.1686202585697174]</t>
+  </si>
+  <si>
+    <t>[-0.0160256028175354]</t>
+  </si>
+  <si>
+    <t>[0.052763208746910095]</t>
+  </si>
+  <si>
+    <t>[0.02850150503218174]</t>
+  </si>
+  <si>
+    <t>[0.11259676516056061]</t>
+  </si>
+  <si>
+    <t>[-0.010501578450202942]</t>
+  </si>
+  <si>
+    <t>[0.2703455984592438]</t>
+  </si>
+  <si>
+    <t>[-0.1301841139793396]</t>
+  </si>
+  <si>
+    <t>[0.012835102155804634]</t>
+  </si>
+  <si>
+    <t>[0.19299474358558655]</t>
+  </si>
+  <si>
+    <t>[0.21206586062908173]</t>
+  </si>
+  <si>
+    <t>[-0.1384706199169159]</t>
+  </si>
+  <si>
+    <t>[-0.07884249091148376]</t>
+  </si>
+  <si>
+    <t>[-0.18437252938747406]</t>
+  </si>
+  <si>
+    <t>[0.023660369217395782]</t>
+  </si>
+  <si>
+    <t>[0.31129494309425354]</t>
+  </si>
+  <si>
+    <t>[-0.06119972839951515]</t>
+  </si>
+  <si>
+    <t>[-0.11612275242805481]</t>
+  </si>
+  <si>
+    <t>[-0.14848877489566803]</t>
+  </si>
+  <si>
+    <t>[0.21714022755622864]</t>
+  </si>
+  <si>
+    <t>[0.06715542078018188]</t>
+  </si>
+  <si>
+    <t>[-0.17615970969200134]</t>
+  </si>
+  <si>
+    <t>[0.40227067470550537]</t>
+  </si>
+  <si>
+    <t>[0.09078589826822281]</t>
+  </si>
+  <si>
+    <t>[0.05394839867949486]</t>
+  </si>
+  <si>
+    <t>[-0.14182938635349274]</t>
+  </si>
+  <si>
+    <t>[-0.03474226966500282]</t>
+  </si>
+  <si>
+    <t>[-0.12827256321907043]</t>
+  </si>
+  <si>
+    <t>[0.17387527227401733]</t>
+  </si>
+  <si>
+    <t>[-0.08235948532819748]</t>
+  </si>
+  <si>
+    <t>[-0.2517516016960144]</t>
+  </si>
+  <si>
+    <t>[-0.05458329990506172]</t>
+  </si>
+  <si>
+    <t>[-0.33206161856651306]</t>
+  </si>
+  <si>
+    <t>[-0.1869266778230667]</t>
+  </si>
+  <si>
+    <t>[0.1209319457411766]</t>
+  </si>
+  <si>
+    <t>[-0.254864901304245]</t>
+  </si>
+  <si>
+    <t>[-0.06973487883806229]</t>
+  </si>
+  <si>
+    <t>[-0.1520368754863739]</t>
+  </si>
+  <si>
+    <t>[-0.01712462492287159]</t>
+  </si>
+  <si>
+    <t>[-0.09907673299312592]</t>
+  </si>
+  <si>
+    <t>[0.19207514822483063]</t>
+  </si>
+  <si>
+    <t>[-0.10248374193906784]</t>
+  </si>
+  <si>
+    <t>[-0.08860033005475998]</t>
+  </si>
+  <si>
+    <t>[-0.15636983513832092]</t>
+  </si>
+  <si>
+    <t>[0.03293747082352638]</t>
+  </si>
+  <si>
+    <t>[0.12835173308849335]</t>
+  </si>
+  <si>
+    <t>[-0.18785664439201355]</t>
+  </si>
+  <si>
+    <t>[0.11046161502599716]</t>
+  </si>
+  <si>
+    <t>[-0.10174322873353958]</t>
+  </si>
+  <si>
+    <t>[-0.12309000641107559]</t>
+  </si>
+  <si>
+    <t>[-0.2665250301361084]</t>
+  </si>
+  <si>
+    <t>[0.06357397139072418]</t>
+  </si>
+  <si>
+    <t>[-0.17362433671951294]</t>
+  </si>
+  <si>
+    <t>[-0.264018177986145]</t>
+  </si>
+  <si>
+    <t>[0.09024329483509064]</t>
+  </si>
+  <si>
+    <t>[0.1369173675775528]</t>
+  </si>
+  <si>
+    <t>[0.08205445110797882]</t>
+  </si>
+  <si>
+    <t>[-0.18964125216007233]</t>
+  </si>
+  <si>
+    <t>[0.09299520403146744]</t>
+  </si>
+  <si>
+    <t>[-0.09862803667783737]</t>
+  </si>
+  <si>
+    <t>[0.23076948523521423]</t>
+  </si>
+  <si>
+    <t>[-0.03781293332576752]</t>
+  </si>
+  <si>
+    <t>[0.10509393364191055]</t>
+  </si>
+  <si>
+    <t>[-0.24371233582496643]</t>
+  </si>
+  <si>
+    <t>[0.11560919135808945]</t>
+  </si>
+  <si>
+    <t>[0.08219166100025177]</t>
+  </si>
+  <si>
+    <t>[0.08524765819311142]</t>
+  </si>
+  <si>
+    <t>[0.14696183800697327]</t>
+  </si>
+  <si>
+    <t>[-0.027369987219572067]</t>
+  </si>
+  <si>
+    <t>[-0.13061092793941498]</t>
+  </si>
+  <si>
+    <t>[-0.10680434107780457]</t>
+  </si>
+  <si>
+    <t>[0.17184258997440338]</t>
+  </si>
+  <si>
+    <t>[0.019936079159379005]</t>
+  </si>
+  <si>
+    <t>[-0.021248709410429]</t>
+  </si>
+  <si>
+    <t>[-0.3084038496017456]</t>
+  </si>
+  <si>
+    <t>[0.07058049738407135]</t>
+  </si>
+  <si>
+    <t>[0.4163106679916382]</t>
+  </si>
+  <si>
+    <t>[-0.06833826750516891]</t>
+  </si>
+  <si>
+    <t>[0.24614457786083221]</t>
+  </si>
+  <si>
+    <t>[-0.048170629888772964]</t>
+  </si>
+  <si>
+    <t>[0.1549510806798935]</t>
+  </si>
+  <si>
+    <t>[-0.00564842764288187]</t>
+  </si>
+  <si>
+    <t>[0.014341806061565876]</t>
+  </si>
+  <si>
+    <t>[0.03993592411279678]</t>
+  </si>
+  <si>
+    <t>[-0.11118809878826141]</t>
+  </si>
+  <si>
+    <t>[-0.2198709100484848]</t>
+  </si>
+  <si>
+    <t>[0.25596508383750916]</t>
+  </si>
+  <si>
+    <t>[0.0338013581931591]</t>
+  </si>
+  <si>
+    <t>[0.08848992735147476]</t>
+  </si>
+  <si>
+    <t>[0.08769749104976654]</t>
+  </si>
+  <si>
+    <t>[-0.11481815576553345]</t>
+  </si>
+  <si>
+    <t>[-0.09520404785871506]</t>
+  </si>
+  <si>
+    <t>[0.15984292328357697]</t>
+  </si>
+  <si>
+    <t>[-0.03165670111775398]</t>
+  </si>
+  <si>
+    <t>[0.09054488688707352]</t>
+  </si>
+  <si>
+    <t>[0.23964855074882507]</t>
+  </si>
+  <si>
+    <t>[0.16412495076656342]</t>
+  </si>
+  <si>
+    <t>[0.0054552312940359116]</t>
+  </si>
+  <si>
+    <t>[-0.07196931540966034]</t>
+  </si>
+  <si>
+    <t>[0.008497430942952633]</t>
+  </si>
+  <si>
+    <t>[0.29786670207977295]</t>
+  </si>
+  <si>
+    <t>[0.12227430194616318]</t>
+  </si>
+  <si>
+    <t>[0.1489761620759964]</t>
+  </si>
+  <si>
+    <t>[0.02647116221487522]</t>
+  </si>
+  <si>
+    <t>[0.12215391546487808]</t>
+  </si>
+  <si>
+    <t>[-0.09307330846786499]</t>
+  </si>
+  <si>
+    <t>[0.18036161363124847]</t>
+  </si>
+  <si>
+    <t>[-0.11705803126096725]</t>
+  </si>
+  <si>
+    <t>[0.15436787903308868]</t>
+  </si>
+  <si>
+    <t>[-0.05723598599433899]</t>
+  </si>
+  <si>
+    <t>[-0.060882821679115295]</t>
+  </si>
+  <si>
+    <t>[0.06591424345970154]</t>
+  </si>
+  <si>
+    <t>[-0.18730513751506805]</t>
+  </si>
+  <si>
+    <t>[0.21521644294261932]</t>
+  </si>
+  <si>
+    <t>[0.10660967975854874]</t>
+  </si>
+  <si>
+    <t>[-0.19458259642124176]</t>
+  </si>
+  <si>
+    <t>[-0.1319475769996643]</t>
+  </si>
+  <si>
+    <t>[-0.02029801905155182]</t>
+  </si>
+  <si>
+    <t>[-0.4028715193271637]</t>
+  </si>
+  <si>
+    <t>[-0.0625128448009491]</t>
+  </si>
+  <si>
+    <t>[-0.07065224647521973]</t>
+  </si>
+  <si>
+    <t>[-0.1647549718618393]</t>
+  </si>
+  <si>
+    <t>[-0.03871653974056244]</t>
+  </si>
+  <si>
+    <t>[-0.04144347459077835]</t>
+  </si>
+  <si>
+    <t>[-0.021885739639401436]</t>
+  </si>
+  <si>
+    <t>[0.05130676180124283]</t>
+  </si>
+  <si>
+    <t>[0.08395856618881226]</t>
+  </si>
+  <si>
+    <t>[0.04666873440146446]</t>
+  </si>
+  <si>
+    <t>[0.31495776772499084]</t>
+  </si>
+  <si>
+    <t>[0.1339317113161087]</t>
+  </si>
+  <si>
+    <t>[0.12304922938346863]</t>
+  </si>
+  <si>
+    <t>[-0.06406798958778381]</t>
+  </si>
+  <si>
+    <t>[-0.07132886350154877]</t>
+  </si>
+  <si>
+    <t>[-0.19881582260131836]</t>
+  </si>
+  <si>
+    <t>[-0.0034255983773618937]</t>
+  </si>
+  <si>
+    <t>[-0.1430344581604004]</t>
+  </si>
+  <si>
+    <t>[-0.2765650749206543]</t>
+  </si>
+  <si>
+    <t>[0.02232637256383896]</t>
+  </si>
+  <si>
+    <t>[0.029539553448557854]</t>
+  </si>
+  <si>
+    <t>[0.21243244409561157]</t>
+  </si>
+  <si>
+    <t>[-0.1628943234682083]</t>
+  </si>
+  <si>
+    <t>[0.022578157484531403]</t>
+  </si>
+  <si>
+    <t>[-0.022710571065545082]</t>
+  </si>
+  <si>
+    <t>[-0.2028232216835022]</t>
+  </si>
+  <si>
+    <t>[-0.04225758835673332]</t>
+  </si>
+  <si>
+    <t>[-0.11683738976716995]</t>
+  </si>
+  <si>
+    <t>[-0.09106499701738358]</t>
+  </si>
+  <si>
+    <t>[0.3337945342063904]</t>
+  </si>
+  <si>
+    <t>[0.22186905145645142]</t>
+  </si>
+  <si>
+    <t>[-0.05218470096588135]</t>
+  </si>
+  <si>
+    <t>[-0.08443589508533478]</t>
+  </si>
+  <si>
+    <t>[-0.23572419583797455]</t>
+  </si>
+  <si>
+    <t>[0.1329750269651413]</t>
+  </si>
+  <si>
+    <t>[0.09190336614847183]</t>
+  </si>
+  <si>
+    <t>[-0.0609462596476078]</t>
+  </si>
+  <si>
+    <t>[0.11221181601285934]</t>
+  </si>
+  <si>
+    <t>[-0.10261321067810059]</t>
+  </si>
+  <si>
+    <t>[-0.10226350277662277]</t>
+  </si>
+  <si>
+    <t>[0.09572675824165344]</t>
+  </si>
+  <si>
+    <t>[-0.09083503484725952]</t>
+  </si>
+  <si>
+    <t>[-0.2830531895160675]</t>
+  </si>
+  <si>
+    <t>[0.40841853618621826]</t>
+  </si>
+  <si>
+    <t>[0.16138355433940887]</t>
+  </si>
+  <si>
+    <t>[0.13294804096221924]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -4759,172 +4759,172 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.1698702871799469]</t>
-  </si>
-  <si>
-    <t>[1.0850127935409546]</t>
-  </si>
-  <si>
-    <t>[-0.17849674820899963]</t>
-  </si>
-  <si>
-    <t>[0.06389345228672028]</t>
-  </si>
-  <si>
-    <t>[-0.15257787704467773]</t>
-  </si>
-  <si>
-    <t>[1.0555610656738281]</t>
-  </si>
-  <si>
-    <t>[0.14667749404907227]</t>
-  </si>
-  <si>
-    <t>[-0.06153011694550514]</t>
-  </si>
-  <si>
-    <t>[0.18569229543209076]</t>
-  </si>
-  <si>
-    <t>[1.0973353385925293]</t>
-  </si>
-  <si>
-    <t>[0.1983838826417923]</t>
-  </si>
-  <si>
-    <t>[-0.12316315621137619]</t>
-  </si>
-  <si>
-    <t>[-0.1903150975704193]</t>
-  </si>
-  <si>
-    <t>[1.0689257383346558]</t>
-  </si>
-  <si>
-    <t>[0.12588973343372345]</t>
-  </si>
-  <si>
-    <t>[-0.13318398594856262]</t>
-  </si>
-  <si>
-    <t>[-0.20445828139781952]</t>
-  </si>
-  <si>
-    <t>[1.1188637018203735]</t>
-  </si>
-  <si>
-    <t>[-0.23317265510559082]</t>
-  </si>
-  <si>
-    <t>[0.09649448841810226]</t>
-  </si>
-  <si>
-    <t>[0.17861317098140717]</t>
-  </si>
-  <si>
-    <t>[1.0743606090545654]</t>
-  </si>
-  <si>
-    <t>[0.16952241957187653]</t>
-  </si>
-  <si>
-    <t>[0.09410297870635986]</t>
-  </si>
-  <si>
-    <t>[0.2064940482378006]</t>
-  </si>
-  <si>
-    <t>[1.0925828218460083]</t>
-  </si>
-  <si>
-    <t>[-0.17201943695545197]</t>
-  </si>
-  <si>
-    <t>[0.1211046352982521]</t>
-  </si>
-  <si>
-    <t>[-0.2257106602191925]</t>
-  </si>
-  <si>
-    <t>[1.1478456258773804]</t>
-  </si>
-  <si>
-    <t>[-0.2523474097251892]</t>
-  </si>
-  <si>
-    <t>[0.10771099478006363]</t>
-  </si>
-  <si>
-    <t>[0.172554612159729]</t>
-  </si>
-  <si>
-    <t>[1.1159324645996094]</t>
-  </si>
-  <si>
-    <t>[-0.17897383868694305]</t>
-  </si>
-  <si>
-    <t>[0.06865782290697098]</t>
-  </si>
-  <si>
-    <t>[0.2129790335893631]</t>
-  </si>
-  <si>
-    <t>[1.0997014045715332]</t>
-  </si>
-  <si>
-    <t>[0.17992596328258514]</t>
-  </si>
-  <si>
-    <t>[-0.13063490390777588]</t>
-  </si>
-  <si>
-    <t>[-0.18534108996391296]</t>
-  </si>
-  <si>
-    <t>[1.0837764739990234]</t>
-  </si>
-  <si>
-    <t>[-0.178573340177536]</t>
-  </si>
-  <si>
-    <t>[-0.13546942174434662]</t>
-  </si>
-  <si>
-    <t>[-0.23806381225585938]</t>
-  </si>
-  <si>
-    <t>[1.168201208114624]</t>
-  </si>
-  <si>
-    <t>[-0.2242191880941391]</t>
-  </si>
-  <si>
-    <t>[-0.07310105115175247]</t>
-  </si>
-  <si>
-    <t>[-0.3664693534374237]</t>
-  </si>
-  <si>
-    <t>[1.2311241626739502]</t>
-  </si>
-  <si>
-    <t>[0.13262148201465607]</t>
-  </si>
-  <si>
-    <t>[0.2937978208065033]</t>
-  </si>
-  <si>
-    <t>[0.1957246959209442]</t>
-  </si>
-  <si>
-    <t>[1.0885323286056519]</t>
-  </si>
-  <si>
-    <t>[-0.19688363373279572]</t>
-  </si>
-  <si>
-    <t>[-0.1051110252737999]</t>
+    <t>[-0.16094136238098145]</t>
+  </si>
+  <si>
+    <t>[1.0688077211380005]</t>
+  </si>
+  <si>
+    <t>[0.16245535016059875]</t>
+  </si>
+  <si>
+    <t>[-0.08522839844226837]</t>
+  </si>
+  <si>
+    <t>[0.20459730923175812]</t>
+  </si>
+  <si>
+    <t>[1.092237949371338]</t>
+  </si>
+  <si>
+    <t>[0.18150289356708527]</t>
+  </si>
+  <si>
+    <t>[-0.10372766852378845]</t>
+  </si>
+  <si>
+    <t>[0.2721337676048279]</t>
+  </si>
+  <si>
+    <t>[1.244537115097046]</t>
+  </si>
+  <si>
+    <t>[0.2874828577041626]</t>
+  </si>
+  <si>
+    <t>[0.11968351900577545]</t>
+  </si>
+  <si>
+    <t>[-0.20740258693695068]</t>
+  </si>
+  <si>
+    <t>[1.14385187625885]</t>
+  </si>
+  <si>
+    <t>[0.2738061547279358]</t>
+  </si>
+  <si>
+    <t>[0.14165621995925903]</t>
+  </si>
+  <si>
+    <t>[0.14623108506202698]</t>
+  </si>
+  <si>
+    <t>[1.0612196922302246]</t>
+  </si>
+  <si>
+    <t>[-0.17405793070793152]</t>
+  </si>
+  <si>
+    <t>[0.10941116511821747]</t>
+  </si>
+  <si>
+    <t>[-0.23799192905426025]</t>
+  </si>
+  <si>
+    <t>[1.2017463445663452]</t>
+  </si>
+  <si>
+    <t>[-0.25757983326911926]</t>
+  </si>
+  <si>
+    <t>[-0.09715163707733154]</t>
+  </si>
+  <si>
+    <t>[0.22844235599040985]</t>
+  </si>
+  <si>
+    <t>[1.1628271341323853]</t>
+  </si>
+  <si>
+    <t>[0.22645440697669983]</t>
+  </si>
+  <si>
+    <t>[-0.07583598792552948]</t>
+  </si>
+  <si>
+    <t>[0.20768988132476807]</t>
+  </si>
+  <si>
+    <t>[1.090379238128662]</t>
+  </si>
+  <si>
+    <t>[-0.18284045159816742]</t>
+  </si>
+  <si>
+    <t>[0.10385539382696152]</t>
+  </si>
+  <si>
+    <t>[0.2095039188861847]</t>
+  </si>
+  <si>
+    <t>[1.0988819599151611]</t>
+  </si>
+  <si>
+    <t>[0.1925492286682129]</t>
+  </si>
+  <si>
+    <t>[-0.11500813066959381]</t>
+  </si>
+  <si>
+    <t>[-0.22069576382637024]</t>
+  </si>
+  <si>
+    <t>[1.1584067344665527]</t>
+  </si>
+  <si>
+    <t>[0.20905451476573944]</t>
+  </si>
+  <si>
+    <t>[0.07005617022514343]</t>
+  </si>
+  <si>
+    <t>[-0.1740124523639679]</t>
+  </si>
+  <si>
+    <t>[1.0612025260925293]</t>
+  </si>
+  <si>
+    <t>[0.14830809831619263]</t>
+  </si>
+  <si>
+    <t>[-0.09200125932693481]</t>
+  </si>
+  <si>
+    <t>[0.17236144840717316]</t>
+  </si>
+  <si>
+    <t>[1.0879442691802979]</t>
+  </si>
+  <si>
+    <t>[0.19462080299854279]</t>
+  </si>
+  <si>
+    <t>[0.1276661902666092]</t>
+  </si>
+  <si>
+    <t>[0.24371027946472168]</t>
+  </si>
+  <si>
+    <t>[1.1680588722229004]</t>
+  </si>
+  <si>
+    <t>[-0.2282552719116211]</t>
+  </si>
+  <si>
+    <t>[-0.09002265334129333]</t>
+  </si>
+  <si>
+    <t>[-0.15928953886032104]</t>
+  </si>
+  <si>
+    <t>[1.0640102624893188]</t>
+  </si>
+  <si>
+    <t>[0.18097811937332153]</t>
+  </si>
+  <si>
+    <t>[0.10839132219552994]</t>
   </si>
 </sst>
 </file>
